--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R622637cf093445d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R18be1f20f9224f47"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -7573,10 +7573,10 @@
     <x:row>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>Filtros aplicados:
+          <x:t>Filtros aplicados: 
 Valor Bruto não é 0
 Posição é Posição D-1
-DataFim é (Em branco)
+DataFim é (Vazio)
 CARTEIRA não está em branco
 NR_CONTA não está em branco
 TIPO_LANCAMENTO não é ED, ET ou Liquidação Doador</x:t>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53D6D5D-7EAA-4187-A926-9E10A0CAD394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7ED90CF-8FE3-48ED-96D9-C3F9B7A1B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -631,13 +644,13 @@
     <t>004752534</t>
   </si>
   <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
     <t>004335144</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
   </si>
   <si>
     <t>005121919</t>
@@ -2771,9 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2796,7 +2807,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16316463.700000007</v>
+        <v>16316463.699999999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2818,7 +2829,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7175864.8599999994</v>
+        <v>7175927.5399999982</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2829,7 +2840,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6152743.25</v>
+        <v>6155953.7199999997</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2840,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5642904.7100000009</v>
+        <v>5642904.71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2851,7 +2862,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4641965.669999999</v>
+        <v>4641965.67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2862,7 +2873,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4337481.54</v>
+        <v>4337481.5400000019</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,7 +2884,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4193322.2199999997</v>
+        <v>4197479.4000000004</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2884,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4173563.68</v>
+        <v>4174485.8699999996</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2895,7 +2906,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>3924562.64</v>
+        <v>3926321.6700000004</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2906,7 +2917,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3703023.290000001</v>
+        <v>3703542.7800000003</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2928,7 +2939,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3506418.8600000003</v>
+        <v>3506965.1499999994</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2950,7 +2961,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>3273776.7200000007</v>
+        <v>3273776.72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2961,7 +2972,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3228093.9</v>
+        <v>3228555.0999999996</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2972,7 +2983,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3157606.5799999991</v>
+        <v>3157606.58</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2994,7 +3005,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3002347.5500000003</v>
+        <v>3002347.5500000007</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3005,7 +3016,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2924681.4499999997</v>
+        <v>2924944.04</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3016,7 +3027,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2782494.63</v>
+        <v>2782722.9499999997</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3038,7 +3049,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2714071.95</v>
+        <v>2714071.9499999997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3060,7 +3071,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2482623.9500000007</v>
+        <v>2482623.9499999997</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3071,7 +3082,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2407628.1600000006</v>
+        <v>2407628.16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3082,7 +3093,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2189778.0899999994</v>
+        <v>2189898.73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3093,7 +3104,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2187351.9699999997</v>
+        <v>2187351.9700000002</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3115,7 +3126,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2033837.0299999998</v>
+        <v>2035350.3299999998</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3126,7 +3137,7 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>2028572.1500000004</v>
+        <v>2028572.1500000001</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3148,7 +3159,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1984778.45</v>
+        <v>1984778.4499999997</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3159,7 +3170,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1934547.64</v>
+        <v>1935063.5499999998</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3170,7 +3181,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>1860102.9000000001</v>
+        <v>1860102.9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3181,7 +3192,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>1855171.1400000004</v>
+        <v>1855171.1400000001</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3192,7 +3203,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1809757.5500000003</v>
+        <v>1809757.55</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3214,7 +3225,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1592096.66</v>
+        <v>1593073.62</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3225,7 +3236,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1569926.53</v>
+        <v>1570624.79</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3247,7 +3258,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1504277.6</v>
+        <v>1504330.81</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3258,7 +3269,7 @@
         <v>75</v>
       </c>
       <c r="C44">
-        <v>1466139.0399999998</v>
+        <v>1466139.0399999996</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3269,7 +3280,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>1440168.2600000002</v>
+        <v>1441455.75</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3291,7 +3302,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1376487.5799999998</v>
+        <v>1376487.5799999996</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3302,7 +3313,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1370444.6400000001</v>
+        <v>1370444.64</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3313,7 +3324,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1353247.6099999999</v>
+        <v>1353247.6099999996</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3335,7 +3346,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1330404.8100000003</v>
+        <v>1330404.81</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3346,7 +3357,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1321111.56</v>
+        <v>1321111.5599999996</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3357,7 +3368,7 @@
         <v>86</v>
       </c>
       <c r="C53">
-        <v>1276703.0899999999</v>
+        <v>1276703.0900000003</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3390,7 +3401,7 @@
         <v>106</v>
       </c>
       <c r="C56">
-        <v>1255718.83</v>
+        <v>1256017.26</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3401,7 +3412,7 @@
         <v>20</v>
       </c>
       <c r="C57">
-        <v>1238304.8400000001</v>
+        <v>1239136.44</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3423,7 +3434,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1222844.5299999998</v>
+        <v>1222844.5300000003</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3434,7 +3445,7 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>1189025.8500000001</v>
+        <v>1189175.6100000003</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3456,7 +3467,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1170839.4100000001</v>
+        <v>1170839.4099999999</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3489,7 +3500,7 @@
         <v>59</v>
       </c>
       <c r="C65">
-        <v>1094463.44</v>
+        <v>1094463.4400000002</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3500,7 +3511,7 @@
         <v>123</v>
       </c>
       <c r="C66">
-        <v>1093567.8400000001</v>
+        <v>1094071.29</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3533,7 +3544,7 @@
         <v>128</v>
       </c>
       <c r="C69">
-        <v>1044630.52</v>
+        <v>1044630.5200000001</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3544,7 +3555,7 @@
         <v>130</v>
       </c>
       <c r="C70">
-        <v>1041871.06</v>
+        <v>1041871.0599999999</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3555,7 +3566,7 @@
         <v>132</v>
       </c>
       <c r="C71">
-        <v>1037868.87</v>
+        <v>1037868.8700000001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3566,7 +3577,7 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>1030242.3200000001</v>
+        <v>1030242.32</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3610,7 +3621,7 @@
         <v>140</v>
       </c>
       <c r="C76">
-        <v>984381.4600000002</v>
+        <v>984381.46000000008</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3632,7 +3643,7 @@
         <v>144</v>
       </c>
       <c r="C78">
-        <v>923490.54999999993</v>
+        <v>924032.62</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3643,7 +3654,7 @@
         <v>146</v>
       </c>
       <c r="C79">
-        <v>920199.48</v>
+        <v>920199.4800000001</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3665,7 +3676,7 @@
         <v>150</v>
       </c>
       <c r="C81">
-        <v>890410.59</v>
+        <v>890410.5900000002</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3676,7 +3687,7 @@
         <v>152</v>
       </c>
       <c r="C82">
-        <v>890070.91999999993</v>
+        <v>890240.46</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3698,7 +3709,7 @@
         <v>156</v>
       </c>
       <c r="C84">
-        <v>864343.63000000012</v>
+        <v>864343.63</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3731,7 +3742,7 @@
         <v>39</v>
       </c>
       <c r="C87">
-        <v>839952.53000000026</v>
+        <v>839952.53</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3742,7 +3753,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>835184.95</v>
+        <v>835184.95000000007</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3764,7 +3775,7 @@
         <v>33</v>
       </c>
       <c r="C90">
-        <v>818404.76000000024</v>
+        <v>818404.76</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3775,7 +3786,7 @@
         <v>167</v>
       </c>
       <c r="C91">
-        <v>815099.47</v>
+        <v>815099.47000000009</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3786,7 +3797,7 @@
         <v>28</v>
       </c>
       <c r="C92">
-        <v>808258.95</v>
+        <v>808258.95000000019</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3819,7 +3830,7 @@
         <v>64</v>
       </c>
       <c r="C95">
-        <v>789338.40999999992</v>
+        <v>789340.41999999993</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3830,7 +3841,7 @@
         <v>33</v>
       </c>
       <c r="C96">
-        <v>782305.37</v>
+        <v>782305.36999999988</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3863,7 +3874,7 @@
         <v>180</v>
       </c>
       <c r="C99">
-        <v>751983.84000000008</v>
+        <v>751983.83999999985</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3874,7 +3885,7 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>746268.89</v>
+        <v>746268.8899999999</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3885,7 +3896,7 @@
         <v>61</v>
       </c>
       <c r="C101">
-        <v>717187.35999999987</v>
+        <v>717328.03000000014</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3896,7 +3907,7 @@
         <v>184</v>
       </c>
       <c r="C102">
-        <v>703296.95</v>
+        <v>703515.94000000006</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3918,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>698175.66999999993</v>
+        <v>698175.67</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3929,7 +3940,7 @@
         <v>33</v>
       </c>
       <c r="C105">
-        <v>690423.25</v>
+        <v>690423.25000000012</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3940,7 +3951,7 @@
         <v>190</v>
       </c>
       <c r="C106">
-        <v>682934.87000000011</v>
+        <v>682934.87</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3962,7 +3973,7 @@
         <v>193</v>
       </c>
       <c r="C108">
-        <v>676914.0199999999</v>
+        <v>676914.02</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3984,7 +3995,7 @@
         <v>197</v>
       </c>
       <c r="C110">
-        <v>674889.41</v>
+        <v>674889.40999999992</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3995,7 +4006,7 @@
         <v>51</v>
       </c>
       <c r="C111">
-        <v>670836.23</v>
+        <v>670836.2300000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4017,7 +4028,7 @@
         <v>33</v>
       </c>
       <c r="C113">
-        <v>663960.86</v>
+        <v>664099.26</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4028,7 +4039,7 @@
         <v>73</v>
       </c>
       <c r="C114">
-        <v>647333.52</v>
+        <v>647333.52000000025</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4036,21 +4047,21 @@
         <v>203</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="C115">
-        <v>644799.86</v>
+        <v>645118.96</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="C116">
-        <v>644681.74</v>
+        <v>644799.86</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4061,7 +4072,7 @@
         <v>207</v>
       </c>
       <c r="C117">
-        <v>636630.03999999992</v>
+        <v>636630.0399999998</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4072,7 +4083,7 @@
         <v>39</v>
       </c>
       <c r="C118">
-        <v>628880.11999999988</v>
+        <v>628880.12000000011</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4094,7 +4105,7 @@
         <v>53</v>
       </c>
       <c r="C120">
-        <v>622579.56999999983</v>
+        <v>622579.56999999995</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4127,7 +4138,7 @@
         <v>53</v>
       </c>
       <c r="C123">
-        <v>608639.1100000001</v>
+        <v>608639.11</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4138,7 +4149,7 @@
         <v>218</v>
       </c>
       <c r="C124">
-        <v>606075.89999999991</v>
+        <v>606075.9</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4149,7 +4160,7 @@
         <v>195</v>
       </c>
       <c r="C125">
-        <v>590974.0199999999</v>
+        <v>590974.02</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4160,7 +4171,7 @@
         <v>221</v>
       </c>
       <c r="C126">
-        <v>576382.42999999993</v>
+        <v>576382.43000000005</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4171,7 +4182,7 @@
         <v>223</v>
       </c>
       <c r="C127">
-        <v>573769.38000000012</v>
+        <v>573769.38</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4182,7 +4193,7 @@
         <v>225</v>
       </c>
       <c r="C128">
-        <v>572772.69999999995</v>
+        <v>572772.70000000007</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4204,7 +4215,7 @@
         <v>228</v>
       </c>
       <c r="C130">
-        <v>566197.97000000009</v>
+        <v>566197.97</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4248,7 +4259,7 @@
         <v>235</v>
       </c>
       <c r="C134">
-        <v>544485.35000000009</v>
+        <v>544485.35</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4259,7 +4270,7 @@
         <v>237</v>
       </c>
       <c r="C135">
-        <v>541575</v>
+        <v>541575.00000000012</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4270,7 +4281,7 @@
         <v>239</v>
       </c>
       <c r="C136">
-        <v>537117.82000000007</v>
+        <v>537117.81999999995</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4292,7 +4303,7 @@
         <v>243</v>
       </c>
       <c r="C138">
-        <v>530794.5</v>
+        <v>531023.66</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4311,10 +4322,10 @@
         <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C140">
-        <v>527068.73</v>
+        <v>527068.7300000001</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4325,7 +4336,7 @@
         <v>248</v>
       </c>
       <c r="C141">
-        <v>515907.93999999989</v>
+        <v>515907.93999999994</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4336,7 +4347,7 @@
         <v>250</v>
       </c>
       <c r="C142">
-        <v>513840.83</v>
+        <v>513840.82999999996</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4347,7 +4358,7 @@
         <v>252</v>
       </c>
       <c r="C143">
-        <v>513355.74999999994</v>
+        <v>513355.74999999988</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4369,7 +4380,7 @@
         <v>256</v>
       </c>
       <c r="C145">
-        <v>508217.16999999987</v>
+        <v>508217.16999999993</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4402,7 +4413,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>491728.66</v>
+        <v>491728.65999999992</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4435,7 +4446,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>480209.11</v>
+        <v>480209.10999999993</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4468,7 +4479,7 @@
         <v>20</v>
       </c>
       <c r="C154">
-        <v>475607.19000000006</v>
+        <v>475607.18999999994</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4490,7 +4501,7 @@
         <v>275</v>
       </c>
       <c r="C156">
-        <v>462629.82999999996</v>
+        <v>462629.8299999999</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4523,7 +4534,7 @@
         <v>281</v>
       </c>
       <c r="C159">
-        <v>445729.56000000006</v>
+        <v>445729.56</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4534,7 +4545,7 @@
         <v>283</v>
       </c>
       <c r="C160">
-        <v>444912.92000000004</v>
+        <v>444912.92</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4545,7 +4556,7 @@
         <v>126</v>
       </c>
       <c r="C161">
-        <v>442340.48999999993</v>
+        <v>442340.49000000005</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4556,7 +4567,7 @@
         <v>126</v>
       </c>
       <c r="C162">
-        <v>442183.59</v>
+        <v>442183.59000000008</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4578,7 +4589,7 @@
         <v>288</v>
       </c>
       <c r="C164">
-        <v>424587.1</v>
+        <v>424587.10000000009</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4600,7 +4611,7 @@
         <v>291</v>
       </c>
       <c r="C166">
-        <v>420650.07</v>
+        <v>420723.4599999999</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4611,7 +4622,7 @@
         <v>293</v>
       </c>
       <c r="C167">
-        <v>419776.75999999995</v>
+        <v>419776.76</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4622,7 +4633,7 @@
         <v>186</v>
       </c>
       <c r="C168">
-        <v>418956.3</v>
+        <v>418981.7699999999</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4633,7 +4644,7 @@
         <v>296</v>
       </c>
       <c r="C169">
-        <v>417065.11</v>
+        <v>417252.42999999993</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4677,7 +4688,7 @@
         <v>33</v>
       </c>
       <c r="C173">
-        <v>402936.82</v>
+        <v>402936.81999999995</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4688,7 +4699,7 @@
         <v>305</v>
       </c>
       <c r="C174">
-        <v>397624.47</v>
+        <v>397624.47000000003</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4721,7 +4732,7 @@
         <v>311</v>
       </c>
       <c r="C177">
-        <v>390786.28999999992</v>
+        <v>390786.29</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4732,7 +4743,7 @@
         <v>86</v>
       </c>
       <c r="C178">
-        <v>388179.94000000006</v>
+        <v>388179.93999999994</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4743,7 +4754,7 @@
         <v>314</v>
       </c>
       <c r="C179">
-        <v>387806.97</v>
+        <v>387864.97000000003</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4754,7 +4765,7 @@
         <v>316</v>
       </c>
       <c r="C180">
-        <v>384007.66999999993</v>
+        <v>384007.67</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4765,7 +4776,7 @@
         <v>318</v>
       </c>
       <c r="C181">
-        <v>381544.43999999994</v>
+        <v>381544.44</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4776,7 +4787,7 @@
         <v>320</v>
       </c>
       <c r="C182">
-        <v>379878.73000000004</v>
+        <v>379878.73</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4787,7 +4798,7 @@
         <v>316</v>
       </c>
       <c r="C183">
-        <v>377061.04000000004</v>
+        <v>377061.03999999992</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4809,7 +4820,7 @@
         <v>325</v>
       </c>
       <c r="C185">
-        <v>371582.00000000006</v>
+        <v>371581.99999999994</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4842,7 +4853,7 @@
         <v>73</v>
       </c>
       <c r="C188">
-        <v>362549.72000000003</v>
+        <v>362549.72</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4875,7 +4886,7 @@
         <v>39</v>
       </c>
       <c r="C191">
-        <v>358232.17999999993</v>
+        <v>358232.18000000005</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4908,7 +4919,7 @@
         <v>329</v>
       </c>
       <c r="C194">
-        <v>357376.63000000006</v>
+        <v>357376.62999999995</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4930,7 +4941,7 @@
         <v>342</v>
       </c>
       <c r="C196">
-        <v>350695.13000000006</v>
+        <v>350695.12999999995</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4941,7 +4952,7 @@
         <v>344</v>
       </c>
       <c r="C197">
-        <v>348767.50000000012</v>
+        <v>348767.50000000006</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4974,7 +4985,7 @@
         <v>349</v>
       </c>
       <c r="C200">
-        <v>344416.88</v>
+        <v>344416.87999999995</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5029,7 +5040,7 @@
         <v>231</v>
       </c>
       <c r="C205">
-        <v>339608.30000000005</v>
+        <v>339608.3</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5051,7 +5062,7 @@
         <v>362</v>
       </c>
       <c r="C207">
-        <v>332777.99</v>
+        <v>332777.98999999993</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5084,7 +5095,7 @@
         <v>367</v>
       </c>
       <c r="C210">
-        <v>329667.94</v>
+        <v>329667.93999999994</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5095,7 +5106,7 @@
         <v>369</v>
       </c>
       <c r="C211">
-        <v>328131.58</v>
+        <v>328131.57999999996</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5106,7 +5117,7 @@
         <v>371</v>
       </c>
       <c r="C212">
-        <v>324099.57999999996</v>
+        <v>324099.58000000007</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5117,7 +5128,7 @@
         <v>373</v>
       </c>
       <c r="C213">
-        <v>322604.15000000002</v>
+        <v>322604.14999999997</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5128,7 +5139,7 @@
         <v>375</v>
       </c>
       <c r="C214">
-        <v>322135.48</v>
+        <v>322135.47999999992</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5150,7 +5161,7 @@
         <v>353</v>
       </c>
       <c r="C216">
-        <v>311811.46000000002</v>
+        <v>311811.45999999996</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5161,7 +5172,7 @@
         <v>379</v>
       </c>
       <c r="C217">
-        <v>309499.12</v>
+        <v>309499.11999999994</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5172,7 +5183,7 @@
         <v>86</v>
       </c>
       <c r="C218">
-        <v>307673.40000000002</v>
+        <v>307773.81</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5194,7 +5205,7 @@
         <v>355</v>
       </c>
       <c r="C220">
-        <v>305547.28000000003</v>
+        <v>305547.27999999997</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5205,7 +5216,7 @@
         <v>68</v>
       </c>
       <c r="C221">
-        <v>299468.69000000006</v>
+        <v>299468.69</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5227,7 +5238,7 @@
         <v>154</v>
       </c>
       <c r="C223">
-        <v>291525.37000000005</v>
+        <v>291525.37</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5249,7 +5260,7 @@
         <v>390</v>
       </c>
       <c r="C225">
-        <v>288008.27999999997</v>
+        <v>288008.28000000003</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5260,7 +5271,7 @@
         <v>53</v>
       </c>
       <c r="C226">
-        <v>287587.03999999998</v>
+        <v>287587.04000000004</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5271,7 +5282,7 @@
         <v>64</v>
       </c>
       <c r="C227">
-        <v>286490.54000000004</v>
+        <v>286490.53999999998</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5282,7 +5293,7 @@
         <v>394</v>
       </c>
       <c r="C228">
-        <v>281894.79000000004</v>
+        <v>281894.78999999998</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5304,7 +5315,7 @@
         <v>266</v>
       </c>
       <c r="C230">
-        <v>279462.57</v>
+        <v>279571.12</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5315,7 +5326,7 @@
         <v>399</v>
       </c>
       <c r="C231">
-        <v>276987.21999999997</v>
+        <v>276987.22000000003</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5326,7 +5337,7 @@
         <v>401</v>
       </c>
       <c r="C232">
-        <v>276947.83</v>
+        <v>276947.82999999996</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5348,7 +5359,7 @@
         <v>302</v>
       </c>
       <c r="C234">
-        <v>266135.79000000004</v>
+        <v>266135.78999999998</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5392,7 +5403,7 @@
         <v>412</v>
       </c>
       <c r="C238">
-        <v>261382.86000000004</v>
+        <v>261382.86</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5414,7 +5425,7 @@
         <v>213</v>
       </c>
       <c r="C240">
-        <v>258681.51</v>
+        <v>258780.54</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5425,7 +5436,7 @@
         <v>417</v>
       </c>
       <c r="C241">
-        <v>255368.49</v>
+        <v>255368.49000000002</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5447,7 +5458,7 @@
         <v>421</v>
       </c>
       <c r="C243">
-        <v>247087.66</v>
+        <v>247087.66000000003</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5458,7 +5469,7 @@
         <v>423</v>
       </c>
       <c r="C244">
-        <v>246123.02000000002</v>
+        <v>246123.02000000005</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5480,7 +5491,7 @@
         <v>427</v>
       </c>
       <c r="C246">
-        <v>241933.40999999997</v>
+        <v>241933.41</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5491,7 +5502,7 @@
         <v>429</v>
       </c>
       <c r="C247">
-        <v>241842.00000000003</v>
+        <v>241842</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5502,7 +5513,7 @@
         <v>431</v>
       </c>
       <c r="C248">
-        <v>240200.88999999998</v>
+        <v>240308.12999999998</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5513,7 +5524,7 @@
         <v>414</v>
       </c>
       <c r="C249">
-        <v>238144.94</v>
+        <v>238144.93999999994</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5524,7 +5535,7 @@
         <v>434</v>
       </c>
       <c r="C250">
-        <v>234897.71000000002</v>
+        <v>234897.70999999996</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5535,7 +5546,7 @@
         <v>293</v>
       </c>
       <c r="C251">
-        <v>234637.95999999996</v>
+        <v>234637.96</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5546,7 +5557,7 @@
         <v>437</v>
       </c>
       <c r="C252">
-        <v>233164.43</v>
+        <v>233164.42999999993</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5568,7 +5579,7 @@
         <v>441</v>
       </c>
       <c r="C254">
-        <v>227507.25999999998</v>
+        <v>227507.26</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5579,7 +5590,7 @@
         <v>443</v>
       </c>
       <c r="C255">
-        <v>226511.80999999997</v>
+        <v>226511.81000000003</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5590,7 +5601,7 @@
         <v>116</v>
       </c>
       <c r="C256">
-        <v>221956.59000000003</v>
+        <v>221961.85</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5612,7 +5623,7 @@
         <v>90</v>
       </c>
       <c r="C258">
-        <v>219495.06000000003</v>
+        <v>219495.05999999997</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5623,7 +5634,7 @@
         <v>448</v>
       </c>
       <c r="C259">
-        <v>218566.30000000002</v>
+        <v>218566.3</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5645,7 +5656,7 @@
         <v>302</v>
       </c>
       <c r="C261">
-        <v>216869.85</v>
+        <v>216869.84999999998</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5656,7 +5667,7 @@
         <v>453</v>
       </c>
       <c r="C262">
-        <v>214996.51</v>
+        <v>214996.50999999998</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5678,7 +5689,7 @@
         <v>279</v>
       </c>
       <c r="C264">
-        <v>213307.84999999998</v>
+        <v>213307.85</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5700,7 +5711,7 @@
         <v>459</v>
       </c>
       <c r="C266">
-        <v>207715.03</v>
+        <v>207715.03000000006</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5733,7 +5744,7 @@
         <v>464</v>
       </c>
       <c r="C269">
-        <v>204439.68999999997</v>
+        <v>204439.69</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5755,7 +5766,7 @@
         <v>86</v>
       </c>
       <c r="C271">
-        <v>203667.23</v>
+        <v>203667.23000000007</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5766,7 +5777,7 @@
         <v>279</v>
       </c>
       <c r="C272">
-        <v>203536.02000000002</v>
+        <v>203536.02</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5777,7 +5788,7 @@
         <v>469</v>
       </c>
       <c r="C273">
-        <v>201336.59999999998</v>
+        <v>201336.59999999995</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5788,7 +5799,7 @@
         <v>233</v>
       </c>
       <c r="C274">
-        <v>199520.78999999998</v>
+        <v>199520.79</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5821,7 +5832,7 @@
         <v>475</v>
       </c>
       <c r="C277">
-        <v>191711.33</v>
+        <v>191753.25999999998</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5865,7 +5876,7 @@
         <v>481</v>
       </c>
       <c r="C281">
-        <v>189017.02000000002</v>
+        <v>189071.98</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5876,7 +5887,7 @@
         <v>41</v>
       </c>
       <c r="C282">
-        <v>188028.7</v>
+        <v>188028.69999999998</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5898,7 +5909,7 @@
         <v>485</v>
       </c>
       <c r="C284">
-        <v>178710.37</v>
+        <v>178710.37000000002</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5909,7 +5920,7 @@
         <v>487</v>
       </c>
       <c r="C285">
-        <v>177224.45</v>
+        <v>177312.06</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5931,7 +5942,7 @@
         <v>390</v>
       </c>
       <c r="C287">
-        <v>172080.89</v>
+        <v>172080.88999999998</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5964,7 +5975,7 @@
         <v>495</v>
       </c>
       <c r="C290">
-        <v>168418.73</v>
+        <v>168418.73000000004</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5997,7 +6008,7 @@
         <v>499</v>
       </c>
       <c r="C293">
-        <v>163334.49000000002</v>
+        <v>163334.49</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6008,7 +6019,7 @@
         <v>109</v>
       </c>
       <c r="C294">
-        <v>161705.19</v>
+        <v>161705.19000000003</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6019,7 +6030,7 @@
         <v>502</v>
       </c>
       <c r="C295">
-        <v>160297.39000000001</v>
+        <v>160345.80000000002</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6096,7 +6107,7 @@
         <v>100</v>
       </c>
       <c r="C302">
-        <v>155980.04</v>
+        <v>155980.03999999998</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6107,7 +6118,7 @@
         <v>64</v>
       </c>
       <c r="C303">
-        <v>155205.98000000001</v>
+        <v>155205.97999999998</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6118,7 +6129,7 @@
         <v>31</v>
       </c>
       <c r="C304">
-        <v>152956.53</v>
+        <v>153025.04999999999</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6129,7 +6140,7 @@
         <v>517</v>
       </c>
       <c r="C305">
-        <v>151186.6</v>
+        <v>151186.59999999998</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6140,7 +6151,7 @@
         <v>241</v>
       </c>
       <c r="C306">
-        <v>150826.37999999998</v>
+        <v>150826.38</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6151,7 +6162,7 @@
         <v>41</v>
       </c>
       <c r="C307">
-        <v>148527.35</v>
+        <v>148527.34999999998</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6162,7 +6173,7 @@
         <v>349</v>
       </c>
       <c r="C308">
-        <v>146302.49000000002</v>
+        <v>146302.49</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6173,7 +6184,7 @@
         <v>522</v>
       </c>
       <c r="C309">
-        <v>145538.57</v>
+        <v>145548.54</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6195,7 +6206,7 @@
         <v>61</v>
       </c>
       <c r="C311">
-        <v>143224.96999999997</v>
+        <v>143224.97</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6206,7 +6217,7 @@
         <v>231</v>
       </c>
       <c r="C312">
-        <v>143024.07</v>
+        <v>143024.06999999998</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6217,7 +6228,7 @@
         <v>527</v>
       </c>
       <c r="C313">
-        <v>140518.97999999998</v>
+        <v>140518.98000000001</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6261,7 +6272,7 @@
         <v>535</v>
       </c>
       <c r="C317">
-        <v>138674.98000000001</v>
+        <v>138674.97999999998</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6272,7 +6283,7 @@
         <v>537</v>
       </c>
       <c r="C318">
-        <v>137108.34</v>
+        <v>137108.34000000003</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6294,7 +6305,7 @@
         <v>535</v>
       </c>
       <c r="C320">
-        <v>136714.71</v>
+        <v>136714.70999999996</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6305,7 +6316,7 @@
         <v>542</v>
       </c>
       <c r="C321">
-        <v>136680.35</v>
+        <v>136680.34999999998</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6349,7 +6360,7 @@
         <v>349</v>
       </c>
       <c r="C325">
-        <v>130654.31000000001</v>
+        <v>130654.31</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6371,7 +6382,7 @@
         <v>419</v>
       </c>
       <c r="C327">
-        <v>126558.64000000001</v>
+        <v>126558.63999999998</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6415,7 +6426,7 @@
         <v>558</v>
       </c>
       <c r="C331">
-        <v>121919.59999999999</v>
+        <v>121919.59999999998</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6437,7 +6448,7 @@
         <v>427</v>
       </c>
       <c r="C333">
-        <v>120793.00000000001</v>
+        <v>120793</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6470,7 +6481,7 @@
         <v>535</v>
       </c>
       <c r="C336">
-        <v>118874.73</v>
+        <v>118874.73000000001</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6492,7 +6503,7 @@
         <v>281</v>
       </c>
       <c r="C338">
-        <v>117211.16</v>
+        <v>117211.16000000002</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6514,7 +6525,7 @@
         <v>535</v>
       </c>
       <c r="C340">
-        <v>115020.39000000001</v>
+        <v>115020.39</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6547,7 +6558,7 @@
         <v>574</v>
       </c>
       <c r="C343">
-        <v>111955.71999999999</v>
+        <v>111955.71999999997</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6569,7 +6580,7 @@
         <v>61</v>
       </c>
       <c r="C345">
-        <v>111845.43000000002</v>
+        <v>111845.43000000001</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6591,7 +6602,7 @@
         <v>316</v>
       </c>
       <c r="C347">
-        <v>110690.68000000001</v>
+        <v>110690.68000000002</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6602,7 +6613,7 @@
         <v>581</v>
       </c>
       <c r="C348">
-        <v>110666.90000000002</v>
+        <v>110666.9</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6657,7 +6668,7 @@
         <v>90</v>
       </c>
       <c r="C353">
-        <v>107221.92</v>
+        <v>107221.91999999998</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6679,7 +6690,7 @@
         <v>64</v>
       </c>
       <c r="C355">
-        <v>106737.56999999998</v>
+        <v>106737.57</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6712,7 +6723,7 @@
         <v>448</v>
       </c>
       <c r="C358">
-        <v>102601.48999999999</v>
+        <v>102601.49</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6723,7 +6734,7 @@
         <v>90</v>
       </c>
       <c r="C359">
-        <v>101457.07999999999</v>
+        <v>101457.08</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6734,7 +6745,7 @@
         <v>316</v>
       </c>
       <c r="C360">
-        <v>101219.51</v>
+        <v>101219.51000000001</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6778,7 +6789,7 @@
         <v>602</v>
       </c>
       <c r="C364">
-        <v>99226.380000000019</v>
+        <v>99226.38</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6789,7 +6800,7 @@
         <v>604</v>
       </c>
       <c r="C365">
-        <v>98648.140000000014</v>
+        <v>98648.139999999985</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6800,7 +6811,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>97702.98000000001</v>
+        <v>97708.680000000008</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6833,7 +6844,7 @@
         <v>611</v>
       </c>
       <c r="C369">
-        <v>93165.41</v>
+        <v>93165.409999999989</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6844,7 +6855,7 @@
         <v>241</v>
       </c>
       <c r="C370">
-        <v>92212.209999999992</v>
+        <v>92212.21</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6855,7 +6866,7 @@
         <v>281</v>
       </c>
       <c r="C371">
-        <v>90988.26</v>
+        <v>90988.260000000009</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6888,7 +6899,7 @@
         <v>51</v>
       </c>
       <c r="C374">
-        <v>88863.700000000026</v>
+        <v>88863.7</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6910,7 +6921,7 @@
         <v>475</v>
       </c>
       <c r="C376">
-        <v>87137.15</v>
+        <v>87137.150000000009</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6932,7 +6943,7 @@
         <v>59</v>
       </c>
       <c r="C378">
-        <v>86443.810000000027</v>
+        <v>86443.810000000012</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6943,7 +6954,7 @@
         <v>622</v>
       </c>
       <c r="C379">
-        <v>81910.95</v>
+        <v>81910.950000000012</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6954,7 +6965,7 @@
         <v>556</v>
       </c>
       <c r="C380">
-        <v>81382.529999999984</v>
+        <v>81382.53</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6965,7 +6976,7 @@
         <v>625</v>
       </c>
       <c r="C381">
-        <v>81353.170000000013</v>
+        <v>81353.17</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6976,7 +6987,7 @@
         <v>193</v>
       </c>
       <c r="C382">
-        <v>81325.609999999986</v>
+        <v>81325.610000000015</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6984,7 +6995,7 @@
         <v>627</v>
       </c>
       <c r="B383" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C383">
         <v>81108.959999999992</v>
@@ -7009,7 +7020,7 @@
         <v>631</v>
       </c>
       <c r="C385">
-        <v>77956.52</v>
+        <v>77956.520000000019</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7042,7 +7053,7 @@
         <v>186</v>
       </c>
       <c r="C388">
-        <v>76215.55</v>
+        <v>76215.549999999988</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7097,7 +7108,7 @@
         <v>20</v>
       </c>
       <c r="C393">
-        <v>71904.13</v>
+        <v>71904.12999999999</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7108,7 +7119,7 @@
         <v>64</v>
       </c>
       <c r="C394">
-        <v>68661.319999999992</v>
+        <v>68661.320000000007</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7119,7 +7130,7 @@
         <v>645</v>
       </c>
       <c r="C395">
-        <v>68345.929999999993</v>
+        <v>68345.930000000008</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7141,7 +7152,7 @@
         <v>648</v>
       </c>
       <c r="C397">
-        <v>67099.189999999988</v>
+        <v>67099.19</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7163,7 +7174,7 @@
         <v>652</v>
       </c>
       <c r="C399">
-        <v>64017.150000000009</v>
+        <v>64017.149999999994</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7174,7 +7185,7 @@
         <v>329</v>
       </c>
       <c r="C400">
-        <v>63793.939999999995</v>
+        <v>63793.94</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7196,7 +7207,7 @@
         <v>186</v>
       </c>
       <c r="C402">
-        <v>62625.909999999989</v>
+        <v>62625.909999999996</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7218,7 +7229,7 @@
         <v>293</v>
       </c>
       <c r="C404">
-        <v>61702.680000000008</v>
+        <v>61702.68</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7317,7 +7328,7 @@
         <v>453</v>
       </c>
       <c r="C413">
-        <v>54764.37000000001</v>
+        <v>54764.37</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7328,7 +7339,7 @@
         <v>670</v>
       </c>
       <c r="C414">
-        <v>54396.759999999995</v>
+        <v>54396.76</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7339,7 +7350,7 @@
         <v>461</v>
       </c>
       <c r="C415">
-        <v>53873.33</v>
+        <v>53873.330000000009</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7350,7 +7361,7 @@
         <v>305</v>
       </c>
       <c r="C416">
-        <v>53588.150000000009</v>
+        <v>53588.15</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7372,7 +7383,7 @@
         <v>53</v>
       </c>
       <c r="C418">
-        <v>53040.03</v>
+        <v>53040.029999999992</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7416,7 +7427,7 @@
         <v>670</v>
       </c>
       <c r="C422">
-        <v>51460.340000000004</v>
+        <v>51460.34</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7427,7 +7438,7 @@
         <v>266</v>
       </c>
       <c r="C423">
-        <v>51255.049999999996</v>
+        <v>51255.05</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7512,7 +7523,7 @@
         <v>691</v>
       </c>
       <c r="B431" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C431">
         <v>44622.840000000004</v>
@@ -7559,7 +7570,7 @@
         <v>132</v>
       </c>
       <c r="C435">
-        <v>40798.720000000001</v>
+        <v>40798.719999999994</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7625,7 +7636,7 @@
         <v>403</v>
       </c>
       <c r="C441">
-        <v>34332.9</v>
+        <v>34332.900000000009</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7636,7 +7647,7 @@
         <v>707</v>
       </c>
       <c r="C442">
-        <v>34221.250000000007</v>
+        <v>34221.25</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7658,7 +7669,7 @@
         <v>711</v>
       </c>
       <c r="C444">
-        <v>33124.199999999997</v>
+        <v>33139.079999999994</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7702,7 +7713,7 @@
         <v>475</v>
       </c>
       <c r="C448">
-        <v>29660.38</v>
+        <v>29660.380000000005</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7713,7 +7724,7 @@
         <v>406</v>
       </c>
       <c r="C449">
-        <v>28779.640000000003</v>
+        <v>28779.64</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7746,7 +7757,7 @@
         <v>721</v>
       </c>
       <c r="C452">
-        <v>24605.999999999996</v>
+        <v>24606</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7757,7 +7768,7 @@
         <v>723</v>
       </c>
       <c r="C453">
-        <v>23070.77</v>
+        <v>23079.11</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7790,7 +7801,7 @@
         <v>64</v>
       </c>
       <c r="C456">
-        <v>20098.780000000002</v>
+        <v>20098.78</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7831,7 +7842,7 @@
         <v>733</v>
       </c>
       <c r="B460" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C460">
         <v>16084.82</v>
@@ -7867,7 +7878,7 @@
         <v>737</v>
       </c>
       <c r="C463">
-        <v>13995.18</v>
+        <v>13995.179999999998</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7966,7 +7977,7 @@
         <v>305</v>
       </c>
       <c r="C472">
-        <v>9687.43</v>
+        <v>9689.73</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8010,7 +8021,7 @@
         <v>186</v>
       </c>
       <c r="C476">
-        <v>5577.82</v>
+        <v>5577.8200000000006</v>
       </c>
     </row>
     <row r="477" spans="1:3">

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D16EA3E3-0F79-40E8-8E46-0AE5A67D04FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A9EDA8-2880-4DD6-9479-F9D01EEE955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="799">
   <si>
     <t>CONTA</t>
   </si>
@@ -346,18 +346,18 @@
     <t>004552021</t>
   </si>
   <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
     <t>004490955</t>
   </si>
   <si>
     <t>LUCIA</t>
   </si>
   <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
     <t>004448303</t>
   </si>
   <si>
@@ -397,18 +397,18 @@
     <t>005087681</t>
   </si>
   <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
     <t>004855960</t>
   </si>
   <si>
     <t>CLERIA</t>
   </si>
   <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
     <t>004119016</t>
   </si>
   <si>
@@ -451,18 +451,18 @@
     <t>POLO</t>
   </si>
   <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
     <t>004526450</t>
   </si>
   <si>
     <t>MSD</t>
   </si>
   <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
     <t>004322549</t>
   </si>
   <si>
@@ -580,6 +580,12 @@
     <t>004572740</t>
   </si>
   <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
     <t>004586209</t>
   </si>
   <si>
@@ -592,6 +598,12 @@
     <t>MARCELO</t>
   </si>
   <si>
+    <t>005143579</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
     <t>004241147</t>
   </si>
   <si>
@@ -607,12 +619,6 @@
     <t>ANDREA</t>
   </si>
   <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
     <t>005092207</t>
   </si>
   <si>
@@ -655,6 +661,9 @@
     <t>004460491</t>
   </si>
   <si>
+    <t>004497875</t>
+  </si>
+  <si>
     <t>004207955</t>
   </si>
   <si>
@@ -685,7 +694,10 @@
     <t>ALBERTO</t>
   </si>
   <si>
-    <t>004497875</t>
+    <t>004482102</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
   </si>
   <si>
     <t>005002457</t>
@@ -709,6 +721,12 @@
     <t>004458624</t>
   </si>
   <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
     <t>005000645</t>
   </si>
   <si>
@@ -718,12 +736,6 @@
     <t>FELIPE</t>
   </si>
   <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
     <t>004399832</t>
   </si>
   <si>
@@ -775,36 +787,36 @@
     <t>TIAGO</t>
   </si>
   <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
     <t>004927044</t>
   </si>
   <si>
     <t>CINTIA</t>
   </si>
   <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
     <t>004381328</t>
   </si>
   <si>
     <t>JOAO</t>
   </si>
   <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
     <t>005101676</t>
   </si>
   <si>
     <t>ELENI</t>
   </si>
   <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
     <t>004331477</t>
   </si>
   <si>
@@ -823,39 +835,39 @@
     <t>VALDIVINO</t>
   </si>
   <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
     <t>004207374</t>
   </si>
   <si>
     <t>ANGELICA</t>
   </si>
   <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
+    <t>004751770</t>
   </si>
   <si>
     <t>001731007</t>
   </si>
   <si>
-    <t>004751770</t>
-  </si>
-  <si>
     <t>004588677</t>
   </si>
   <si>
     <t>RACHEL</t>
   </si>
   <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
     <t>004811224</t>
   </si>
   <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
     <t>004419765</t>
   </si>
   <si>
@@ -901,9 +913,6 @@
     <t>004950193</t>
   </si>
   <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
     <t>004748761</t>
   </si>
   <si>
@@ -952,15 +961,15 @@
     <t>FLAVIA</t>
   </si>
   <si>
+    <t>004435987</t>
+  </si>
+  <si>
     <t>005009992</t>
   </si>
   <si>
     <t>ALINE</t>
   </si>
   <si>
-    <t>004435987</t>
-  </si>
-  <si>
     <t>004565146</t>
   </si>
   <si>
@@ -982,18 +991,18 @@
     <t>004565108</t>
   </si>
   <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
     <t>002694089</t>
   </si>
   <si>
     <t>VITOR</t>
   </si>
   <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
     <t>004805333</t>
   </si>
   <si>
@@ -1024,15 +1033,15 @@
     <t>RITA</t>
   </si>
   <si>
+    <t>004460487</t>
+  </si>
+  <si>
     <t>004563237</t>
   </si>
   <si>
     <t>FERNANDO</t>
   </si>
   <si>
-    <t>004460487</t>
-  </si>
-  <si>
     <t>004268684</t>
   </si>
   <si>
@@ -1072,6 +1081,12 @@
     <t>CEZAR</t>
   </si>
   <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
     <t>004451652</t>
   </si>
   <si>
@@ -1084,21 +1099,15 @@
     <t>GEISA</t>
   </si>
   <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
     <t>005135532</t>
   </si>
   <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
     <t>004213943</t>
   </si>
   <si>
@@ -1276,6 +1285,9 @@
     <t>MARINA</t>
   </si>
   <si>
+    <t>005142592</t>
+  </si>
+  <si>
     <t>004520100</t>
   </si>
   <si>
@@ -1312,6 +1324,12 @@
     <t>SOLANGE</t>
   </si>
   <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
     <t>004806286</t>
   </si>
   <si>
@@ -1360,15 +1378,15 @@
     <t>002823185</t>
   </si>
   <si>
+    <t>004384131</t>
+  </si>
+  <si>
     <t>004924222</t>
   </si>
   <si>
     <t>ROSANE</t>
   </si>
   <si>
-    <t>004384131</t>
-  </si>
-  <si>
     <t>005073033</t>
   </si>
   <si>
@@ -1492,18 +1510,18 @@
     <t>004273239</t>
   </si>
   <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
     <t>005103059</t>
   </si>
   <si>
     <t>WALQUIRIA</t>
   </si>
   <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
     <t>004550415</t>
   </si>
   <si>
@@ -1561,24 +1579,18 @@
     <t>004421636</t>
   </si>
   <si>
+    <t>004467884</t>
+  </si>
+  <si>
     <t>004886366</t>
   </si>
   <si>
-    <t>004482102</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
     <t>004267119</t>
   </si>
   <si>
     <t>005142624</t>
   </si>
   <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
     <t>004335031</t>
   </si>
   <si>
@@ -1612,9 +1624,6 @@
     <t>002592340</t>
   </si>
   <si>
-    <t>005152037</t>
-  </si>
-  <si>
     <t>004332544</t>
   </si>
   <si>
@@ -1645,249 +1654,264 @@
     <t>LEONE</t>
   </si>
   <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004479965</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004848279</t>
+  </si>
+  <si>
+    <t>004974089</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>004547722</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004480970</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>005000656</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004397124</t>
+  </si>
+  <si>
+    <t>MURYLO</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>004444164</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004377415</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
     <t>003115072</t>
   </si>
   <si>
     <t>VICTOR</t>
   </si>
   <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004479965</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>004848279</t>
-  </si>
-  <si>
-    <t>004974089</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004547722</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004480970</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>005000656</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004397124</t>
-  </si>
-  <si>
-    <t>MURYLO</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>004444164</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004377415</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
     <t>004999434</t>
   </si>
   <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
     <t>004752461</t>
   </si>
   <si>
@@ -1897,15 +1921,6 @@
     <t>MARIAH</t>
   </si>
   <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
     <t>004877741</t>
   </si>
   <si>
@@ -1915,12 +1930,6 @@
     <t>MATHEUS</t>
   </si>
   <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
     <t>004265173</t>
   </si>
   <si>
@@ -1933,15 +1942,15 @@
     <t>000772433</t>
   </si>
   <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
     <t>004713953</t>
   </si>
   <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
     <t>004994036</t>
   </si>
   <si>
@@ -2014,12 +2023,12 @@
     <t>004290978</t>
   </si>
   <si>
+    <t>004946997</t>
+  </si>
+  <si>
     <t>005022526</t>
   </si>
   <si>
-    <t>004946997</t>
-  </si>
-  <si>
     <t>004374891</t>
   </si>
   <si>
@@ -2029,57 +2038,57 @@
     <t>004277637</t>
   </si>
   <si>
+    <t>004767746</t>
+  </si>
+  <si>
     <t>005046919</t>
   </si>
   <si>
     <t>MARIANA</t>
   </si>
   <si>
-    <t>004767746</t>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>005140667</t>
   </si>
   <si>
     <t>004752519</t>
   </si>
   <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
     <t>001294033</t>
   </si>
   <si>
@@ -2137,12 +2146,15 @@
     <t>EDUARDA</t>
   </si>
   <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
     <t>004340984</t>
   </si>
   <si>
-    <t>004805269</t>
-  </si>
-  <si>
     <t>004228456</t>
   </si>
   <si>
@@ -2227,144 +2239,141 @@
     <t>004517506</t>
   </si>
   <si>
-    <t>005169333</t>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004895776</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>005122672</t>
+  </si>
+  <si>
+    <t>004192775</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>001368670</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004371857</t>
+  </si>
+  <si>
+    <t>NAZARETH</t>
+  </si>
+  <si>
+    <t>004321092</t>
+  </si>
+  <si>
+    <t>005075382</t>
+  </si>
+  <si>
+    <t>NAYARA</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
   </si>
   <si>
     <t>004214604</t>
   </si>
   <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004895776</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>005122672</t>
-  </si>
-  <si>
-    <t>004192775</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>001368670</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004371857</t>
-  </si>
-  <si>
-    <t>NAZARETH</t>
-  </si>
-  <si>
-    <t>004321092</t>
-  </si>
-  <si>
-    <t>005075382</t>
-  </si>
-  <si>
-    <t>NAYARA</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
     <t>004281300</t>
   </si>
   <si>
@@ -2381,9 +2390,6 @@
   </si>
   <si>
     <t>WANDIR</t>
-  </si>
-  <si>
-    <t>005142592</t>
   </si>
   <si>
     <t>004216298</t>
@@ -2775,7 +2781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C506"/>
+  <dimension ref="A1:C508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2800,7 +2806,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16318933.069999997</v>
+        <v>16330230.17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2811,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8153732.0399999982</v>
+        <v>8157115.3499999987</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2822,7 +2828,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7167239.2899999991</v>
+        <v>7173680.7999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2833,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6155136.549999998</v>
+        <v>6161175.1600000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2844,7 +2850,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5636530.9600000009</v>
+        <v>5642300.9800000004</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2855,7 +2861,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4644608.66</v>
+        <v>4646556.6799999988</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2866,7 +2872,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4325107.62</v>
+        <v>4337564.13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2877,7 +2883,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4197483.3499999996</v>
+        <v>4200087.9099999992</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2888,7 +2894,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4175515.88</v>
+        <v>4178569.27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2899,7 +2905,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>3926325.38</v>
+        <v>3928053.36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2910,7 +2916,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3705467.8999999994</v>
+        <v>3706212.9599999995</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2921,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3543498.3600000003</v>
+        <v>3548161.34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2932,7 +2938,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3508911.68</v>
+        <v>3509955.14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2943,7 +2949,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3396529.4999999995</v>
+        <v>3400923.6300000004</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2954,7 +2960,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>3275127.43</v>
+        <v>3276478.81</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2965,7 +2971,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3229506.79</v>
+        <v>3230853.75</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2976,7 +2982,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3159031.0100000002</v>
+        <v>3160342.439999999</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2987,7 +2993,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3070833.1399999997</v>
+        <v>3072209.94</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2998,7 +3004,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3003666.330000001</v>
+        <v>3004991.64</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3009,7 +3015,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2926170.3</v>
+        <v>2925608.5599999996</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3020,7 +3026,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2783006.32</v>
+        <v>2784329.4400000004</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3031,7 +3037,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2775646.72</v>
+        <v>2776926.45</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3042,7 +3048,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2715229.67</v>
+        <v>2716317.35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3053,7 +3059,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2521299.14</v>
+        <v>2522403.88</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3064,7 +3070,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2484007.1299999994</v>
+        <v>2485885.1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3075,7 +3081,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2404317.2999999998</v>
+        <v>2409198.6500000004</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3086,7 +3092,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2190691.39</v>
+        <v>2191431.7399999998</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3097,7 +3103,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2188306.02</v>
+        <v>2189193.3999999994</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3108,7 +3114,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2101243.3499999996</v>
+        <v>2103394.5999999996</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3119,7 +3125,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2035556.2299999997</v>
+        <v>2036614.0999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3130,7 +3136,7 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>2029743.67</v>
+        <v>2030403.9200000004</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3141,7 +3147,7 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>2010668.64</v>
+        <v>2011565.14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3152,7 +3158,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1982019.7399999995</v>
+        <v>1986228.2799999998</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3163,7 +3169,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1935094.71</v>
+        <v>1937266.09</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3174,7 +3180,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>1895551.9400000004</v>
+        <v>1896325.88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3185,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>1859035.41</v>
+        <v>1861449.5400000005</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3196,7 +3202,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1854678.0599999991</v>
+        <v>1856591.4000000004</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3207,7 +3213,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1811031.0999999999</v>
+        <v>1811798.3800000004</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3218,7 +3224,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1754599.3299999998</v>
+        <v>1755404.24</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3229,7 +3235,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1593136.1400000001</v>
+        <v>1593797.4600000002</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3240,7 +3246,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1570631.3499999999</v>
+        <v>1571322.3399999999</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3251,7 +3257,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1505916.97</v>
+        <v>1505555.3499999999</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3262,7 +3268,7 @@
         <v>77</v>
       </c>
       <c r="C44">
-        <v>1466775.8900000001</v>
+        <v>1467414.13</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3273,7 +3279,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>1441079.76</v>
+        <v>1442899.6600000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3284,7 +3290,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1383697.7400000002</v>
+        <v>1384551.3900000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3295,7 +3301,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1377080.7800000003</v>
+        <v>1377674.5899999999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3306,7 +3312,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1366710.8299999996</v>
+        <v>1370963.1100000003</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3317,7 +3323,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1353832.15</v>
+        <v>1354417.0500000003</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3328,7 +3334,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1352015.1099999996</v>
+        <v>1353114.0799999998</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3339,7 +3345,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1328512.33</v>
+        <v>1331352.45</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3350,7 +3356,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1321744.1600000004</v>
+        <v>1322376.99</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3361,7 +3367,7 @@
         <v>102</v>
       </c>
       <c r="C53">
-        <v>1276107.6600000001</v>
+        <v>1276560.4200000002</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3372,7 +3378,7 @@
         <v>86</v>
       </c>
       <c r="C54">
-        <v>1273918.76</v>
+        <v>1274666.98</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3383,7 +3389,7 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <v>1271885.43</v>
+        <v>1272409.3799999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3394,7 +3400,7 @@
         <v>106</v>
       </c>
       <c r="C56">
-        <v>1256462.4500000002</v>
+        <v>1257468.8599999999</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3405,7 +3411,7 @@
         <v>20</v>
       </c>
       <c r="C57">
-        <v>1239136.44</v>
+        <v>1239866.54</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3416,7 +3422,7 @@
         <v>109</v>
       </c>
       <c r="C58">
-        <v>1223368.4800000002</v>
+        <v>1227595.4100000001</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3427,7 +3433,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1219545.6299999999</v>
+        <v>1223744.3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3438,7 +3444,7 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>1189444.5999999999</v>
+        <v>1190428.96</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3449,7 +3455,7 @@
         <v>33</v>
       </c>
       <c r="C61">
-        <v>1177112.5100000005</v>
+        <v>1177614.93</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3460,7 +3466,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1171402.98</v>
+        <v>1171831.2299999997</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3471,7 +3477,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1147865.32</v>
+        <v>1148397.93</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3482,7 +3488,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1119950.6499999997</v>
+        <v>1120499.6900000002</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3493,7 +3499,7 @@
         <v>122</v>
       </c>
       <c r="C65">
-        <v>1093794.9000000001</v>
+        <v>1095213.45</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3504,7 +3510,7 @@
         <v>59</v>
       </c>
       <c r="C66">
-        <v>1091210.0499999998</v>
+        <v>1094939.5899999999</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3515,7 +3521,7 @@
         <v>41</v>
       </c>
       <c r="C67">
-        <v>1080248.48</v>
+        <v>1080677.51</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3526,7 +3532,7 @@
         <v>126</v>
       </c>
       <c r="C68">
-        <v>1045082.27</v>
+        <v>1046303.53</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3537,7 +3543,7 @@
         <v>128</v>
       </c>
       <c r="C69">
-        <v>1044855.7399999999</v>
+        <v>1045529.7699999999</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3548,7 +3554,7 @@
         <v>130</v>
       </c>
       <c r="C70">
-        <v>1042352.7300000001</v>
+        <v>1042831.8299999998</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3559,7 +3565,7 @@
         <v>132</v>
       </c>
       <c r="C71">
-        <v>1038313.2500000001</v>
+        <v>1038754.45</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3570,7 +3576,7 @@
         <v>79</v>
       </c>
       <c r="C72">
-        <v>1030680.06</v>
+        <v>1031116.54</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3581,7 +3587,7 @@
         <v>135</v>
       </c>
       <c r="C73">
-        <v>1026830.2299999997</v>
+        <v>1029995.6000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3592,7 +3598,7 @@
         <v>137</v>
       </c>
       <c r="C74">
-        <v>1026065.45</v>
+        <v>1026508.59</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3603,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>1011174.64</v>
+        <v>1011621.0699999997</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3614,7 +3620,7 @@
         <v>140</v>
       </c>
       <c r="C76">
-        <v>984809.99999999988</v>
+        <v>985238.35999999987</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3625,7 +3631,7 @@
         <v>142</v>
       </c>
       <c r="C77">
-        <v>963788.5199999999</v>
+        <v>964206.18</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3636,7 +3642,7 @@
         <v>144</v>
       </c>
       <c r="C78">
-        <v>956993.29999999993</v>
+        <v>962199.09000000008</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3647,7 +3653,7 @@
         <v>146</v>
       </c>
       <c r="C79">
-        <v>923890.95000000007</v>
+        <v>957407.16999999993</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3658,7 +3664,7 @@
         <v>148</v>
       </c>
       <c r="C80">
-        <v>920613.94999999984</v>
+        <v>920951.11</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3669,7 +3675,7 @@
         <v>150</v>
       </c>
       <c r="C81">
-        <v>899442.61999999988</v>
+        <v>902447.3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3680,7 +3686,7 @@
         <v>152</v>
       </c>
       <c r="C82">
-        <v>891062.95000000019</v>
+        <v>891430.11</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3691,7 +3697,7 @@
         <v>154</v>
       </c>
       <c r="C83">
-        <v>890451.4</v>
+        <v>890816.6</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3702,7 +3708,7 @@
         <v>156</v>
       </c>
       <c r="C84">
-        <v>881388.72</v>
+        <v>881759.45000000007</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3713,7 +3719,7 @@
         <v>158</v>
       </c>
       <c r="C85">
-        <v>864704.64</v>
+        <v>865045.08000000007</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3724,7 +3730,7 @@
         <v>160</v>
       </c>
       <c r="C86">
-        <v>864137.7699999999</v>
+        <v>864913.64999999979</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3735,7 +3741,7 @@
         <v>162</v>
       </c>
       <c r="C87">
-        <v>853180.46999999986</v>
+        <v>853549.56000000017</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3746,7 +3752,7 @@
         <v>39</v>
       </c>
       <c r="C88">
-        <v>837652.63000000024</v>
+        <v>840249.89000000013</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3757,7 +3763,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>833960.24999999988</v>
+        <v>835730.94000000006</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3768,7 +3774,7 @@
         <v>6</v>
       </c>
       <c r="C90">
-        <v>821929.1</v>
+        <v>827085.78999999992</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3779,7 +3785,7 @@
         <v>33</v>
       </c>
       <c r="C91">
-        <v>817931.11</v>
+        <v>819074.46000000008</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3790,7 +3796,7 @@
         <v>169</v>
       </c>
       <c r="C92">
-        <v>815547.42</v>
+        <v>815789.24000000022</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3801,7 +3807,7 @@
         <v>28</v>
       </c>
       <c r="C93">
-        <v>807478.70000000007</v>
+        <v>808489.16999999993</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3812,7 +3818,7 @@
         <v>172</v>
       </c>
       <c r="C94">
-        <v>797788.04000000015</v>
+        <v>798126.75</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3823,7 +3829,7 @@
         <v>174</v>
       </c>
       <c r="C95">
-        <v>797588.64000000013</v>
+        <v>797939.15999999992</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3834,7 +3840,7 @@
         <v>64</v>
       </c>
       <c r="C96">
-        <v>788447.25000000012</v>
+        <v>790042.24</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3845,7 +3851,7 @@
         <v>33</v>
       </c>
       <c r="C97">
-        <v>783191.17999999993</v>
+        <v>782949.57000000018</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3856,7 +3862,7 @@
         <v>178</v>
       </c>
       <c r="C98">
-        <v>778036.85999999987</v>
+        <v>779675.84000000008</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3867,7 +3873,7 @@
         <v>180</v>
       </c>
       <c r="C99">
-        <v>756568.58999999985</v>
+        <v>756899.91999999993</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3878,7 +3884,7 @@
         <v>182</v>
       </c>
       <c r="C100">
-        <v>752377.79000000015</v>
+        <v>752684.52000000014</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3889,7 +3895,7 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>745187.9600000002</v>
+        <v>746720.62</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3900,7 +3906,7 @@
         <v>33</v>
       </c>
       <c r="C102">
-        <v>724364.73</v>
+        <v>725846.22000000009</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3911,7 +3917,7 @@
         <v>61</v>
       </c>
       <c r="C103">
-        <v>715616.29999999993</v>
+        <v>717705.62</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3922,7 +3928,7 @@
         <v>187</v>
       </c>
       <c r="C104">
-        <v>703278.92999999993</v>
+        <v>716370.06000000029</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3933,7 +3939,7 @@
         <v>189</v>
       </c>
       <c r="C105">
-        <v>702647.56</v>
+        <v>703908.87999999989</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3941,32 +3947,32 @@
         <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="C106">
-        <v>698479.85000000009</v>
+        <v>702893.30999999994</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C107">
-        <v>683224.21</v>
+        <v>702000</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>677928.2699999999</v>
+        <v>698772.94</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3977,7 +3983,7 @@
         <v>196</v>
       </c>
       <c r="C109">
-        <v>676081.25999999989</v>
+        <v>683513.41999999969</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3985,21 +3991,21 @@
         <v>197</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="C110">
-        <v>673187.79</v>
+        <v>678479.64999999991</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C111">
-        <v>673054.66999999993</v>
+        <v>677415.80999999994</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4007,21 +4013,21 @@
         <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="C112">
-        <v>669024.18000000005</v>
+        <v>675212.53</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="C113">
-        <v>665879.85000000009</v>
+        <v>671044.74999999988</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4029,32 +4035,32 @@
         <v>203</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="C114">
-        <v>663843.55000000005</v>
+        <v>665877.87</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C115">
-        <v>646914.63</v>
+        <v>664542.06999999995</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="C116">
-        <v>645518.77</v>
+        <v>648283.06999999995</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4062,21 +4068,21 @@
         <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="C117">
-        <v>640665.17000000016</v>
+        <v>646375.42999999993</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="C118">
-        <v>636256.30000000005</v>
+        <v>644665.69999999995</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4084,21 +4090,21 @@
         <v>210</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="C119">
-        <v>631275.67000000004</v>
+        <v>637056.1399999999</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="C120">
-        <v>626064.5</v>
+        <v>632369.15000000014</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4106,10 +4112,10 @@
         <v>213</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C121">
-        <v>621635.08000000019</v>
+        <v>630880.27</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4120,7 +4126,7 @@
         <v>215</v>
       </c>
       <c r="C122">
-        <v>618707.59000000008</v>
+        <v>626339.42999999993</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4128,21 +4134,21 @@
         <v>216</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="C123">
-        <v>615185.65</v>
+        <v>622916.03000000014</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>217</v>
+      </c>
+      <c r="B124" t="s">
         <v>218</v>
       </c>
-      <c r="B124" t="s">
-        <v>53</v>
-      </c>
       <c r="C124">
-        <v>609050.45000000007</v>
+        <v>618966.33000000007</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4153,7 +4159,7 @@
         <v>220</v>
       </c>
       <c r="C125">
-        <v>605096.55000000005</v>
+        <v>616253.54</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4161,10 +4167,10 @@
         <v>221</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="C126">
-        <v>587654.07999999996</v>
+        <v>609315.70000000007</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4175,7 +4181,7 @@
         <v>223</v>
       </c>
       <c r="C127">
-        <v>576189.55000000005</v>
+        <v>606382.41999999993</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4186,7 +4192,7 @@
         <v>225</v>
       </c>
       <c r="C128">
-        <v>574030.06999999995</v>
+        <v>593595.17000000004</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4197,7 +4203,7 @@
         <v>227</v>
       </c>
       <c r="C129">
-        <v>573100.21</v>
+        <v>576936.37999999989</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4205,54 +4211,54 @@
         <v>228</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="C130">
-        <v>566500.29</v>
+        <v>574290.91</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="C131">
-        <v>563432.68999999994</v>
+        <v>573310.93999999994</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="C132">
-        <v>562238.68000000005</v>
+        <v>566749.69999999995</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C133">
-        <v>562007.07999999996</v>
+        <v>563847.75</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>10</v>
       </c>
       <c r="C134">
-        <v>554884.87</v>
+        <v>563681.24</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4263,7 +4269,7 @@
         <v>237</v>
       </c>
       <c r="C135">
-        <v>544751.32999999996</v>
+        <v>561412.02</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4274,7 +4280,7 @@
         <v>239</v>
       </c>
       <c r="C136">
-        <v>538059.60000000009</v>
+        <v>554860.49</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4285,7 +4291,7 @@
         <v>241</v>
       </c>
       <c r="C137">
-        <v>537347.43000000017</v>
+        <v>544978.94000000006</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4296,7 +4302,7 @@
         <v>243</v>
       </c>
       <c r="C138">
-        <v>534822.92999999993</v>
+        <v>541434.57000000007</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4307,7 +4313,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>531148.7699999999</v>
+        <v>537576.1399999999</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4318,7 +4324,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>531033.44000000006</v>
+        <v>534933.03</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4326,32 +4332,32 @@
         <v>248</v>
       </c>
       <c r="B141" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="C141">
-        <v>527293.97000000009</v>
+        <v>531341.20000000007</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C142">
-        <v>516506.35999999987</v>
+        <v>531267.88</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B143" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="C143">
-        <v>513367.06000000006</v>
+        <v>527518.88</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4362,7 +4368,7 @@
         <v>254</v>
       </c>
       <c r="C144">
-        <v>513077.64</v>
+        <v>516546.6</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4373,7 +4379,7 @@
         <v>256</v>
       </c>
       <c r="C145">
-        <v>509160.19999999995</v>
+        <v>514300.38999999996</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4384,7 +4390,7 @@
         <v>258</v>
       </c>
       <c r="C146">
-        <v>505188.03</v>
+        <v>513759.07999999996</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4395,7 +4401,7 @@
         <v>260</v>
       </c>
       <c r="C147">
-        <v>504955.65999999992</v>
+        <v>510250.53</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4406,7 +4412,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>499542.44</v>
+        <v>508112.05999999994</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4417,7 +4423,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>491994.92000000004</v>
+        <v>505435.4</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4428,7 +4434,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>482737.95</v>
+        <v>499747.45999999996</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4439,7 +4445,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>480409.82999999996</v>
+        <v>492180.47999999998</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4450,7 +4456,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>478867.02000000014</v>
+        <v>482927.70000000007</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4458,76 +4464,76 @@
         <v>271</v>
       </c>
       <c r="B153" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="C153">
-        <v>476749.23</v>
+        <v>481881.11</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="C154">
-        <v>474671.03</v>
+        <v>480610.71000000008</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="C155">
-        <v>462998.75</v>
+        <v>477657.52000000014</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C156">
-        <v>459052.01</v>
+        <v>476959.48000000004</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C157">
-        <v>456982.47000000009</v>
+        <v>463203.95</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B158" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C158">
-        <v>452764.37999999995</v>
+        <v>457182.52</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B159" t="s">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="C159">
-        <v>445945.0400000001</v>
+        <v>456242.67999999993</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4538,7 +4544,7 @@
         <v>283</v>
       </c>
       <c r="C160">
-        <v>443727.47</v>
+        <v>452954.13000000006</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4546,76 +4552,76 @@
         <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="C161">
-        <v>442536.6</v>
+        <v>446134.36999999994</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="C162">
-        <v>439204.28</v>
+        <v>445033.91999999987</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C163">
-        <v>425660.89</v>
+        <v>442732.83</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B164" t="s">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c r="C164">
-        <v>423999.62</v>
+        <v>442066.15999999992</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B165" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="C165">
-        <v>422742.23000000004</v>
+        <v>425845.05999999994</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C166">
-        <v>420826.67000000004</v>
+        <v>424888.48</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="C167">
-        <v>419200.64000000007</v>
+        <v>422896.20000000007</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4623,21 +4629,21 @@
         <v>294</v>
       </c>
       <c r="B168" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="C168">
-        <v>419013.03</v>
+        <v>421001.89</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B169" t="s">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c r="C169">
-        <v>417252.43</v>
+        <v>419943.01999999996</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4645,43 +4651,43 @@
         <v>297</v>
       </c>
       <c r="B170" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="C170">
-        <v>410494.48</v>
+        <v>419388.51</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
+        <v>298</v>
+      </c>
+      <c r="B171" t="s">
         <v>299</v>
       </c>
-      <c r="B171" t="s">
-        <v>300</v>
-      </c>
       <c r="C171">
-        <v>404613.95</v>
+        <v>417436.06</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" t="s">
         <v>301</v>
       </c>
-      <c r="B172" t="s">
-        <v>302</v>
-      </c>
       <c r="C172">
-        <v>403150.77999999997</v>
+        <v>410670.19999999995</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>302</v>
+      </c>
+      <c r="B173" t="s">
         <v>303</v>
       </c>
-      <c r="B173" t="s">
-        <v>33</v>
-      </c>
       <c r="C173">
-        <v>403105.27</v>
+        <v>405285.97</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4692,7 +4698,7 @@
         <v>305</v>
       </c>
       <c r="C174">
-        <v>397791.76000000007</v>
+        <v>403619.61999999994</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4700,43 +4706,43 @@
         <v>306</v>
       </c>
       <c r="B175" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="C175">
-        <v>396050.75999999995</v>
+        <v>403274.75</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
+        <v>307</v>
+      </c>
+      <c r="B176" t="s">
         <v>308</v>
       </c>
-      <c r="B176" t="s">
-        <v>309</v>
-      </c>
       <c r="C176">
-        <v>390170.4</v>
+        <v>397959.84</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" t="s">
         <v>310</v>
       </c>
-      <c r="B177" t="s">
-        <v>311</v>
-      </c>
       <c r="C177">
-        <v>385698.45000000007</v>
+        <v>396212.41000000003</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>311</v>
+      </c>
+      <c r="B178" t="s">
         <v>312</v>
       </c>
-      <c r="B178" t="s">
-        <v>86</v>
-      </c>
       <c r="C178">
-        <v>385687.47000000009</v>
+        <v>390992.53999999992</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4744,43 +4750,43 @@
         <v>313</v>
       </c>
       <c r="B179" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="C179">
-        <v>383817.73</v>
+        <v>388096.85</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>314</v>
+      </c>
+      <c r="B180" t="s">
         <v>315</v>
       </c>
-      <c r="B180" t="s">
-        <v>316</v>
-      </c>
       <c r="C180">
-        <v>382242.77999999997</v>
+        <v>387989.95</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>316</v>
+      </c>
+      <c r="B181" t="s">
         <v>317</v>
       </c>
-      <c r="B181" t="s">
-        <v>318</v>
-      </c>
       <c r="C181">
-        <v>379296.19000000006</v>
+        <v>384311.4</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>318</v>
+      </c>
+      <c r="B182" t="s">
         <v>319</v>
       </c>
-      <c r="B182" t="s">
-        <v>314</v>
-      </c>
       <c r="C182">
-        <v>376550.75</v>
+        <v>382606.44</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4791,7 +4797,7 @@
         <v>321</v>
       </c>
       <c r="C183">
-        <v>371878.70000000007</v>
+        <v>380092.84</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4799,43 +4805,43 @@
         <v>322</v>
       </c>
       <c r="B184" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C184">
-        <v>371260.25000000006</v>
+        <v>377345.53999999992</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>323</v>
+      </c>
+      <c r="B185" t="s">
         <v>324</v>
       </c>
-      <c r="B185" t="s">
-        <v>325</v>
-      </c>
       <c r="C185">
-        <v>367422.93000000005</v>
+        <v>372051.82999999996</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
+        <v>325</v>
+      </c>
+      <c r="B186" t="s">
         <v>326</v>
       </c>
-      <c r="B186" t="s">
-        <v>327</v>
-      </c>
       <c r="C186">
-        <v>366787.79000000004</v>
+        <v>372042.11999999994</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>327</v>
+      </c>
+      <c r="B187" t="s">
         <v>328</v>
       </c>
-      <c r="B187" t="s">
-        <v>75</v>
-      </c>
       <c r="C187">
-        <v>362340.01</v>
+        <v>367589.95</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4846,7 +4852,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>361722.70999999996</v>
+        <v>366945.55999999994</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4854,10 +4860,10 @@
         <v>331</v>
       </c>
       <c r="B189" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="C189">
-        <v>358815.99</v>
+        <v>362799.89999999997</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4868,7 +4874,7 @@
         <v>333</v>
       </c>
       <c r="C190">
-        <v>358572.83000000007</v>
+        <v>361875.91000000003</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4876,21 +4882,21 @@
         <v>334</v>
       </c>
       <c r="B191" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="C191">
-        <v>358390.58999999997</v>
+        <v>359439.89000000007</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>335</v>
+      </c>
+      <c r="B192" t="s">
         <v>336</v>
       </c>
-      <c r="B192" t="s">
-        <v>39</v>
-      </c>
       <c r="C192">
-        <v>358385.71</v>
+        <v>358722.72</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4898,10 +4904,10 @@
         <v>337</v>
       </c>
       <c r="B193" t="s">
-        <v>327</v>
+        <v>39</v>
       </c>
       <c r="C193">
-        <v>357525.43999999994</v>
+        <v>358539.37999999989</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4909,21 +4915,21 @@
         <v>338</v>
       </c>
       <c r="B194" t="s">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="C194">
-        <v>356253.97999999992</v>
+        <v>358506.68999999994</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B195" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C195">
-        <v>350870.04</v>
+        <v>357674.36999999994</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4931,32 +4937,32 @@
         <v>341</v>
       </c>
       <c r="B196" t="s">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="C196">
-        <v>350262.50000000006</v>
+        <v>356375.71</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
+        <v>342</v>
+      </c>
+      <c r="B197" t="s">
         <v>343</v>
       </c>
-      <c r="B197" t="s">
-        <v>344</v>
-      </c>
       <c r="C197">
-        <v>347924.85000000003</v>
+        <v>350971.67000000004</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
+        <v>344</v>
+      </c>
+      <c r="B198" t="s">
         <v>345</v>
       </c>
-      <c r="B198" t="s">
-        <v>309</v>
-      </c>
       <c r="C198">
-        <v>345650.04</v>
+        <v>350313.72000000003</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4967,7 +4973,7 @@
         <v>347</v>
       </c>
       <c r="C199">
-        <v>344575.43000000005</v>
+        <v>348073.48000000004</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4975,43 +4981,43 @@
         <v>348</v>
       </c>
       <c r="B200" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="C200">
-        <v>343837.83999999997</v>
+        <v>346385.5</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
+        <v>349</v>
+      </c>
+      <c r="B201" t="s">
         <v>350</v>
       </c>
-      <c r="B201" t="s">
-        <v>351</v>
-      </c>
       <c r="C201">
-        <v>341439.77999999997</v>
+        <v>344733.26999999996</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
+        <v>351</v>
+      </c>
+      <c r="B202" t="s">
         <v>352</v>
       </c>
-      <c r="B202" t="s">
-        <v>353</v>
-      </c>
       <c r="C202">
-        <v>340059.68999999994</v>
+        <v>344569.52</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
+        <v>353</v>
+      </c>
+      <c r="B203" t="s">
         <v>354</v>
       </c>
-      <c r="B203" t="s">
-        <v>231</v>
-      </c>
       <c r="C203">
-        <v>339740.11000000004</v>
+        <v>342185.13</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5022,7 +5028,7 @@
         <v>356</v>
       </c>
       <c r="C204">
-        <v>339588.11000000004</v>
+        <v>341692.54</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5033,7 +5039,7 @@
         <v>358</v>
       </c>
       <c r="C205">
-        <v>338146.63</v>
+        <v>340425.02</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5044,7 +5050,7 @@
         <v>360</v>
       </c>
       <c r="C206">
-        <v>333181.41000000003</v>
+        <v>340021.48</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5052,43 +5058,43 @@
         <v>361</v>
       </c>
       <c r="B207" t="s">
-        <v>362</v>
+        <v>237</v>
       </c>
       <c r="C207">
-        <v>332893.52999999997</v>
+        <v>339872.31</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
+        <v>362</v>
+      </c>
+      <c r="B208" t="s">
         <v>363</v>
       </c>
-      <c r="B208" t="s">
-        <v>364</v>
-      </c>
       <c r="C208">
-        <v>331665.5</v>
+        <v>333322.16000000003</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>364</v>
+      </c>
+      <c r="B209" t="s">
         <v>365</v>
       </c>
-      <c r="B209" t="s">
-        <v>366</v>
-      </c>
       <c r="C209">
-        <v>329809.53000000003</v>
+        <v>333008.90000000002</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
+        <v>366</v>
+      </c>
+      <c r="B210" t="s">
         <v>367</v>
       </c>
-      <c r="B210" t="s">
-        <v>102</v>
-      </c>
       <c r="C210">
-        <v>328768.45999999996</v>
+        <v>332361.59999999998</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5099,7 +5105,7 @@
         <v>369</v>
       </c>
       <c r="C211">
-        <v>328273.09999999998</v>
+        <v>330951.18</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5107,43 +5113,43 @@
         <v>370</v>
       </c>
       <c r="B212" t="s">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="C212">
-        <v>323583.20999999996</v>
+        <v>330824.85000000003</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
+        <v>371</v>
+      </c>
+      <c r="B213" t="s">
         <v>372</v>
       </c>
-      <c r="B213" t="s">
-        <v>373</v>
-      </c>
       <c r="C213">
-        <v>322733.06</v>
+        <v>328415.27</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>373</v>
+      </c>
+      <c r="B214" t="s">
         <v>374</v>
       </c>
-      <c r="B214" t="s">
-        <v>375</v>
-      </c>
       <c r="C214">
-        <v>322270.41999999993</v>
+        <v>324270.12</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" t="s">
         <v>376</v>
       </c>
-      <c r="B215" t="s">
-        <v>33</v>
-      </c>
       <c r="C215">
-        <v>315906.86999999994</v>
+        <v>322862.01</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5151,32 +5157,32 @@
         <v>377</v>
       </c>
       <c r="B216" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="C216">
-        <v>311938.47999999992</v>
+        <v>322405.40999999997</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B217" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C217">
-        <v>307650.37</v>
+        <v>316043.2</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B218" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C218">
-        <v>306925.57999999996</v>
+        <v>312064.42999999993</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5184,10 +5190,10 @@
         <v>381</v>
       </c>
       <c r="B219" t="s">
-        <v>358</v>
+        <v>86</v>
       </c>
       <c r="C219">
-        <v>305697.47000000003</v>
+        <v>307925.33</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5198,7 +5204,7 @@
         <v>383</v>
       </c>
       <c r="C220">
-        <v>305590.17000000004</v>
+        <v>307058.46999999997</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5206,10 +5212,10 @@
         <v>384</v>
       </c>
       <c r="B221" t="s">
-        <v>68</v>
+        <v>354</v>
       </c>
       <c r="C221">
-        <v>299431.23</v>
+        <v>305847.68999999994</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5217,32 +5223,32 @@
         <v>385</v>
       </c>
       <c r="B222" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="C222">
-        <v>295905.94</v>
+        <v>305704.32000000001</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B223" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="C223">
-        <v>291679.89</v>
+        <v>299700.89999999997</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B224" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="C224">
-        <v>290165.03000000003</v>
+        <v>298570.90000000002</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5250,21 +5256,21 @@
         <v>389</v>
       </c>
       <c r="B225" t="s">
-        <v>390</v>
+        <v>156</v>
       </c>
       <c r="C225">
-        <v>288137.02999999991</v>
+        <v>291772.24</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>390</v>
+      </c>
+      <c r="B226" t="s">
         <v>391</v>
       </c>
-      <c r="B226" t="s">
-        <v>53</v>
-      </c>
       <c r="C226">
-        <v>286764.41000000003</v>
+        <v>290286.31999999995</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5272,21 +5278,21 @@
         <v>392</v>
       </c>
       <c r="B227" t="s">
-        <v>64</v>
+        <v>393</v>
       </c>
       <c r="C227">
-        <v>286039.46999999997</v>
+        <v>288140.88999999996</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B228" t="s">
-        <v>394</v>
+        <v>53</v>
       </c>
       <c r="C228">
-        <v>282061.50999999995</v>
+        <v>287632.84000000003</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5294,21 +5300,21 @@
         <v>395</v>
       </c>
       <c r="B229" t="s">
-        <v>396</v>
+        <v>64</v>
       </c>
       <c r="C229">
-        <v>280086.31</v>
+        <v>286645.33000000007</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
+        <v>396</v>
+      </c>
+      <c r="B230" t="s">
         <v>397</v>
       </c>
-      <c r="B230" t="s">
-        <v>270</v>
-      </c>
       <c r="C230">
-        <v>280012.34999999998</v>
+        <v>282180.72000000003</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5319,7 +5325,7 @@
         <v>399</v>
       </c>
       <c r="C231">
-        <v>277113.25</v>
+        <v>280205.94999999995</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5327,32 +5333,32 @@
         <v>400</v>
       </c>
       <c r="B232" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="C232">
-        <v>276535.57</v>
+        <v>280029.05000000005</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
+        <v>401</v>
+      </c>
+      <c r="B233" t="s">
         <v>402</v>
       </c>
-      <c r="B233" t="s">
-        <v>403</v>
-      </c>
       <c r="C233">
-        <v>269035.14999999997</v>
+        <v>277239.05</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>403</v>
+      </c>
+      <c r="B234" t="s">
         <v>404</v>
       </c>
-      <c r="B234" t="s">
-        <v>302</v>
-      </c>
       <c r="C234">
-        <v>266019.51999999996</v>
+        <v>277119.64</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5363,7 +5369,7 @@
         <v>406</v>
       </c>
       <c r="C235">
-        <v>265362.94</v>
+        <v>269160.69</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5371,43 +5377,43 @@
         <v>407</v>
       </c>
       <c r="B236" t="s">
-        <v>408</v>
+        <v>305</v>
       </c>
       <c r="C236">
-        <v>264703.64999999997</v>
+        <v>266353.82999999996</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
+        <v>408</v>
+      </c>
+      <c r="B237" t="s">
         <v>409</v>
       </c>
-      <c r="B237" t="s">
-        <v>410</v>
-      </c>
       <c r="C237">
-        <v>263658.37</v>
+        <v>265930.48</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
+        <v>410</v>
+      </c>
+      <c r="B238" t="s">
         <v>411</v>
       </c>
-      <c r="B238" t="s">
-        <v>412</v>
-      </c>
       <c r="C238">
-        <v>261236.06000000006</v>
+        <v>264816.18</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>412</v>
+      </c>
+      <c r="B239" t="s">
         <v>413</v>
       </c>
-      <c r="B239" t="s">
-        <v>215</v>
-      </c>
       <c r="C239">
-        <v>259225.70999999996</v>
+        <v>264220.08999999991</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5418,7 +5424,7 @@
         <v>415</v>
       </c>
       <c r="C240">
-        <v>259083.41999999998</v>
+        <v>261570.90999999997</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5426,120 +5432,120 @@
         <v>416</v>
       </c>
       <c r="B241" t="s">
-        <v>417</v>
+        <v>218</v>
       </c>
       <c r="C241">
-        <v>255481.63</v>
+        <v>259506.09999999998</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>417</v>
+      </c>
+      <c r="B242" t="s">
         <v>418</v>
       </c>
-      <c r="B242" t="s">
-        <v>419</v>
-      </c>
       <c r="C242">
-        <v>247070.29</v>
+        <v>259164.24</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>419</v>
+      </c>
+      <c r="B243" t="s">
         <v>420</v>
       </c>
-      <c r="B243" t="s">
-        <v>421</v>
-      </c>
       <c r="C243">
-        <v>246700.18000000002</v>
+        <v>255595.09000000005</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B244" t="s">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="C244">
-        <v>245899.24</v>
+        <v>255010</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B245" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C245">
-        <v>245801.71000000002</v>
+        <v>247595.42</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B246" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C246">
-        <v>242043.56000000003</v>
+        <v>247227.18999999997</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B247" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C247">
-        <v>241465.05000000002</v>
+        <v>246543.77</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B248" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C248">
-        <v>240308.75</v>
+        <v>246107.57999999996</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B249" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C249">
-        <v>237971.03999999998</v>
+        <v>242186.62000000002</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
+        <v>432</v>
+      </c>
+      <c r="B250" t="s">
         <v>433</v>
       </c>
-      <c r="B250" t="s">
-        <v>434</v>
-      </c>
       <c r="C250">
-        <v>235025.54</v>
+        <v>241952.37999999995</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>434</v>
+      </c>
+      <c r="B251" t="s">
         <v>435</v>
       </c>
-      <c r="B251" t="s">
-        <v>293</v>
-      </c>
       <c r="C251">
-        <v>234313.78</v>
+        <v>240602.28999999998</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5550,7 +5556,7 @@
         <v>437</v>
       </c>
       <c r="C252">
-        <v>233027.31000000003</v>
+        <v>240414.48</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5558,54 +5564,54 @@
         <v>438</v>
       </c>
       <c r="B253" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C253">
-        <v>232501.84000000003</v>
+        <v>238304.28</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>439</v>
+      </c>
+      <c r="B254" t="s">
         <v>440</v>
       </c>
-      <c r="B254" t="s">
-        <v>441</v>
-      </c>
       <c r="C254">
-        <v>227602.59</v>
+        <v>235129.84000000003</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B255" t="s">
-        <v>443</v>
+        <v>193</v>
       </c>
       <c r="C255">
-        <v>226620.27000000002</v>
+        <v>234787.47999999998</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B256" t="s">
-        <v>116</v>
+        <v>443</v>
       </c>
       <c r="C256">
-        <v>222417.65</v>
+        <v>233325.18999999997</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>444</v>
+      </c>
+      <c r="B257" t="s">
         <v>445</v>
       </c>
-      <c r="B257" t="s">
-        <v>148</v>
-      </c>
       <c r="C257">
-        <v>220608.89</v>
+        <v>232593.84999999998</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5616,7 +5622,7 @@
         <v>447</v>
       </c>
       <c r="C258">
-        <v>218686.57000000004</v>
+        <v>227697.97</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5624,21 +5630,21 @@
         <v>448</v>
       </c>
       <c r="B259" t="s">
-        <v>90</v>
+        <v>449</v>
       </c>
       <c r="C259">
-        <v>218086.71</v>
+        <v>226832.56000000003</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B260" t="s">
-        <v>450</v>
+        <v>116</v>
       </c>
       <c r="C260">
-        <v>217512.04</v>
+        <v>221916.02000000002</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5646,10 +5652,10 @@
         <v>451</v>
       </c>
       <c r="B261" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="C261">
-        <v>216788.52000000005</v>
+        <v>220960.64000000001</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5657,32 +5663,32 @@
         <v>452</v>
       </c>
       <c r="B262" t="s">
-        <v>453</v>
+        <v>90</v>
       </c>
       <c r="C262">
-        <v>215082.37999999998</v>
+        <v>219452.09</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>453</v>
+      </c>
+      <c r="B263" t="s">
         <v>454</v>
       </c>
-      <c r="B263" t="s">
-        <v>455</v>
-      </c>
       <c r="C263">
-        <v>213846.99000000002</v>
+        <v>218779.98</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
+        <v>455</v>
+      </c>
+      <c r="B264" t="s">
         <v>456</v>
       </c>
-      <c r="B264" t="s">
-        <v>279</v>
-      </c>
       <c r="C264">
-        <v>211937.23000000004</v>
+        <v>217958.24000000002</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5690,10 +5696,10 @@
         <v>457</v>
       </c>
       <c r="B265" t="s">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="C265">
-        <v>208729.37999999998</v>
+        <v>217065.57000000007</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5704,7 +5710,7 @@
         <v>459</v>
       </c>
       <c r="C266">
-        <v>207803.71000000002</v>
+        <v>215168.28</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5715,7 +5721,7 @@
         <v>461</v>
       </c>
       <c r="C267">
-        <v>206974.43000000002</v>
+        <v>213939.61</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5723,10 +5729,10 @@
         <v>462</v>
       </c>
       <c r="B268" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C268">
-        <v>205666.68</v>
+        <v>213262.40000000005</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5734,21 +5740,21 @@
         <v>463</v>
       </c>
       <c r="B269" t="s">
-        <v>464</v>
+        <v>75</v>
       </c>
       <c r="C269">
-        <v>205219.14</v>
+        <v>209167.97999999998</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>464</v>
+      </c>
+      <c r="B270" t="s">
         <v>465</v>
       </c>
-      <c r="B270" t="s">
-        <v>279</v>
-      </c>
       <c r="C270">
-        <v>204598.38000000003</v>
+        <v>207892.41000000003</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5756,54 +5762,54 @@
         <v>466</v>
       </c>
       <c r="B271" t="s">
-        <v>51</v>
+        <v>467</v>
       </c>
       <c r="C271">
-        <v>203596.03000000003</v>
+        <v>207423.82</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B272" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="C272">
-        <v>202079.16000000003</v>
+        <v>206046.87000000005</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B273" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C273">
-        <v>201221.76000000001</v>
+        <v>205593.25999999998</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B274" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="C274">
-        <v>199673.01999999993</v>
+        <v>204660.31</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B275" t="s">
-        <v>472</v>
+        <v>51</v>
       </c>
       <c r="C275">
-        <v>197742.55</v>
+        <v>204232.2</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5811,10 +5817,10 @@
         <v>473</v>
       </c>
       <c r="B276" t="s">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="C276">
-        <v>193030.47</v>
+        <v>201807.72</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5825,7 +5831,7 @@
         <v>475</v>
       </c>
       <c r="C277">
-        <v>191794.61</v>
+        <v>201480.82</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5833,10 +5839,10 @@
         <v>476</v>
       </c>
       <c r="B278" t="s">
-        <v>431</v>
+        <v>239</v>
       </c>
       <c r="C278">
-        <v>191453.71</v>
+        <v>200046.83</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5847,7 +5853,7 @@
         <v>478</v>
       </c>
       <c r="C279">
-        <v>191334.78</v>
+        <v>198093.97</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5855,10 +5861,10 @@
         <v>479</v>
       </c>
       <c r="B280" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="C280">
-        <v>190703.42000000004</v>
+        <v>193111.28</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5869,7 +5875,7 @@
         <v>481</v>
       </c>
       <c r="C281">
-        <v>189088.74000000002</v>
+        <v>191879.64</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5877,10 +5883,10 @@
         <v>482</v>
       </c>
       <c r="B282" t="s">
-        <v>41</v>
+        <v>437</v>
       </c>
       <c r="C282">
-        <v>187767.53</v>
+        <v>191540.72</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5888,21 +5894,21 @@
         <v>483</v>
       </c>
       <c r="B283" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="C283">
-        <v>185127.51</v>
+        <v>191416.64</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B284" t="s">
-        <v>485</v>
+        <v>53</v>
       </c>
       <c r="C284">
-        <v>178447.34</v>
+        <v>191093.87999999998</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5913,7 +5919,7 @@
         <v>487</v>
       </c>
       <c r="C285">
-        <v>177315.05</v>
+        <v>189181.37</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5921,10 +5927,10 @@
         <v>488</v>
       </c>
       <c r="B286" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C286">
-        <v>172900.35999999996</v>
+        <v>188129.52000000002</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5932,10 +5938,10 @@
         <v>489</v>
       </c>
       <c r="B287" t="s">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="C287">
-        <v>171354.28999999998</v>
+        <v>185518.07999999996</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5946,7 +5952,7 @@
         <v>491</v>
       </c>
       <c r="C288">
-        <v>171027.85</v>
+        <v>178808.17</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5957,7 +5963,7 @@
         <v>493</v>
       </c>
       <c r="C289">
-        <v>170908.89</v>
+        <v>177417.37999999998</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5965,32 +5971,32 @@
         <v>494</v>
       </c>
       <c r="B290" t="s">
-        <v>495</v>
+        <v>75</v>
       </c>
       <c r="C290">
-        <v>168167.33999999997</v>
+        <v>172975.71999999997</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B291" t="s">
-        <v>116</v>
+        <v>393</v>
       </c>
       <c r="C291">
-        <v>166181.89000000001</v>
+        <v>172437.05999999997</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
+        <v>496</v>
+      </c>
+      <c r="B292" t="s">
         <v>497</v>
       </c>
-      <c r="B292" t="s">
-        <v>128</v>
-      </c>
       <c r="C292">
-        <v>163408.81</v>
+        <v>171274.8</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6001,7 +6007,7 @@
         <v>499</v>
       </c>
       <c r="C293">
-        <v>163333.31</v>
+        <v>171097.34999999998</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6009,21 +6015,21 @@
         <v>500</v>
       </c>
       <c r="B294" t="s">
-        <v>111</v>
+        <v>501</v>
       </c>
       <c r="C294">
-        <v>161452.54999999999</v>
+        <v>168518.02</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B295" t="s">
-        <v>502</v>
+        <v>116</v>
       </c>
       <c r="C295">
-        <v>160369.13</v>
+        <v>166253.13</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6031,65 +6037,65 @@
         <v>503</v>
       </c>
       <c r="B296" t="s">
-        <v>504</v>
+        <v>126</v>
       </c>
       <c r="C296">
-        <v>160070.07999999999</v>
+        <v>163556.75999999995</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
+        <v>504</v>
+      </c>
+      <c r="B297" t="s">
         <v>505</v>
       </c>
-      <c r="B297" t="s">
-        <v>506</v>
-      </c>
       <c r="C297">
-        <v>159200.58000000002</v>
+        <v>163423.31</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B298" t="s">
-        <v>508</v>
+        <v>109</v>
       </c>
       <c r="C298">
-        <v>158871.07</v>
+        <v>161790.21000000002</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B299" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C299">
-        <v>157500.65</v>
+        <v>160440</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B300" t="s">
-        <v>75</v>
+        <v>510</v>
       </c>
       <c r="C300">
-        <v>156888.41999999998</v>
+        <v>160133.51999999999</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
+        <v>511</v>
+      </c>
+      <c r="B301" t="s">
         <v>512</v>
       </c>
-      <c r="B301" t="s">
-        <v>327</v>
-      </c>
       <c r="C301">
-        <v>156732.38</v>
+        <v>159263.70000000001</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6097,43 +6103,43 @@
         <v>513</v>
       </c>
       <c r="B302" t="s">
-        <v>100</v>
+        <v>514</v>
       </c>
       <c r="C302">
-        <v>156050.41999999998</v>
+        <v>158937.85999999999</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B303" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C303">
-        <v>155291.93</v>
+        <v>157501.04999999999</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B304" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C304">
-        <v>155270.78999999998</v>
+        <v>156954.9</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B305" t="s">
-        <v>518</v>
+        <v>330</v>
       </c>
       <c r="C305">
-        <v>155003.98000000001</v>
+        <v>156803.26999999999</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6141,10 +6147,10 @@
         <v>519</v>
       </c>
       <c r="B306" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C306">
-        <v>153025.22999999998</v>
+        <v>156387.56999999998</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6152,98 +6158,98 @@
         <v>520</v>
       </c>
       <c r="B307" t="s">
-        <v>521</v>
+        <v>100</v>
       </c>
       <c r="C307">
-        <v>151288.25</v>
+        <v>156120.21000000002</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B308" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="C308">
-        <v>150601.18</v>
+        <v>155335.69999999998</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B309" t="s">
-        <v>41</v>
+        <v>435</v>
       </c>
       <c r="C309">
-        <v>148591.1</v>
+        <v>155004.92000000001</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B310" t="s">
-        <v>347</v>
+        <v>31</v>
       </c>
       <c r="C310">
-        <v>146391.01999999999</v>
+        <v>153092.56</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
+        <v>524</v>
+      </c>
+      <c r="B311" t="s">
         <v>525</v>
       </c>
-      <c r="B311" t="s">
-        <v>526</v>
-      </c>
       <c r="C311">
-        <v>145607.74000000002</v>
+        <v>151350.64000000001</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B312" t="s">
-        <v>427</v>
+        <v>247</v>
       </c>
       <c r="C312">
-        <v>144506.66</v>
+        <v>150902.38000000003</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B313" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C313">
-        <v>143340.59000000003</v>
+        <v>148654.59999999998</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B314" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="C314">
-        <v>143084.49</v>
+        <v>146470.24</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
+        <v>529</v>
+      </c>
+      <c r="B315" t="s">
         <v>530</v>
       </c>
-      <c r="B315" t="s">
-        <v>518</v>
-      </c>
       <c r="C315">
-        <v>140445.62</v>
+        <v>145669.03999999998</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6251,252 +6257,252 @@
         <v>531</v>
       </c>
       <c r="B316" t="s">
-        <v>532</v>
+        <v>431</v>
       </c>
       <c r="C316">
-        <v>139962.18000000002</v>
+        <v>144704.74</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B317" t="s">
-        <v>534</v>
+        <v>61</v>
       </c>
       <c r="C317">
-        <v>139306.62000000002</v>
+        <v>143475.68999999997</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B318" t="s">
-        <v>536</v>
+        <v>237</v>
       </c>
       <c r="C318">
-        <v>138817.89000000001</v>
+        <v>143144.94</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B319" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C319">
-        <v>138779.71</v>
+        <v>140253.14000000001</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B320" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C320">
-        <v>136889.76999999999</v>
+        <v>139362.17999999996</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B321" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C321">
-        <v>136788.76999999999</v>
+        <v>138881.79999999999</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B322" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C322">
-        <v>136783.87000000002</v>
+        <v>138839.50000000003</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B323" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C323">
-        <v>136622.04999999999</v>
+        <v>136950.76999999999</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B324" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C324">
-        <v>135597.43000000002</v>
+        <v>136853.02999999997</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B325" t="s">
-        <v>305</v>
+        <v>546</v>
       </c>
       <c r="C325">
-        <v>134493.49000000002</v>
+        <v>136793.54</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B326" t="s">
-        <v>461</v>
+        <v>548</v>
       </c>
       <c r="C326">
-        <v>133296.06</v>
+        <v>136444.58999999997</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B327" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="C327">
-        <v>129814.56999999999</v>
+        <v>134551.12999999998</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B328" t="s">
-        <v>552</v>
+        <v>350</v>
       </c>
       <c r="C328">
-        <v>128353.97</v>
+        <v>130626.28000000001</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B329" t="s">
-        <v>419</v>
+        <v>552</v>
       </c>
       <c r="C329">
-        <v>126492.52</v>
+        <v>128393.7</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B330" t="s">
-        <v>555</v>
+        <v>423</v>
       </c>
       <c r="C330">
-        <v>126266.45999999999</v>
+        <v>126654.71999999999</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B331" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C331">
-        <v>123397.47</v>
+        <v>126320.19000000002</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B332" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C332">
-        <v>122659.58000000002</v>
+        <v>123451.99</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B333" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="C333">
-        <v>121863.93000000001</v>
+        <v>122872.97999999998</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B334" t="s">
-        <v>562</v>
+        <v>225</v>
       </c>
       <c r="C334">
-        <v>120878.49999999999</v>
+        <v>121999.89000000001</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B335" t="s">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="C335">
-        <v>120844.77000000002</v>
+        <v>121909.67000000001</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
+        <v>563</v>
+      </c>
+      <c r="B336" t="s">
         <v>564</v>
       </c>
-      <c r="B336" t="s">
-        <v>565</v>
-      </c>
       <c r="C336">
-        <v>119592.19</v>
+        <v>120934.53000000001</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>536</v>
+        <v>431</v>
       </c>
       <c r="C337">
-        <v>118715.89</v>
+        <v>120896.5</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
+        <v>566</v>
+      </c>
+      <c r="B338" t="s">
         <v>567</v>
       </c>
-      <c r="B338" t="s">
-        <v>28</v>
-      </c>
       <c r="C338">
-        <v>117679.8</v>
+        <v>119848.38</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6504,10 +6510,10 @@
         <v>568</v>
       </c>
       <c r="B339" t="s">
-        <v>281</v>
+        <v>539</v>
       </c>
       <c r="C339">
-        <v>116457.44</v>
+        <v>118940.83000000002</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6515,10 +6521,10 @@
         <v>569</v>
       </c>
       <c r="B340" t="s">
-        <v>250</v>
+        <v>467</v>
       </c>
       <c r="C340">
-        <v>116304.32000000001</v>
+        <v>117844.88</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6526,10 +6532,10 @@
         <v>570</v>
       </c>
       <c r="B341" t="s">
-        <v>536</v>
+        <v>28</v>
       </c>
       <c r="C341">
-        <v>115046.48</v>
+        <v>117732.10999999999</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6537,10 +6543,10 @@
         <v>571</v>
       </c>
       <c r="B342" t="s">
-        <v>532</v>
+        <v>285</v>
       </c>
       <c r="C342">
-        <v>112549.98999999999</v>
+        <v>117184.81</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6548,76 +6554,76 @@
         <v>572</v>
       </c>
       <c r="B343" t="s">
-        <v>573</v>
+        <v>254</v>
       </c>
       <c r="C343">
-        <v>112089.72</v>
+        <v>116344.77</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
+        <v>573</v>
+      </c>
+      <c r="B344" t="s">
         <v>574</v>
       </c>
-      <c r="B344" t="s">
-        <v>575</v>
-      </c>
       <c r="C344">
-        <v>111993.77</v>
+        <v>116025.06</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B345" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="C345">
-        <v>111902.06999999999</v>
+        <v>115072.54</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B346" t="s">
-        <v>61</v>
+        <v>535</v>
       </c>
       <c r="C346">
-        <v>111882.82</v>
+        <v>112586.45999999999</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B347" t="s">
-        <v>427</v>
+        <v>578</v>
       </c>
       <c r="C347">
-        <v>111675.07999999999</v>
+        <v>112135.96</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
+        <v>579</v>
+      </c>
+      <c r="B348" t="s">
         <v>580</v>
       </c>
-      <c r="B348" t="s">
-        <v>581</v>
-      </c>
       <c r="C348">
-        <v>110718.12</v>
+        <v>112040.87000000001</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
+        <v>581</v>
+      </c>
+      <c r="B349" t="s">
         <v>582</v>
       </c>
-      <c r="B349" t="s">
-        <v>314</v>
-      </c>
       <c r="C349">
-        <v>110517.11000000002</v>
+        <v>111948.50999999998</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6625,10 +6631,10 @@
         <v>583</v>
       </c>
       <c r="B350" t="s">
-        <v>366</v>
+        <v>61</v>
       </c>
       <c r="C350">
-        <v>109724.78</v>
+        <v>111929.27</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6636,65 +6642,65 @@
         <v>584</v>
       </c>
       <c r="B351" t="s">
-        <v>585</v>
+        <v>431</v>
       </c>
       <c r="C351">
-        <v>108594.41</v>
+        <v>111718.91</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B352" t="s">
-        <v>587</v>
+        <v>369</v>
       </c>
       <c r="C352">
-        <v>107947.37000000001</v>
+        <v>110954.17</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B353" t="s">
-        <v>589</v>
+        <v>317</v>
       </c>
       <c r="C353">
-        <v>107656.02</v>
+        <v>110748.77999999998</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B354" t="s">
-        <v>220</v>
+        <v>588</v>
       </c>
       <c r="C354">
-        <v>107181.26999999999</v>
+        <v>108930.81</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B355" t="s">
-        <v>90</v>
+        <v>590</v>
       </c>
       <c r="C355">
-        <v>107058.17999999998</v>
+        <v>108640.98000000001</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
+        <v>591</v>
+      </c>
+      <c r="B356" t="s">
         <v>592</v>
       </c>
-      <c r="B356" t="s">
-        <v>64</v>
-      </c>
       <c r="C356">
-        <v>106784.11</v>
+        <v>108064.6</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6702,65 +6708,65 @@
         <v>593</v>
       </c>
       <c r="B357" t="s">
-        <v>443</v>
+        <v>594</v>
       </c>
       <c r="C357">
-        <v>106756.81000000001</v>
+        <v>107697.45999999999</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B358" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C358">
-        <v>102757.3</v>
+        <v>107283.06999999999</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B359" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="C359">
-        <v>102440.92</v>
+        <v>107227.67</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B360" t="s">
-        <v>90</v>
+        <v>449</v>
       </c>
       <c r="C360">
-        <v>101517.65</v>
+        <v>106794.95000000001</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B361" t="s">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="C361">
-        <v>101229.56999999999</v>
+        <v>102802.79</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B362" t="s">
-        <v>599</v>
+        <v>454</v>
       </c>
       <c r="C362">
-        <v>100321.98</v>
+        <v>102656.94</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6768,10 +6774,10 @@
         <v>600</v>
       </c>
       <c r="B363" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="C363">
-        <v>100015.02</v>
+        <v>101550.34</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6779,10 +6785,10 @@
         <v>601</v>
       </c>
       <c r="B364" t="s">
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="C364">
-        <v>99437.37</v>
+        <v>101369.39</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6793,7 +6799,7 @@
         <v>603</v>
       </c>
       <c r="C365">
-        <v>99281.58</v>
+        <v>100363.21999999999</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6801,76 +6807,76 @@
         <v>604</v>
       </c>
       <c r="B366" t="s">
-        <v>605</v>
+        <v>251</v>
       </c>
       <c r="C366">
-        <v>98718.87</v>
+        <v>100032.93</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B367" t="s">
-        <v>607</v>
+        <v>64</v>
       </c>
       <c r="C367">
-        <v>97763</v>
+        <v>99474.59</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B368" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C368">
-        <v>96742.52</v>
+        <v>99320.73</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B369" t="s">
-        <v>256</v>
+        <v>609</v>
       </c>
       <c r="C369">
-        <v>96436.91</v>
+        <v>98713.469999999987</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
+        <v>610</v>
+      </c>
+      <c r="B370" t="s">
         <v>611</v>
       </c>
-      <c r="B370" t="s">
-        <v>612</v>
-      </c>
       <c r="C370">
-        <v>93094.19</v>
+        <v>96776.249999999985</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B371" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C371">
-        <v>91683.760000000009</v>
+        <v>96560.489999999991</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
+        <v>613</v>
+      </c>
+      <c r="B372" t="s">
         <v>614</v>
       </c>
-      <c r="B372" t="s">
-        <v>281</v>
-      </c>
       <c r="C372">
-        <v>90404.079999999973</v>
+        <v>93230.16</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6878,10 +6884,10 @@
         <v>615</v>
       </c>
       <c r="B373" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="C373">
-        <v>88885.55</v>
+        <v>92274.53</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6889,10 +6895,10 @@
         <v>616</v>
       </c>
       <c r="B374" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="C374">
-        <v>88862.75</v>
+        <v>90966.420000000013</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6900,10 +6906,10 @@
         <v>617</v>
       </c>
       <c r="B375" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="C375">
-        <v>88820.22</v>
+        <v>88990.03</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6911,10 +6917,10 @@
         <v>618</v>
       </c>
       <c r="B376" t="s">
-        <v>478</v>
+        <v>59</v>
       </c>
       <c r="C376">
-        <v>87646.67</v>
+        <v>88967.52</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6922,10 +6928,10 @@
         <v>619</v>
       </c>
       <c r="B377" t="s">
-        <v>475</v>
+        <v>51</v>
       </c>
       <c r="C377">
-        <v>87174.11</v>
+        <v>88925.34</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6933,10 +6939,10 @@
         <v>620</v>
       </c>
       <c r="B378" t="s">
-        <v>51</v>
+        <v>484</v>
       </c>
       <c r="C378">
-        <v>86785.76999999999</v>
+        <v>87682.37</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6944,10 +6950,10 @@
         <v>621</v>
       </c>
       <c r="B379" t="s">
-        <v>59</v>
+        <v>481</v>
       </c>
       <c r="C379">
-        <v>86404.949999999983</v>
+        <v>87211.15</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6955,10 +6961,10 @@
         <v>622</v>
       </c>
       <c r="B380" t="s">
-        <v>559</v>
+        <v>51</v>
       </c>
       <c r="C380">
-        <v>81419.789999999979</v>
+        <v>87050.49</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6969,7 +6975,7 @@
         <v>624</v>
       </c>
       <c r="C381">
-        <v>81414.31</v>
+        <v>86702.949999999983</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6977,10 +6983,10 @@
         <v>625</v>
       </c>
       <c r="B382" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="C382">
-        <v>81383.490000000005</v>
+        <v>86502.34</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6988,21 +6994,21 @@
         <v>626</v>
       </c>
       <c r="B383" t="s">
-        <v>627</v>
+        <v>102</v>
       </c>
       <c r="C383">
-        <v>81367.72</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
+        <v>627</v>
+      </c>
+      <c r="B384" t="s">
         <v>628</v>
       </c>
-      <c r="B384" t="s">
-        <v>206</v>
-      </c>
       <c r="C384">
-        <v>81133.599999999991</v>
+        <v>81876.87000000001</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7010,65 +7016,65 @@
         <v>629</v>
       </c>
       <c r="B385" t="s">
-        <v>630</v>
+        <v>198</v>
       </c>
       <c r="C385">
-        <v>79234.11</v>
+        <v>81482.089999999982</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B386" t="s">
-        <v>632</v>
+        <v>559</v>
       </c>
       <c r="C386">
-        <v>77990.81</v>
+        <v>81457.430000000008</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B387" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C387">
-        <v>77836.42</v>
+        <v>81437.499999999985</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B388" t="s">
-        <v>493</v>
+        <v>208</v>
       </c>
       <c r="C388">
-        <v>76376.039999999994</v>
+        <v>81158.219999999987</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B389" t="s">
-        <v>189</v>
+        <v>635</v>
       </c>
       <c r="C389">
-        <v>76247.389999999985</v>
+        <v>79267.150000000009</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
+        <v>636</v>
+      </c>
+      <c r="B390" t="s">
         <v>637</v>
       </c>
-      <c r="B390" t="s">
-        <v>215</v>
-      </c>
       <c r="C390">
-        <v>73206.559999999998</v>
+        <v>77868.180000000008</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7076,54 +7082,54 @@
         <v>638</v>
       </c>
       <c r="B391" t="s">
-        <v>639</v>
+        <v>497</v>
       </c>
       <c r="C391">
-        <v>73151.8</v>
+        <v>76537.429999999993</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B392" t="s">
-        <v>641</v>
+        <v>191</v>
       </c>
       <c r="C392">
-        <v>72787.150000000009</v>
+        <v>76279.37999999999</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B393" t="s">
-        <v>33</v>
+        <v>641</v>
       </c>
       <c r="C393">
-        <v>72663.37</v>
+        <v>73375.69</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B394" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="C394">
-        <v>71933.459999999992</v>
+        <v>73237.84</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
+        <v>643</v>
+      </c>
+      <c r="B395" t="s">
         <v>644</v>
       </c>
-      <c r="B395" t="s">
-        <v>64</v>
-      </c>
       <c r="C395">
-        <v>68714.509999999995</v>
+        <v>72817.320000000007</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7131,87 +7137,87 @@
         <v>645</v>
       </c>
       <c r="B396" t="s">
-        <v>646</v>
+        <v>33</v>
       </c>
       <c r="C396">
-        <v>68249.5</v>
+        <v>72684.47</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B397" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="C397">
-        <v>67632.33</v>
+        <v>71962.81</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B398" t="s">
-        <v>649</v>
+        <v>64</v>
       </c>
       <c r="C398">
-        <v>67130.599999999991</v>
+        <v>68745.08</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B399" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C399">
-        <v>64547.72</v>
+        <v>68380.78</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B400" t="s">
-        <v>653</v>
+        <v>262</v>
       </c>
       <c r="C400">
-        <v>64043.37</v>
+        <v>67705.710000000006</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B401" t="s">
-        <v>327</v>
+        <v>652</v>
       </c>
       <c r="C401">
-        <v>63816.829999999994</v>
+        <v>67162.039999999994</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B402" t="s">
-        <v>28</v>
+        <v>654</v>
       </c>
       <c r="C402">
-        <v>63769.3</v>
+        <v>64575.939999999995</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
+        <v>655</v>
+      </c>
+      <c r="B403" t="s">
         <v>656</v>
       </c>
-      <c r="B403" t="s">
-        <v>189</v>
-      </c>
       <c r="C403">
-        <v>62189.17</v>
+        <v>64069.67</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7219,65 +7225,65 @@
         <v>657</v>
       </c>
       <c r="B404" t="s">
-        <v>658</v>
+        <v>330</v>
       </c>
       <c r="C404">
-        <v>62001.29</v>
+        <v>63907.210000000006</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B405" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="C405">
-        <v>61727.26</v>
+        <v>63799.91</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B406" t="s">
-        <v>661</v>
+        <v>191</v>
       </c>
       <c r="C406">
-        <v>61704.840000000004</v>
+        <v>62609.099999999991</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B407" t="s">
-        <v>518</v>
+        <v>661</v>
       </c>
       <c r="C407">
-        <v>61555.530000000006</v>
+        <v>62073.31</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B408" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="C408">
-        <v>58764.38</v>
+        <v>61751.829999999994</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
+        <v>663</v>
+      </c>
+      <c r="B409" t="s">
         <v>664</v>
       </c>
-      <c r="B409" t="s">
-        <v>419</v>
-      </c>
       <c r="C409">
-        <v>57012.36</v>
+        <v>61732.3</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7285,10 +7291,10 @@
         <v>665</v>
       </c>
       <c r="B410" t="s">
-        <v>59</v>
+        <v>435</v>
       </c>
       <c r="C410">
-        <v>56986.14</v>
+        <v>61583.77</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7296,10 +7302,10 @@
         <v>666</v>
       </c>
       <c r="B411" t="s">
-        <v>518</v>
+        <v>116</v>
       </c>
       <c r="C411">
-        <v>56442.490000000005</v>
+        <v>59127.579999999994</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7307,10 +7313,10 @@
         <v>667</v>
       </c>
       <c r="B412" t="s">
-        <v>344</v>
+        <v>59</v>
       </c>
       <c r="C412">
-        <v>55129.020000000004</v>
+        <v>57095.68</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7318,10 +7324,10 @@
         <v>668</v>
       </c>
       <c r="B413" t="s">
-        <v>12</v>
+        <v>423</v>
       </c>
       <c r="C413">
-        <v>54853.13</v>
+        <v>57033.86</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7329,54 +7335,54 @@
         <v>669</v>
       </c>
       <c r="B414" t="s">
-        <v>670</v>
+        <v>435</v>
       </c>
       <c r="C414">
-        <v>54419.090000000004</v>
+        <v>56550.200000000004</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B415" t="s">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="C415">
-        <v>54413.98</v>
+        <v>55472.09</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B416" t="s">
-        <v>461</v>
+        <v>12</v>
       </c>
       <c r="C416">
-        <v>53478.13</v>
+        <v>54877.770000000004</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B417" t="s">
-        <v>305</v>
+        <v>459</v>
       </c>
       <c r="C417">
-        <v>53243.609999999993</v>
+        <v>54751.86</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
+        <v>673</v>
+      </c>
+      <c r="B418" t="s">
         <v>674</v>
       </c>
-      <c r="B418" t="s">
-        <v>140</v>
-      </c>
       <c r="C418">
-        <v>53100.44</v>
+        <v>54441.420000000006</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7384,10 +7390,10 @@
         <v>675</v>
       </c>
       <c r="B419" t="s">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="C419">
-        <v>52698.82</v>
+        <v>53574.089999999989</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7395,10 +7401,10 @@
         <v>676</v>
       </c>
       <c r="B420" t="s">
-        <v>559</v>
+        <v>140</v>
       </c>
       <c r="C420">
-        <v>52616.490000000005</v>
+        <v>53123.07</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7406,10 +7412,10 @@
         <v>677</v>
       </c>
       <c r="B421" t="s">
-        <v>545</v>
+        <v>53</v>
       </c>
       <c r="C421">
-        <v>52272.920000000006</v>
+        <v>53026.739999999991</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7417,43 +7423,43 @@
         <v>678</v>
       </c>
       <c r="B422" t="s">
-        <v>679</v>
+        <v>559</v>
       </c>
       <c r="C422">
-        <v>51835.409999999996</v>
+        <v>52944.32</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B423" t="s">
-        <v>670</v>
+        <v>546</v>
       </c>
       <c r="C423">
-        <v>51482.270000000004</v>
+        <v>52597.160000000011</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
+        <v>680</v>
+      </c>
+      <c r="B424" t="s">
         <v>681</v>
       </c>
-      <c r="B424" t="s">
-        <v>682</v>
-      </c>
       <c r="C424">
-        <v>51059.939999999995</v>
+        <v>52582.01</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
+        <v>682</v>
+      </c>
+      <c r="B425" t="s">
         <v>683</v>
       </c>
-      <c r="B425" t="s">
-        <v>270</v>
-      </c>
       <c r="C425">
-        <v>50912.51999999999</v>
+        <v>51856.27</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7461,10 +7467,10 @@
         <v>684</v>
       </c>
       <c r="B426" t="s">
-        <v>79</v>
+        <v>674</v>
       </c>
       <c r="C426">
-        <v>50640.659999999996</v>
+        <v>51504.02</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7472,10 +7478,10 @@
         <v>685</v>
       </c>
       <c r="B427" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="C427">
-        <v>49466.94</v>
+        <v>50815.12000000001</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7483,241 +7489,241 @@
         <v>686</v>
       </c>
       <c r="B428" t="s">
-        <v>687</v>
+        <v>79</v>
       </c>
       <c r="C428">
-        <v>49227.85</v>
+        <v>50728.13</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B429" t="s">
-        <v>536</v>
+        <v>356</v>
       </c>
       <c r="C429">
-        <v>48187.979999999996</v>
+        <v>49796.039999999986</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B430" t="s">
-        <v>231</v>
+        <v>467</v>
       </c>
       <c r="C430">
-        <v>46326.559999999998</v>
+        <v>49309.399999999994</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
+        <v>689</v>
+      </c>
+      <c r="B431" t="s">
         <v>690</v>
       </c>
-      <c r="B431" t="s">
-        <v>691</v>
-      </c>
       <c r="C431">
-        <v>45313.73</v>
+        <v>49249.52</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B432" t="s">
-        <v>206</v>
+        <v>539</v>
       </c>
       <c r="C432">
-        <v>44635.719999999994</v>
+        <v>48283.770000000004</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B433" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="C433">
-        <v>42653.25</v>
+        <v>46472.6</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
+        <v>693</v>
+      </c>
+      <c r="B434" t="s">
         <v>694</v>
       </c>
-      <c r="B434" t="s">
-        <v>695</v>
-      </c>
       <c r="C434">
-        <v>41891.80000000001</v>
+        <v>45331.66</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B435" t="s">
-        <v>697</v>
+        <v>208</v>
       </c>
       <c r="C435">
-        <v>41564.39</v>
+        <v>44692.61</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B436" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C436">
-        <v>40817.160000000003</v>
+        <v>42741.11</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B437" t="s">
-        <v>61</v>
+        <v>698</v>
       </c>
       <c r="C437">
-        <v>40206.770000000004</v>
+        <v>41910.840000000011</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
+        <v>699</v>
+      </c>
+      <c r="B438" t="s">
         <v>700</v>
       </c>
-      <c r="B438" t="s">
-        <v>701</v>
-      </c>
       <c r="C438">
-        <v>39388.479999999996</v>
+        <v>41649.919999999998</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B439" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C439">
-        <v>36311.469999999994</v>
+        <v>40835.619999999995</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B440" t="s">
-        <v>704</v>
+        <v>61</v>
       </c>
       <c r="C440">
-        <v>36142.67</v>
+        <v>40223.490000000005</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B441" t="s">
-        <v>245</v>
+        <v>704</v>
       </c>
       <c r="C441">
-        <v>34511.89</v>
+        <v>39405.199999999997</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B442" t="s">
-        <v>403</v>
+        <v>51</v>
       </c>
       <c r="C442">
-        <v>34472.990000000005</v>
+        <v>36525.290000000008</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
+        <v>706</v>
+      </c>
+      <c r="B443" t="s">
         <v>707</v>
       </c>
-      <c r="B443" t="s">
-        <v>708</v>
-      </c>
       <c r="C443">
-        <v>34234.42</v>
+        <v>36157.93</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B444" t="s">
-        <v>710</v>
+        <v>59</v>
       </c>
       <c r="C444">
-        <v>34066.58</v>
+        <v>36073.770000000004</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B445" t="s">
-        <v>712</v>
+        <v>406</v>
       </c>
       <c r="C445">
-        <v>33139.079999999994</v>
+        <v>34585.019999999997</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B446" t="s">
-        <v>658</v>
+        <v>249</v>
       </c>
       <c r="C446">
-        <v>33039.630000000005</v>
+        <v>34527.170000000006</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B447" t="s">
-        <v>39</v>
+        <v>712</v>
       </c>
       <c r="C447">
-        <v>31541.18</v>
+        <v>34247.599999999999</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B448" t="s">
-        <v>493</v>
+        <v>714</v>
       </c>
       <c r="C448">
-        <v>30495.420000000002</v>
+        <v>33960.089999999997</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
+        <v>715</v>
+      </c>
+      <c r="B449" t="s">
         <v>716</v>
       </c>
-      <c r="B449" t="s">
-        <v>475</v>
-      </c>
       <c r="C449">
-        <v>29467.360000000001</v>
+        <v>33153.659999999996</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7725,10 +7731,10 @@
         <v>717</v>
       </c>
       <c r="B450" t="s">
-        <v>406</v>
+        <v>661</v>
       </c>
       <c r="C450">
-        <v>28791.52</v>
+        <v>33053.07</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7736,153 +7742,153 @@
         <v>718</v>
       </c>
       <c r="B451" t="s">
-        <v>719</v>
+        <v>39</v>
       </c>
       <c r="C451">
-        <v>28368.080000000002</v>
+        <v>31555.190000000002</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B452" t="s">
-        <v>293</v>
+        <v>497</v>
       </c>
       <c r="C452">
-        <v>25892.400000000001</v>
+        <v>30508.5</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B453" t="s">
-        <v>722</v>
+        <v>481</v>
       </c>
       <c r="C453">
-        <v>24567.62</v>
+        <v>29656.06</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B454" t="s">
-        <v>724</v>
+        <v>409</v>
       </c>
       <c r="C454">
-        <v>23083.370000000003</v>
+        <v>28803.430000000004</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B455" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C455">
-        <v>21209.23</v>
+        <v>28381.26</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B456" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="C456">
-        <v>20847.63</v>
+        <v>25902.9</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B457" t="s">
-        <v>64</v>
+        <v>726</v>
       </c>
       <c r="C457">
-        <v>20106.840000000004</v>
+        <v>24614.5</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B458" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C458">
-        <v>20026.71</v>
+        <v>23103.41</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B459" t="s">
-        <v>335</v>
+        <v>730</v>
       </c>
       <c r="C459">
-        <v>17545.929999999997</v>
+        <v>21217.660000000003</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B460" t="s">
-        <v>733</v>
+        <v>193</v>
       </c>
       <c r="C460">
-        <v>16738.36</v>
+        <v>20855.89</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B461" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="C461">
-        <v>16092.02</v>
+        <v>20114.86</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B462" t="s">
-        <v>59</v>
+        <v>734</v>
       </c>
       <c r="C462">
-        <v>16066.69</v>
+        <v>20035.62</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B463" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="C463">
-        <v>15308.369999999999</v>
+        <v>17720.509999999998</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
+        <v>736</v>
+      </c>
+      <c r="B464" t="s">
         <v>737</v>
       </c>
-      <c r="B464" t="s">
-        <v>417</v>
-      </c>
       <c r="C464">
-        <v>14432.71</v>
+        <v>16720.54</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7890,43 +7896,43 @@
         <v>738</v>
       </c>
       <c r="B465" t="s">
-        <v>739</v>
+        <v>208</v>
       </c>
       <c r="C465">
-        <v>14001.400000000001</v>
+        <v>16099.22</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B466" t="s">
-        <v>741</v>
+        <v>420</v>
       </c>
       <c r="C466">
-        <v>13842.019999999999</v>
+        <v>14443.08</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B467" t="s">
-        <v>335</v>
+        <v>741</v>
       </c>
       <c r="C467">
-        <v>12841.74</v>
+        <v>14007.630000000001</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
+        <v>742</v>
+      </c>
+      <c r="B468" t="s">
         <v>743</v>
       </c>
-      <c r="B468" t="s">
-        <v>6</v>
-      </c>
       <c r="C468">
-        <v>11711.960000000001</v>
+        <v>13848.14</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7934,54 +7940,54 @@
         <v>744</v>
       </c>
       <c r="B469" t="s">
-        <v>745</v>
+        <v>339</v>
       </c>
       <c r="C469">
-        <v>11218.48</v>
+        <v>12847.51</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B470" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C470">
-        <v>10539.66</v>
+        <v>11852.720000000001</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
+        <v>746</v>
+      </c>
+      <c r="B471" t="s">
         <v>747</v>
       </c>
-      <c r="B471" t="s">
-        <v>748</v>
-      </c>
       <c r="C471">
-        <v>10435.73</v>
+        <v>11223.4</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B472" t="s">
-        <v>415</v>
+        <v>12</v>
       </c>
       <c r="C472">
-        <v>10046.56</v>
+        <v>10543.439999999999</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
+        <v>749</v>
+      </c>
+      <c r="B473" t="s">
         <v>750</v>
       </c>
-      <c r="B473" t="s">
-        <v>8</v>
-      </c>
       <c r="C473">
-        <v>9897.6200000000008</v>
+        <v>10440.32</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7989,10 +7995,10 @@
         <v>751</v>
       </c>
       <c r="B474" t="s">
-        <v>305</v>
+        <v>418</v>
       </c>
       <c r="C474">
-        <v>9691.4600000000009</v>
+        <v>10050.540000000001</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8000,10 +8006,10 @@
         <v>752</v>
       </c>
       <c r="B475" t="s">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="C475">
-        <v>8809.16</v>
+        <v>9901.99</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8011,43 +8017,43 @@
         <v>753</v>
       </c>
       <c r="B476" t="s">
-        <v>754</v>
+        <v>308</v>
       </c>
       <c r="C476">
-        <v>8699.619999999999</v>
+        <v>9695.48</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B477" t="s">
-        <v>756</v>
+        <v>193</v>
       </c>
       <c r="C477">
-        <v>6747.76</v>
+        <v>8812.75</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B478" t="s">
-        <v>189</v>
+        <v>756</v>
       </c>
       <c r="C478">
-        <v>5546.17</v>
+        <v>8703.2999999999993</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
+        <v>757</v>
+      </c>
+      <c r="B479" t="s">
         <v>758</v>
       </c>
-      <c r="B479" t="s">
-        <v>260</v>
-      </c>
       <c r="C479">
-        <v>2745.04</v>
+        <v>6750.55</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8055,87 +8061,87 @@
         <v>759</v>
       </c>
       <c r="B480" t="s">
-        <v>760</v>
+        <v>191</v>
       </c>
       <c r="C480">
-        <v>2283.0699999999997</v>
+        <v>5585.3799999999992</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B481" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="C481">
-        <v>1420.97</v>
+        <v>2746.1099999999997</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
+        <v>761</v>
+      </c>
+      <c r="B482" t="s">
         <v>762</v>
       </c>
-      <c r="B482" t="s">
-        <v>763</v>
-      </c>
       <c r="C482">
-        <v>1200</v>
+        <v>2284.02</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B483" t="s">
-        <v>765</v>
+        <v>31</v>
       </c>
       <c r="C483">
-        <v>1093.75</v>
+        <v>1421.55</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B484" t="s">
-        <v>390</v>
+        <v>765</v>
       </c>
       <c r="C484">
-        <v>1079.25</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
+        <v>766</v>
+      </c>
+      <c r="B485" t="s">
         <v>767</v>
       </c>
-      <c r="B485" t="s">
-        <v>768</v>
-      </c>
       <c r="C485">
-        <v>1007.77</v>
+        <v>1094.24</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B486" t="s">
-        <v>547</v>
+        <v>393</v>
       </c>
       <c r="C486">
-        <v>740.75</v>
+        <v>1079.73</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
+        <v>769</v>
+      </c>
+      <c r="B487" t="s">
         <v>770</v>
       </c>
-      <c r="B487" t="s">
-        <v>20</v>
-      </c>
       <c r="C487">
-        <v>483.33</v>
+        <v>1008.22</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8143,32 +8149,32 @@
         <v>771</v>
       </c>
       <c r="B488" t="s">
-        <v>772</v>
+        <v>548</v>
       </c>
       <c r="C488">
-        <v>433.82000000000005</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B489" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C489">
-        <v>277.3</v>
+        <v>483.75</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
+        <v>773</v>
+      </c>
+      <c r="B490" t="s">
         <v>774</v>
       </c>
-      <c r="B490" t="s">
-        <v>314</v>
-      </c>
       <c r="C490">
-        <v>188.83</v>
+        <v>433.82</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8176,10 +8182,10 @@
         <v>775</v>
       </c>
       <c r="B491" t="s">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="C491">
-        <v>86.38</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8187,10 +8193,10 @@
         <v>776</v>
       </c>
       <c r="B492" t="s">
-        <v>518</v>
+        <v>317</v>
       </c>
       <c r="C492">
-        <v>50.26</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8198,10 +8204,10 @@
         <v>777</v>
       </c>
       <c r="B493" t="s">
-        <v>585</v>
+        <v>260</v>
       </c>
       <c r="C493">
-        <v>50</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8209,10 +8215,10 @@
         <v>778</v>
       </c>
       <c r="B494" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C494">
-        <v>33.049999999999997</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8220,114 +8226,136 @@
         <v>779</v>
       </c>
       <c r="B495" t="s">
-        <v>780</v>
+        <v>590</v>
       </c>
       <c r="C495">
-        <v>29.77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B496" t="s">
-        <v>782</v>
+        <v>423</v>
       </c>
       <c r="C496">
-        <v>21.27</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B497" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C497">
-        <v>17.86</v>
+        <v>29.770000000000003</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B498" t="s">
-        <v>786</v>
+        <v>20</v>
       </c>
       <c r="C498">
-        <v>14.67</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B499" t="s">
-        <v>220</v>
+        <v>785</v>
       </c>
       <c r="C499">
-        <v>10</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B500" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C500">
-        <v>9.7200000000000006</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B501" t="s">
-        <v>256</v>
+        <v>789</v>
       </c>
       <c r="C501">
-        <v>5.55</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
+        <v>790</v>
+      </c>
+      <c r="B502" t="s">
         <v>791</v>
       </c>
-      <c r="B502" t="s">
-        <v>792</v>
-      </c>
       <c r="C502">
-        <v>0.05</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B503" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="C503">
-        <v>0.01</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
+        <v>793</v>
+      </c>
+      <c r="B504" t="s">
         <v>794</v>
       </c>
-      <c r="B504" t="s">
+      <c r="C504">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
         <v>795</v>
       </c>
-      <c r="C504">
+      <c r="B505" t="s">
+        <v>41</v>
+      </c>
+      <c r="C505">
         <v>0.01</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
         <v>796</v>
+      </c>
+      <c r="B506" t="s">
+        <v>797</v>
+      </c>
+      <c r="C506">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A9EDA8-2880-4DD6-9479-F9D01EEE955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35526254-C476-4F8C-AA26-C9208404C764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,15 +385,15 @@
     <t>ELIANE</t>
   </si>
   <si>
+    <t>004461070</t>
+  </si>
+  <si>
     <t>004918709</t>
   </si>
   <si>
     <t>VANESSA</t>
   </si>
   <si>
-    <t>004461070</t>
-  </si>
-  <si>
     <t>005087681</t>
   </si>
   <si>
@@ -463,6 +463,9 @@
     <t>MSD</t>
   </si>
   <si>
+    <t>004482439</t>
+  </si>
+  <si>
     <t>004322549</t>
   </si>
   <si>
@@ -475,18 +478,18 @@
     <t>JOAQUIM</t>
   </si>
   <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
     <t>002738211</t>
   </si>
   <si>
     <t>MARGARETH</t>
   </si>
   <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
     <t>004853901</t>
   </si>
   <si>
@@ -511,9 +514,6 @@
     <t>REINALDO</t>
   </si>
   <si>
-    <t>004482439</t>
-  </si>
-  <si>
     <t>004556974</t>
   </si>
   <si>
@@ -607,21 +607,27 @@
     <t>004241147</t>
   </si>
   <si>
+    <t>004459461</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
     <t>004204500</t>
   </si>
   <si>
     <t>EDWARD</t>
   </si>
   <si>
+    <t>005092207</t>
+  </si>
+  <si>
     <t>004181486</t>
   </si>
   <si>
     <t>ANDREA</t>
   </si>
   <si>
-    <t>005092207</t>
-  </si>
-  <si>
     <t>004382374</t>
   </si>
   <si>
@@ -643,13 +649,16 @@
     <t>004752534</t>
   </si>
   <si>
+    <t>004335144</t>
+  </si>
+  <si>
     <t>004554411</t>
   </si>
   <si>
     <t>LUIZ</t>
   </si>
   <si>
-    <t>004335144</t>
+    <t>004460491</t>
   </si>
   <si>
     <t>005121919</t>
@@ -658,9 +667,6 @@
     <t>JORGE</t>
   </si>
   <si>
-    <t>004460491</t>
-  </si>
-  <si>
     <t>004497875</t>
   </si>
   <si>
@@ -718,15 +724,15 @@
     <t>IVONE</t>
   </si>
   <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
     <t>004458624</t>
   </si>
   <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
     <t>005000645</t>
   </si>
   <si>
@@ -829,18 +835,18 @@
     <t>NABOR</t>
   </si>
   <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
     <t>005105172</t>
   </si>
   <si>
     <t>VALDIVINO</t>
   </si>
   <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
     <t>004207374</t>
   </si>
   <si>
@@ -859,15 +865,15 @@
     <t>RACHEL</t>
   </si>
   <si>
+    <t>004811224</t>
+  </si>
+  <si>
     <t>005009947</t>
   </si>
   <si>
     <t>VERANICE</t>
   </si>
   <si>
-    <t>004811224</t>
-  </si>
-  <si>
     <t>004419765</t>
   </si>
   <si>
@@ -886,12 +892,12 @@
     <t>SISSI</t>
   </si>
   <si>
+    <t>004958539</t>
+  </si>
+  <si>
     <t>004956636</t>
   </si>
   <si>
-    <t>004958539</t>
-  </si>
-  <si>
     <t>004404248</t>
   </si>
   <si>
@@ -949,12 +955,6 @@
     <t>DIEGO</t>
   </si>
   <si>
-    <t>004459461</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
     <t>004484207</t>
   </si>
   <si>
@@ -1018,15 +1018,15 @@
     <t>004211922</t>
   </si>
   <si>
+    <t>004346716</t>
+  </si>
+  <si>
     <t>004223226</t>
   </si>
   <si>
     <t>YESHUA</t>
   </si>
   <si>
-    <t>004346716</t>
-  </si>
-  <si>
     <t>004482262</t>
   </si>
   <si>
@@ -1048,18 +1048,18 @@
     <t>004431591</t>
   </si>
   <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
     <t>004276856</t>
   </si>
   <si>
     <t>DAURA</t>
   </si>
   <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
     <t>004693349</t>
   </si>
   <si>
@@ -1069,18 +1069,18 @@
     <t>004515548</t>
   </si>
   <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
     <t>004208869</t>
   </si>
   <si>
     <t>JULIO</t>
   </si>
   <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
     <t>004945203</t>
   </si>
   <si>
@@ -1126,15 +1126,15 @@
     <t>JANNE</t>
   </si>
   <si>
+    <t>004813134</t>
+  </si>
+  <si>
     <t>003435941</t>
   </si>
   <si>
     <t>HEITOR</t>
   </si>
   <si>
-    <t>004813134</t>
-  </si>
-  <si>
     <t>004267976</t>
   </si>
   <si>
@@ -1183,12 +1183,12 @@
     <t>REJANE</t>
   </si>
   <si>
+    <t>004999410</t>
+  </si>
+  <si>
     <t>004803348</t>
   </si>
   <si>
-    <t>004999410</t>
-  </si>
-  <si>
     <t>004368994</t>
   </si>
   <si>
@@ -1198,15 +1198,15 @@
     <t>MARCONDES</t>
   </si>
   <si>
+    <t>005061124</t>
+  </si>
+  <si>
     <t>004493324</t>
   </si>
   <si>
     <t>DANIEL</t>
   </si>
   <si>
-    <t>005061124</t>
-  </si>
-  <si>
     <t>004479287</t>
   </si>
   <si>
@@ -1216,13 +1216,19 @@
     <t>DENISE</t>
   </si>
   <si>
+    <t>004259649</t>
+  </si>
+  <si>
     <t>005135105</t>
   </si>
   <si>
     <t>BRENNER</t>
   </si>
   <si>
-    <t>004259649</t>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
   </si>
   <si>
     <t>004278033</t>
@@ -1231,12 +1237,6 @@
     <t>DAISY</t>
   </si>
   <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
     <t>004805273</t>
   </si>
   <si>
@@ -1246,6 +1246,9 @@
     <t>004584517</t>
   </si>
   <si>
+    <t>004872395</t>
+  </si>
+  <si>
     <t>004862746</t>
   </si>
   <si>
@@ -1270,9 +1273,6 @@
     <t>CAROLINE</t>
   </si>
   <si>
-    <t>004872395</t>
-  </si>
-  <si>
     <t>004473829</t>
   </si>
   <si>
@@ -1312,18 +1312,18 @@
     <t>ASSISTIGAS</t>
   </si>
   <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
     <t>004463586</t>
   </si>
   <si>
     <t>MARCIA</t>
   </si>
   <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
     <t>005152037</t>
   </si>
   <si>
@@ -1336,6 +1336,12 @@
     <t>VERA</t>
   </si>
   <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
     <t>004914070</t>
   </si>
   <si>
@@ -1396,10 +1402,7 @@
     <t>004512434</t>
   </si>
   <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
+    <t>004462930</t>
   </si>
   <si>
     <t>004211807</t>
@@ -1408,9 +1411,6 @@
     <t>EDINARDO</t>
   </si>
   <si>
-    <t>004462930</t>
-  </si>
-  <si>
     <t>004386464</t>
   </si>
   <si>
@@ -1426,33 +1426,33 @@
     <t>MARCUS</t>
   </si>
   <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>004466221</t>
+  </si>
+  <si>
     <t>004216657</t>
   </si>
   <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>004466221</t>
-  </si>
-  <si>
     <t>004212409</t>
   </si>
   <si>
     <t>004436055</t>
   </si>
   <si>
+    <t>004398253</t>
+  </si>
+  <si>
     <t>004216434</t>
   </si>
   <si>
     <t>JAIME</t>
   </si>
   <si>
-    <t>004398253</t>
-  </si>
-  <si>
     <t>004550750</t>
   </si>
   <si>
@@ -1531,15 +1531,15 @@
     <t>004289402</t>
   </si>
   <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
     <t>005046790</t>
   </si>
   <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
     <t>004570632</t>
   </si>
   <si>
@@ -1618,12 +1618,12 @@
     <t>004854514</t>
   </si>
   <si>
+    <t>002592340</t>
+  </si>
+  <si>
     <t>002786022</t>
   </si>
   <si>
-    <t>002592340</t>
-  </si>
-  <si>
     <t>004332544</t>
   </si>
   <si>
@@ -1648,27 +1648,27 @@
     <t>THAISSA</t>
   </si>
   <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
     <t>004334158</t>
   </si>
   <si>
     <t>LEONE</t>
   </si>
   <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
     <t>004936634</t>
   </si>
   <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
     <t>004479965</t>
   </si>
   <si>
@@ -1681,6 +1681,9 @@
     <t>ISABEL</t>
   </si>
   <si>
+    <t>005063749</t>
+  </si>
+  <si>
     <t>005024046</t>
   </si>
   <si>
@@ -1690,288 +1693,291 @@
     <t>ELENA</t>
   </si>
   <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004848279</t>
+  </si>
+  <si>
+    <t>004974089</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>004547722</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004480970</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>005000656</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004397124</t>
+  </si>
+  <si>
+    <t>MURYLO</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>004444164</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004377415</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>004877741</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004854496</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
     <t>001761119</t>
   </si>
   <si>
     <t>BLUEMETRIX</t>
   </si>
   <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004848279</t>
-  </si>
-  <si>
-    <t>004974089</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004547722</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004480970</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>005000656</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004397124</t>
-  </si>
-  <si>
-    <t>MURYLO</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>004444164</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004377415</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>004877741</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004854496</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
     <t>005064129</t>
   </si>
   <si>
@@ -1981,6 +1987,9 @@
     <t>ALINNE</t>
   </si>
   <si>
+    <t>004374891</t>
+  </si>
+  <si>
     <t>004243043</t>
   </si>
   <si>
@@ -2029,36 +2038,33 @@
     <t>005022526</t>
   </si>
   <si>
-    <t>004374891</t>
-  </si>
-  <si>
     <t>004751154</t>
   </si>
   <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
     <t>004277637</t>
   </si>
   <si>
-    <t>004767746</t>
-  </si>
-  <si>
     <t>005046919</t>
   </si>
   <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
     <t>004551472</t>
   </si>
   <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
     <t>004497825</t>
   </si>
   <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
     <t>004749928</t>
   </si>
   <si>
@@ -2074,15 +2080,12 @@
     <t>STELLA</t>
   </si>
   <si>
-    <t>005000460</t>
+    <t>005044389</t>
   </si>
   <si>
     <t>004259659</t>
   </si>
   <si>
-    <t>005044389</t>
-  </si>
-  <si>
     <t>005140667</t>
   </si>
   <si>
@@ -2146,9 +2149,6 @@
     <t>EDUARDA</t>
   </si>
   <si>
-    <t>005169333</t>
-  </si>
-  <si>
     <t>004805269</t>
   </si>
   <si>
@@ -2266,6 +2266,9 @@
     <t>GIOVANE</t>
   </si>
   <si>
+    <t>004477812</t>
+  </si>
+  <si>
     <t>004450405</t>
   </si>
   <si>
@@ -2281,18 +2284,15 @@
     <t>004192775</t>
   </si>
   <si>
-    <t>004477812</t>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
   </si>
   <si>
     <t>004329229</t>
   </si>
   <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
     <t>004536602</t>
   </si>
   <si>
@@ -2305,6 +2305,12 @@
     <t>001368670</t>
   </si>
   <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
     <t>005110867</t>
   </si>
   <si>
@@ -2312,12 +2318,6 @@
   </si>
   <si>
     <t>004335251</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
   </si>
   <si>
     <t>004371857</t>
@@ -2783,7 +2783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2806,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16330230.17</v>
+        <v>16341462.82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2817,7 +2819,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8157115.3499999987</v>
+        <v>8160088.8099999968</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2828,7 +2830,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7173680.7999999998</v>
+        <v>7186109.8600000013</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2839,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6161175.1600000001</v>
+        <v>6171094.5499999998</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2850,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5642300.9800000004</v>
+        <v>5653061.6099999994</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2861,7 +2863,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4646556.6799999988</v>
+        <v>4648271.93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2872,7 +2874,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4337564.13</v>
+        <v>4349820.0399999991</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2883,7 +2885,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4200087.9099999992</v>
+        <v>4210109.0999999996</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2894,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4178569.27</v>
+        <v>4181541.46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2905,7 +2907,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>3928053.36</v>
+        <v>3931320.5199999996</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2916,7 +2918,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3706212.9599999995</v>
+        <v>3708173.600000001</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2927,7 +2929,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3548161.34</v>
+        <v>3549226.5100000002</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2938,7 +2940,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3509955.14</v>
+        <v>3513629.1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2949,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3400923.6300000004</v>
+        <v>3405019.8799999994</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2960,7 +2962,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>3276478.81</v>
+        <v>3277830.6300000004</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2971,7 +2973,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3230853.75</v>
+        <v>3232648.23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2982,7 +2984,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3160342.439999999</v>
+        <v>3161669.6700000009</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2993,7 +2995,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3072209.94</v>
+        <v>3073587.04</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3004,7 +3006,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3004991.64</v>
+        <v>3006317.5299999989</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3015,7 +3017,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2925608.5599999996</v>
+        <v>2926818.100000001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3026,7 +3028,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2784329.4400000004</v>
+        <v>2785845.4700000007</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3037,7 +3039,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2776926.45</v>
+        <v>2781555.1599999992</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3048,7 +3050,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2716317.35</v>
+        <v>2717510.4299999997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3059,7 +3061,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2522403.88</v>
+        <v>2523526.6599999997</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3070,7 +3072,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2485885.1</v>
+        <v>2487538.7400000002</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3081,7 +3083,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2409198.6500000004</v>
+        <v>2413677.23</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3092,7 +3094,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2191431.7399999998</v>
+        <v>2192441.31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3103,7 +3105,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2189193.3999999994</v>
+        <v>2190174.7599999998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3114,7 +3116,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2103394.5999999996</v>
+        <v>2105712.13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3125,7 +3127,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2036614.0999999999</v>
+        <v>2040238.35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3136,7 +3138,7 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>2030403.9200000004</v>
+        <v>2031570.78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3147,7 +3149,7 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>2011565.14</v>
+        <v>2012461.72</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3158,7 +3160,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1986228.2799999998</v>
+        <v>1989959.2300000004</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3169,7 +3171,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1937266.09</v>
+        <v>1939309.15</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3180,7 +3182,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>1896325.88</v>
+        <v>1897105.7400000002</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3191,7 +3193,7 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>1861449.5400000005</v>
+        <v>1863698.8599999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3202,7 +3204,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1856591.4000000004</v>
+        <v>1858432.7699999998</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3213,7 +3215,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1811798.3800000004</v>
+        <v>1812455.68</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3224,7 +3226,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1755404.24</v>
+        <v>1756212.0800000008</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3235,7 +3237,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1593797.4600000002</v>
+        <v>1596396.0499999998</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3246,7 +3248,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1571322.3399999999</v>
+        <v>1572659.21</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3257,7 +3259,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1505555.3499999999</v>
+        <v>1508479.7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3268,7 +3270,7 @@
         <v>77</v>
       </c>
       <c r="C44">
-        <v>1467414.13</v>
+        <v>1468051.9399999997</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3279,7 +3281,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>1442899.6600000001</v>
+        <v>1444307.4100000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3290,7 +3292,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1384551.3900000001</v>
+        <v>1388066.53</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3301,7 +3303,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1377674.5899999999</v>
+        <v>1378268.5299999998</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3312,7 +3314,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1370963.1100000003</v>
+        <v>1374811.18</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3323,7 +3325,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1354417.0500000003</v>
+        <v>1355002.29</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3334,7 +3336,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1353114.0799999998</v>
+        <v>1354807.4999999998</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3345,7 +3347,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1331352.45</v>
+        <v>1333878.69</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3356,7 +3358,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1322376.99</v>
+        <v>1323010.0999999996</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3367,7 +3369,7 @@
         <v>102</v>
       </c>
       <c r="C53">
-        <v>1276560.4200000002</v>
+        <v>1276971.6699999997</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3378,7 +3380,7 @@
         <v>86</v>
       </c>
       <c r="C54">
-        <v>1274666.98</v>
+        <v>1276078.5199999996</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3389,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <v>1272409.3799999999</v>
+        <v>1272899.4399999997</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3400,7 +3402,7 @@
         <v>106</v>
       </c>
       <c r="C56">
-        <v>1257468.8599999999</v>
+        <v>1258827.8399999996</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3411,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="C57">
-        <v>1239866.54</v>
+        <v>1241682.79</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3422,7 +3424,7 @@
         <v>109</v>
       </c>
       <c r="C58">
-        <v>1227595.4100000001</v>
+        <v>1234698.8399999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3433,7 +3435,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1223744.3</v>
+        <v>1224264.3700000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3444,7 +3446,7 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>1190428.96</v>
+        <v>1192592.97</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3455,7 +3457,7 @@
         <v>33</v>
       </c>
       <c r="C61">
-        <v>1177614.93</v>
+        <v>1178117.45</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3466,7 +3468,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1171831.2299999997</v>
+        <v>1172480.46</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3477,7 +3479,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1148397.93</v>
+        <v>1148930.7200000002</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3488,7 +3490,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1120499.6900000002</v>
+        <v>1121048.9600000002</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3496,21 +3498,21 @@
         <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C65">
-        <v>1095213.45</v>
+        <v>1098269.79</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
         <v>123</v>
       </c>
-      <c r="B66" t="s">
-        <v>59</v>
-      </c>
       <c r="C66">
-        <v>1094939.5899999999</v>
+        <v>1096548.2700000003</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3521,7 +3523,7 @@
         <v>41</v>
       </c>
       <c r="C67">
-        <v>1080677.51</v>
+        <v>1081108.6300000001</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3532,7 +3534,7 @@
         <v>126</v>
       </c>
       <c r="C68">
-        <v>1046303.53</v>
+        <v>1047543.9200000002</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3543,7 +3545,7 @@
         <v>128</v>
       </c>
       <c r="C69">
-        <v>1045529.7699999999</v>
+        <v>1045977.6099999999</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3554,7 +3556,7 @@
         <v>130</v>
       </c>
       <c r="C70">
-        <v>1042831.8299999998</v>
+        <v>1043395.9199999999</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3565,7 +3567,7 @@
         <v>132</v>
       </c>
       <c r="C71">
-        <v>1038754.45</v>
+        <v>1039195.6899999998</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3576,7 +3578,7 @@
         <v>79</v>
       </c>
       <c r="C72">
-        <v>1031116.54</v>
+        <v>1031558.75</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3587,7 +3589,7 @@
         <v>135</v>
       </c>
       <c r="C73">
-        <v>1029995.6000000001</v>
+        <v>1030984.2999999998</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3598,7 +3600,7 @@
         <v>137</v>
       </c>
       <c r="C74">
-        <v>1026508.59</v>
+        <v>1026952.98</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3609,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>1011621.0699999997</v>
+        <v>1012067.6900000001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3620,7 +3622,7 @@
         <v>140</v>
       </c>
       <c r="C76">
-        <v>985238.35999999987</v>
+        <v>985664.29999999993</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3631,7 +3633,7 @@
         <v>142</v>
       </c>
       <c r="C77">
-        <v>964206.18</v>
+        <v>964624.00000000012</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3642,7 +3644,7 @@
         <v>144</v>
       </c>
       <c r="C78">
-        <v>962199.09000000008</v>
+        <v>964135.62999999989</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3653,7 +3655,7 @@
         <v>146</v>
       </c>
       <c r="C79">
-        <v>957407.16999999993</v>
+        <v>957821.33000000031</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3661,98 +3663,98 @@
         <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="C80">
-        <v>920951.11</v>
+        <v>942622.27</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
         <v>149</v>
       </c>
-      <c r="B81" t="s">
-        <v>150</v>
-      </c>
       <c r="C81">
-        <v>902447.3</v>
+        <v>921305.9500000003</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" t="s">
         <v>151</v>
       </c>
-      <c r="B82" t="s">
-        <v>152</v>
-      </c>
       <c r="C82">
-        <v>891430.11</v>
+        <v>905106.51</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" t="s">
         <v>153</v>
       </c>
-      <c r="B83" t="s">
-        <v>154</v>
-      </c>
       <c r="C83">
-        <v>890816.6</v>
+        <v>891383.34</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
         <v>155</v>
       </c>
-      <c r="B84" t="s">
-        <v>156</v>
-      </c>
       <c r="C84">
-        <v>881759.45000000007</v>
+        <v>891361.84</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" t="s">
         <v>157</v>
       </c>
-      <c r="B85" t="s">
-        <v>158</v>
-      </c>
       <c r="C85">
-        <v>865045.08000000007</v>
+        <v>882130.41</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
         <v>159</v>
       </c>
-      <c r="B86" t="s">
-        <v>160</v>
-      </c>
       <c r="C86">
-        <v>864913.64999999979</v>
+        <v>865416.10999999987</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
         <v>161</v>
       </c>
-      <c r="B87" t="s">
-        <v>162</v>
-      </c>
       <c r="C87">
-        <v>853549.56000000017</v>
+        <v>864568.34</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
         <v>163</v>
       </c>
-      <c r="B88" t="s">
-        <v>39</v>
-      </c>
       <c r="C88">
-        <v>840249.89000000013</v>
+        <v>853919.5499999997</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3763,7 +3765,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>835730.94000000006</v>
+        <v>837319.08000000007</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3774,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="C90">
-        <v>827085.78999999992</v>
+        <v>831783.89000000013</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3785,7 +3787,7 @@
         <v>33</v>
       </c>
       <c r="C91">
-        <v>819074.46000000008</v>
+        <v>819637.03</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3796,7 +3798,7 @@
         <v>169</v>
       </c>
       <c r="C92">
-        <v>815789.24000000022</v>
+        <v>816382.80999999994</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3807,7 +3809,7 @@
         <v>28</v>
       </c>
       <c r="C93">
-        <v>808489.16999999993</v>
+        <v>809562.13</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3818,7 +3820,7 @@
         <v>172</v>
       </c>
       <c r="C94">
-        <v>798126.75</v>
+        <v>798465.6100000001</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3829,7 +3831,7 @@
         <v>174</v>
       </c>
       <c r="C95">
-        <v>797939.15999999992</v>
+        <v>798289.73</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3840,7 +3842,7 @@
         <v>64</v>
       </c>
       <c r="C96">
-        <v>790042.24</v>
+        <v>790298.2100000002</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3851,7 +3853,7 @@
         <v>33</v>
       </c>
       <c r="C97">
-        <v>782949.57000000018</v>
+        <v>783859.95</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3862,7 +3864,7 @@
         <v>178</v>
       </c>
       <c r="C98">
-        <v>779675.84000000008</v>
+        <v>781169.31</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3873,7 +3875,7 @@
         <v>180</v>
       </c>
       <c r="C99">
-        <v>756899.91999999993</v>
+        <v>757231.47000000009</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3884,7 +3886,7 @@
         <v>182</v>
       </c>
       <c r="C100">
-        <v>752684.52000000014</v>
+        <v>753005.65999999992</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3895,7 +3897,7 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>746720.62</v>
+        <v>748118.85</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3906,7 +3908,7 @@
         <v>33</v>
       </c>
       <c r="C102">
-        <v>725846.22000000009</v>
+        <v>727199.77</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3917,7 +3919,7 @@
         <v>61</v>
       </c>
       <c r="C103">
-        <v>717705.62</v>
+        <v>719829.47000000009</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3928,7 +3930,7 @@
         <v>187</v>
       </c>
       <c r="C104">
-        <v>716370.06000000029</v>
+        <v>716657.79</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3939,7 +3941,7 @@
         <v>189</v>
       </c>
       <c r="C105">
-        <v>703908.87999999989</v>
+        <v>705184.91999999993</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3950,7 +3952,7 @@
         <v>191</v>
       </c>
       <c r="C106">
-        <v>702893.30999999994</v>
+        <v>703178.69000000018</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3972,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>698772.94</v>
+        <v>699094.29</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3983,7 +3985,7 @@
         <v>196</v>
       </c>
       <c r="C109">
-        <v>683513.41999999969</v>
+        <v>696380.84</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3994,7 +3996,7 @@
         <v>198</v>
       </c>
       <c r="C110">
-        <v>678479.64999999991</v>
+        <v>683802.68000000028</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4005,7 +4007,7 @@
         <v>53</v>
       </c>
       <c r="C111">
-        <v>677415.80999999994</v>
+        <v>681163.22000000009</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4016,7 +4018,7 @@
         <v>201</v>
       </c>
       <c r="C112">
-        <v>675212.53</v>
+        <v>679747.74</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4024,21 +4026,21 @@
         <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="C113">
-        <v>671044.74999999988</v>
+        <v>677221.5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="C114">
-        <v>665877.87</v>
+        <v>672889.68</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4046,32 +4048,32 @@
         <v>205</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="C115">
-        <v>664542.06999999995</v>
+        <v>666764.77</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C116">
-        <v>648283.06999999995</v>
+        <v>665244.62999999989</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="C117">
-        <v>646375.42999999993</v>
+        <v>649632.32000000007</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4082,7 +4084,7 @@
         <v>31</v>
       </c>
       <c r="C118">
-        <v>644665.69999999995</v>
+        <v>648285.87999999989</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4093,7 +4095,7 @@
         <v>211</v>
       </c>
       <c r="C119">
-        <v>637056.1399999999</v>
+        <v>647531.89999999991</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4104,7 +4106,7 @@
         <v>39</v>
       </c>
       <c r="C120">
-        <v>632369.15000000014</v>
+        <v>637851.76</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4112,21 +4114,21 @@
         <v>213</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C121">
-        <v>630880.27</v>
+        <v>637796.31000000006</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C122">
-        <v>626339.42999999993</v>
+        <v>632907.40999999992</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4134,21 +4136,21 @@
         <v>216</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="C123">
-        <v>622916.03000000014</v>
+        <v>626614.62</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="C124">
-        <v>618966.33000000007</v>
+        <v>624106.35</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4159,7 +4161,7 @@
         <v>220</v>
       </c>
       <c r="C125">
-        <v>616253.54</v>
+        <v>619225.39</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4167,21 +4169,21 @@
         <v>221</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="C126">
-        <v>609315.70000000007</v>
+        <v>617242.19000000006</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B127" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="C127">
-        <v>606382.41999999993</v>
+        <v>609525.08000000007</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4192,7 +4194,7 @@
         <v>225</v>
       </c>
       <c r="C128">
-        <v>593595.17000000004</v>
+        <v>607570.25000000012</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4203,7 +4205,7 @@
         <v>227</v>
       </c>
       <c r="C129">
-        <v>576936.37999999989</v>
+        <v>594758.27000000025</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4214,7 +4216,7 @@
         <v>229</v>
       </c>
       <c r="C130">
-        <v>574290.91</v>
+        <v>577576.18999999994</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4225,7 +4227,7 @@
         <v>231</v>
       </c>
       <c r="C131">
-        <v>573310.93999999994</v>
+        <v>574551.86</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4233,43 +4235,43 @@
         <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="C132">
-        <v>566749.69999999995</v>
+        <v>573545.37</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C133">
-        <v>563847.75</v>
+        <v>567284.31999999995</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C134">
-        <v>563681.24</v>
+        <v>566996.41999999993</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B135" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="C135">
-        <v>561412.02</v>
+        <v>563930.15999999992</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4280,7 +4282,7 @@
         <v>239</v>
       </c>
       <c r="C136">
-        <v>554860.49</v>
+        <v>562542.66</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4291,7 +4293,7 @@
         <v>241</v>
       </c>
       <c r="C137">
-        <v>544978.94000000006</v>
+        <v>555208.00999999978</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4302,7 +4304,7 @@
         <v>243</v>
       </c>
       <c r="C138">
-        <v>541434.57000000007</v>
+        <v>545158.24</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4313,7 +4315,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>537576.1399999999</v>
+        <v>544356.06999999983</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4324,7 +4326,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>534933.03</v>
+        <v>537804.88</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4335,7 +4337,7 @@
         <v>249</v>
       </c>
       <c r="C141">
-        <v>531341.20000000007</v>
+        <v>535276.27</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4346,7 +4348,7 @@
         <v>251</v>
       </c>
       <c r="C142">
-        <v>531267.88</v>
+        <v>531959.05000000005</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4354,21 +4356,21 @@
         <v>252</v>
       </c>
       <c r="B143" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="C143">
-        <v>527518.88</v>
+        <v>531714.30000000005</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="C144">
-        <v>516546.6</v>
+        <v>527745.58000000007</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4379,7 +4381,7 @@
         <v>256</v>
       </c>
       <c r="C145">
-        <v>514300.38999999996</v>
+        <v>517277.67000000004</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4390,7 +4392,7 @@
         <v>258</v>
       </c>
       <c r="C146">
-        <v>513759.07999999996</v>
+        <v>515386.6</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4401,7 +4403,7 @@
         <v>260</v>
       </c>
       <c r="C147">
-        <v>510250.53</v>
+        <v>514168.85999999993</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4412,7 +4414,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>508112.05999999994</v>
+        <v>511243.45999999996</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4423,7 +4425,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>505435.4</v>
+        <v>510953.28999999992</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4434,7 +4436,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>499747.45999999996</v>
+        <v>505685.2099999999</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4445,7 +4447,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>492180.47999999998</v>
+        <v>499973</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4456,7 +4458,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>482927.70000000007</v>
+        <v>492351.82</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4467,7 +4469,7 @@
         <v>272</v>
       </c>
       <c r="C153">
-        <v>481881.11</v>
+        <v>484625.99000000005</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4478,7 +4480,7 @@
         <v>274</v>
       </c>
       <c r="C154">
-        <v>480610.71000000008</v>
+        <v>483117.5</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4486,32 +4488,32 @@
         <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="C155">
-        <v>477657.52000000014</v>
+        <v>480811.60000000003</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C156">
-        <v>476959.48000000004</v>
+        <v>480378.15000000008</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="C157">
-        <v>463203.95</v>
+        <v>477169.99</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4522,7 +4524,7 @@
         <v>280</v>
       </c>
       <c r="C158">
-        <v>457182.52</v>
+        <v>463360.66000000003</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4533,7 +4535,7 @@
         <v>20</v>
       </c>
       <c r="C159">
-        <v>456242.67999999993</v>
+        <v>459179.33</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4544,7 +4546,7 @@
         <v>283</v>
       </c>
       <c r="C160">
-        <v>452954.13000000006</v>
+        <v>457371.26</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4555,7 +4557,7 @@
         <v>285</v>
       </c>
       <c r="C161">
-        <v>446134.36999999994</v>
+        <v>453130.76</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4566,7 +4568,7 @@
         <v>287</v>
       </c>
       <c r="C162">
-        <v>445033.91999999987</v>
+        <v>446316.76000000007</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4574,43 +4576,43 @@
         <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="C163">
-        <v>442732.83</v>
+        <v>446248.36000000004</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B164" t="s">
         <v>126</v>
       </c>
       <c r="C164">
-        <v>442066.15999999992</v>
+        <v>444644.29000000004</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B165" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C165">
-        <v>425845.05999999994</v>
+        <v>442929.09999999992</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>61</v>
       </c>
       <c r="C166">
-        <v>424888.48</v>
+        <v>426025.49000000005</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4618,21 +4620,21 @@
         <v>293</v>
       </c>
       <c r="B167" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="C167">
-        <v>422896.20000000007</v>
+        <v>425685.3</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B168" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C168">
-        <v>421001.89</v>
+        <v>423050.23</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4640,32 +4642,32 @@
         <v>296</v>
       </c>
       <c r="B169" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c r="C169">
-        <v>419943.01999999996</v>
+        <v>421245.02</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B170" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C170">
-        <v>419388.51</v>
+        <v>420639.89</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="C171">
-        <v>417436.06</v>
+        <v>419781.40999999992</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4676,7 +4678,7 @@
         <v>301</v>
       </c>
       <c r="C172">
-        <v>410670.19999999995</v>
+        <v>417792.95999999996</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4687,7 +4689,7 @@
         <v>303</v>
       </c>
       <c r="C173">
-        <v>405285.97</v>
+        <v>410846.01</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4698,7 +4700,7 @@
         <v>305</v>
       </c>
       <c r="C174">
-        <v>403619.61999999994</v>
+        <v>405901.38</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4706,21 +4708,21 @@
         <v>306</v>
       </c>
       <c r="B175" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="C175">
-        <v>403274.75</v>
+        <v>404065.91</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B176" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
       <c r="C176">
-        <v>397959.84</v>
+        <v>403444.45000000007</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4731,7 +4733,7 @@
         <v>310</v>
       </c>
       <c r="C177">
-        <v>396212.41000000003</v>
+        <v>398128.17000000004</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4742,7 +4744,7 @@
         <v>312</v>
       </c>
       <c r="C178">
-        <v>390992.53999999992</v>
+        <v>391750.55999999994</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4753,7 +4755,7 @@
         <v>86</v>
       </c>
       <c r="C179">
-        <v>388096.85</v>
+        <v>390266.31999999995</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4764,7 +4766,7 @@
         <v>315</v>
       </c>
       <c r="C180">
-        <v>387989.95</v>
+        <v>389983.93000000005</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4775,7 +4777,7 @@
         <v>317</v>
       </c>
       <c r="C181">
-        <v>384311.4</v>
+        <v>384755.92999999993</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4786,7 +4788,7 @@
         <v>319</v>
       </c>
       <c r="C182">
-        <v>382606.44</v>
+        <v>383990.42000000004</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4797,7 +4799,7 @@
         <v>321</v>
       </c>
       <c r="C183">
-        <v>380092.84</v>
+        <v>380819.02999999997</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4808,7 +4810,7 @@
         <v>317</v>
       </c>
       <c r="C184">
-        <v>377345.53999999992</v>
+        <v>378048.05999999994</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4819,7 +4821,7 @@
         <v>324</v>
       </c>
       <c r="C185">
-        <v>372051.82999999996</v>
+        <v>372779.19999999995</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4830,7 +4832,7 @@
         <v>326</v>
       </c>
       <c r="C186">
-        <v>372042.11999999994</v>
+        <v>370138.08</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4841,7 +4843,7 @@
         <v>328</v>
       </c>
       <c r="C187">
-        <v>367589.95</v>
+        <v>367757.16</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4852,7 +4854,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>366945.55999999994</v>
+        <v>367103.58999999997</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4863,7 +4865,7 @@
         <v>75</v>
       </c>
       <c r="C189">
-        <v>362799.89999999997</v>
+        <v>363224.05000000005</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4871,21 +4873,21 @@
         <v>332</v>
       </c>
       <c r="B190" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="C190">
-        <v>361875.91000000003</v>
+        <v>362547.12</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
+        <v>333</v>
+      </c>
+      <c r="B191" t="s">
         <v>334</v>
       </c>
-      <c r="B191" t="s">
-        <v>254</v>
-      </c>
       <c r="C191">
-        <v>359439.89000000007</v>
+        <v>362029.31</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4896,7 +4898,7 @@
         <v>336</v>
       </c>
       <c r="C192">
-        <v>358722.72</v>
+        <v>358872.66000000003</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4907,7 +4909,7 @@
         <v>39</v>
       </c>
       <c r="C193">
-        <v>358539.37999999989</v>
+        <v>358691.68000000005</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4918,7 +4920,7 @@
         <v>339</v>
       </c>
       <c r="C194">
-        <v>358506.68999999994</v>
+        <v>358666.13</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4929,7 +4931,7 @@
         <v>330</v>
       </c>
       <c r="C195">
-        <v>357674.36999999994</v>
+        <v>357823.30000000005</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4940,7 +4942,7 @@
         <v>73</v>
       </c>
       <c r="C196">
-        <v>356375.71</v>
+        <v>356510.66</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4951,7 +4953,7 @@
         <v>343</v>
       </c>
       <c r="C197">
-        <v>350971.67000000004</v>
+        <v>353527.92</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4962,7 +4964,7 @@
         <v>345</v>
       </c>
       <c r="C198">
-        <v>350313.72000000003</v>
+        <v>351095.95</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4973,7 +4975,7 @@
         <v>347</v>
       </c>
       <c r="C199">
-        <v>348073.48000000004</v>
+        <v>348222.15</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4984,7 +4986,7 @@
         <v>312</v>
       </c>
       <c r="C200">
-        <v>346385.5</v>
+        <v>347056.88999999996</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4995,7 +4997,7 @@
         <v>350</v>
       </c>
       <c r="C201">
-        <v>344733.26999999996</v>
+        <v>345240.32999999996</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5006,7 +5008,7 @@
         <v>352</v>
       </c>
       <c r="C202">
-        <v>344569.52</v>
+        <v>344891.27</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5017,7 +5019,7 @@
         <v>354</v>
       </c>
       <c r="C203">
-        <v>342185.13</v>
+        <v>342964.95999999996</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5028,7 +5030,7 @@
         <v>356</v>
       </c>
       <c r="C204">
-        <v>341692.54</v>
+        <v>341973.51999999996</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5039,7 +5041,7 @@
         <v>358</v>
       </c>
       <c r="C205">
-        <v>340425.02</v>
+        <v>340768.68999999994</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5050,7 +5052,7 @@
         <v>360</v>
       </c>
       <c r="C206">
-        <v>340021.48</v>
+        <v>340425.33999999997</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5058,10 +5060,10 @@
         <v>361</v>
       </c>
       <c r="B207" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C207">
-        <v>339872.31</v>
+        <v>340004.62</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5072,7 +5074,7 @@
         <v>363</v>
       </c>
       <c r="C208">
-        <v>333322.16000000003</v>
+        <v>333462.95</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5083,7 +5085,7 @@
         <v>365</v>
       </c>
       <c r="C209">
-        <v>333008.90000000002</v>
+        <v>333142.18999999994</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5094,7 +5096,7 @@
         <v>367</v>
       </c>
       <c r="C210">
-        <v>332361.59999999998</v>
+        <v>332998.21999999991</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5102,21 +5104,21 @@
         <v>368</v>
       </c>
       <c r="B211" t="s">
-        <v>369</v>
+        <v>102</v>
       </c>
       <c r="C211">
-        <v>330951.18</v>
+        <v>332685.87999999995</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
+        <v>369</v>
+      </c>
+      <c r="B212" t="s">
         <v>370</v>
       </c>
-      <c r="B212" t="s">
-        <v>102</v>
-      </c>
       <c r="C212">
-        <v>330824.85000000003</v>
+        <v>331094.55</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5127,7 +5129,7 @@
         <v>372</v>
       </c>
       <c r="C213">
-        <v>328415.27</v>
+        <v>328557.68</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5138,7 +5140,7 @@
         <v>374</v>
       </c>
       <c r="C214">
-        <v>324270.12</v>
+        <v>324902.36000000004</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5149,7 +5151,7 @@
         <v>376</v>
       </c>
       <c r="C215">
-        <v>322862.01</v>
+        <v>322991.01</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5160,7 +5162,7 @@
         <v>378</v>
       </c>
       <c r="C216">
-        <v>322405.40999999997</v>
+        <v>322540.56999999995</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5171,7 +5173,7 @@
         <v>33</v>
       </c>
       <c r="C217">
-        <v>316043.2</v>
+        <v>316179.51999999996</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5182,7 +5184,7 @@
         <v>356</v>
       </c>
       <c r="C218">
-        <v>312064.42999999993</v>
+        <v>312192.01</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5193,7 +5195,7 @@
         <v>86</v>
       </c>
       <c r="C219">
-        <v>307925.33</v>
+        <v>308282.02</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5204,7 +5206,7 @@
         <v>383</v>
       </c>
       <c r="C220">
-        <v>307058.46999999997</v>
+        <v>307187.28999999998</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5215,7 +5217,7 @@
         <v>354</v>
       </c>
       <c r="C221">
-        <v>305847.68999999994</v>
+        <v>305998</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5226,7 +5228,7 @@
         <v>386</v>
       </c>
       <c r="C222">
-        <v>305704.32000000001</v>
+        <v>305808.70000000007</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5234,10 +5236,10 @@
         <v>387</v>
       </c>
       <c r="B223" t="s">
-        <v>68</v>
+        <v>354</v>
       </c>
       <c r="C223">
-        <v>299700.89999999997</v>
+        <v>301046.00999999995</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5245,10 +5247,10 @@
         <v>388</v>
       </c>
       <c r="B224" t="s">
-        <v>354</v>
+        <v>68</v>
       </c>
       <c r="C224">
-        <v>298570.90000000002</v>
+        <v>299947.53999999998</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5256,10 +5258,10 @@
         <v>389</v>
       </c>
       <c r="B225" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C225">
-        <v>291772.24</v>
+        <v>291875.78999999998</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5270,7 +5272,7 @@
         <v>391</v>
       </c>
       <c r="C226">
-        <v>290286.31999999995</v>
+        <v>290407.75</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5278,21 +5280,21 @@
         <v>392</v>
       </c>
       <c r="B227" t="s">
-        <v>393</v>
+        <v>53</v>
       </c>
       <c r="C227">
-        <v>288140.88999999996</v>
+        <v>288423.95</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>393</v>
+      </c>
+      <c r="B228" t="s">
         <v>394</v>
       </c>
-      <c r="B228" t="s">
-        <v>53</v>
-      </c>
       <c r="C228">
-        <v>287632.84000000003</v>
+        <v>288256.07</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5303,7 +5305,7 @@
         <v>64</v>
       </c>
       <c r="C229">
-        <v>286645.33000000007</v>
+        <v>287202.64999999997</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5314,7 +5316,7 @@
         <v>397</v>
       </c>
       <c r="C230">
-        <v>282180.72000000003</v>
+        <v>282280.89</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5322,21 +5324,21 @@
         <v>398</v>
       </c>
       <c r="B231" t="s">
-        <v>399</v>
+        <v>272</v>
       </c>
       <c r="C231">
-        <v>280205.94999999995</v>
+        <v>280369.98</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>399</v>
+      </c>
+      <c r="B232" t="s">
         <v>400</v>
       </c>
-      <c r="B232" t="s">
-        <v>272</v>
-      </c>
       <c r="C232">
-        <v>280029.05000000005</v>
+        <v>280325.62</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5347,7 +5349,7 @@
         <v>402</v>
       </c>
       <c r="C233">
-        <v>277239.05</v>
+        <v>277648.12</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5358,7 +5360,7 @@
         <v>404</v>
       </c>
       <c r="C234">
-        <v>277119.64</v>
+        <v>277364.88</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5369,7 +5371,7 @@
         <v>406</v>
       </c>
       <c r="C235">
-        <v>269160.69</v>
+        <v>269229.92000000004</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5377,10 +5379,10 @@
         <v>407</v>
       </c>
       <c r="B236" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C236">
-        <v>266353.82999999996</v>
+        <v>266657.18999999994</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5388,54 +5390,54 @@
         <v>408</v>
       </c>
       <c r="B237" t="s">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="C237">
-        <v>265930.48</v>
+        <v>266587.82</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
+        <v>409</v>
+      </c>
+      <c r="B238" t="s">
         <v>410</v>
       </c>
-      <c r="B238" t="s">
-        <v>411</v>
-      </c>
       <c r="C238">
-        <v>264816.18</v>
+        <v>266451.95</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>411</v>
+      </c>
+      <c r="B239" t="s">
         <v>412</v>
       </c>
-      <c r="B239" t="s">
-        <v>413</v>
-      </c>
       <c r="C239">
-        <v>264220.08999999991</v>
+        <v>264928.72000000003</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
+        <v>413</v>
+      </c>
+      <c r="B240" t="s">
         <v>414</v>
       </c>
-      <c r="B240" t="s">
-        <v>415</v>
-      </c>
       <c r="C240">
-        <v>261570.90999999997</v>
+        <v>264743.96000000002</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>415</v>
+      </c>
+      <c r="B241" t="s">
         <v>416</v>
       </c>
-      <c r="B241" t="s">
-        <v>218</v>
-      </c>
       <c r="C241">
-        <v>259506.09999999998</v>
+        <v>261786.87</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5446,7 +5448,7 @@
         <v>418</v>
       </c>
       <c r="C242">
-        <v>259164.24</v>
+        <v>259255.54000000004</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5457,7 +5459,7 @@
         <v>420</v>
       </c>
       <c r="C243">
-        <v>255595.09000000005</v>
+        <v>255708.59</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5465,7 +5467,7 @@
         <v>421</v>
       </c>
       <c r="B244" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C244">
         <v>255010</v>
@@ -5479,7 +5481,7 @@
         <v>423</v>
       </c>
       <c r="C245">
-        <v>247595.42</v>
+        <v>248063.35</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5490,7 +5492,7 @@
         <v>425</v>
       </c>
       <c r="C246">
-        <v>247227.18999999997</v>
+        <v>247712.18</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5501,7 +5503,7 @@
         <v>427</v>
       </c>
       <c r="C247">
-        <v>246543.77</v>
+        <v>247542.88999999998</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5512,7 +5514,7 @@
         <v>429</v>
       </c>
       <c r="C248">
-        <v>246107.57999999996</v>
+        <v>246256.19000000003</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5523,7 +5525,7 @@
         <v>431</v>
       </c>
       <c r="C249">
-        <v>242186.62000000002</v>
+        <v>242407.97000000003</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5534,7 +5536,7 @@
         <v>433</v>
       </c>
       <c r="C250">
-        <v>241952.37999999995</v>
+        <v>242337.41999999998</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5545,7 +5547,7 @@
         <v>435</v>
       </c>
       <c r="C251">
-        <v>240602.28999999998</v>
+        <v>240720.88000000003</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5556,7 +5558,7 @@
         <v>437</v>
       </c>
       <c r="C252">
-        <v>240414.48</v>
+        <v>240619.41999999998</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5564,21 +5566,21 @@
         <v>438</v>
       </c>
       <c r="B253" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="C253">
-        <v>238304.28</v>
+        <v>240254.21999999997</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B254" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="C254">
-        <v>235129.84000000003</v>
+        <v>238613.4</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5586,21 +5588,21 @@
         <v>441</v>
       </c>
       <c r="B255" t="s">
-        <v>193</v>
+        <v>442</v>
       </c>
       <c r="C255">
-        <v>234787.47999999998</v>
+        <v>235228.97</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B256" t="s">
-        <v>443</v>
+        <v>193</v>
       </c>
       <c r="C256">
-        <v>233325.18999999997</v>
+        <v>235218.20000000007</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5611,7 +5613,7 @@
         <v>445</v>
       </c>
       <c r="C257">
-        <v>232593.84999999998</v>
+        <v>233604.63000000003</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5622,7 +5624,7 @@
         <v>447</v>
       </c>
       <c r="C258">
-        <v>227697.97</v>
+        <v>232685.9</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5633,7 +5635,7 @@
         <v>449</v>
       </c>
       <c r="C259">
-        <v>226832.56000000003</v>
+        <v>227793.19999999995</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5641,43 +5643,43 @@
         <v>450</v>
       </c>
       <c r="B260" t="s">
-        <v>116</v>
+        <v>451</v>
       </c>
       <c r="C260">
-        <v>221916.02000000002</v>
+        <v>227033.83000000002</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B261" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C261">
-        <v>220960.64000000001</v>
+        <v>221650.56</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B262" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C262">
-        <v>219452.09</v>
+        <v>221319.12000000002</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B263" t="s">
-        <v>454</v>
+        <v>90</v>
       </c>
       <c r="C263">
-        <v>218779.98</v>
+        <v>220694.36</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5688,7 +5690,7 @@
         <v>456</v>
       </c>
       <c r="C264">
-        <v>217958.24000000002</v>
+        <v>218865.06</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5696,21 +5698,21 @@
         <v>457</v>
       </c>
       <c r="B265" t="s">
-        <v>305</v>
+        <v>458</v>
       </c>
       <c r="C265">
-        <v>217065.57000000007</v>
+        <v>218143.58000000002</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B266" t="s">
-        <v>459</v>
+        <v>307</v>
       </c>
       <c r="C266">
-        <v>215168.28</v>
+        <v>217302.22</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5718,21 +5720,21 @@
         <v>460</v>
       </c>
       <c r="B267" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
       <c r="C267">
-        <v>213939.61</v>
+        <v>214455.65</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>461</v>
+      </c>
+      <c r="B268" t="s">
         <v>462</v>
       </c>
-      <c r="B268" t="s">
-        <v>283</v>
-      </c>
       <c r="C268">
-        <v>213262.40000000005</v>
+        <v>214032.28000000003</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5743,7 +5745,7 @@
         <v>75</v>
       </c>
       <c r="C269">
-        <v>209167.97999999998</v>
+        <v>209572.22999999998</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5754,7 +5756,7 @@
         <v>465</v>
       </c>
       <c r="C270">
-        <v>207892.41000000003</v>
+        <v>207981.16000000003</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5765,7 +5767,7 @@
         <v>467</v>
       </c>
       <c r="C271">
-        <v>207423.82</v>
+        <v>207838.79999999996</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5773,21 +5775,21 @@
         <v>468</v>
       </c>
       <c r="B272" t="s">
-        <v>260</v>
+        <v>469</v>
       </c>
       <c r="C272">
-        <v>206046.87000000005</v>
+        <v>207389.84</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B273" t="s">
-        <v>470</v>
+        <v>285</v>
       </c>
       <c r="C273">
-        <v>205593.25999999998</v>
+        <v>206745.27000000002</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5795,10 +5797,10 @@
         <v>471</v>
       </c>
       <c r="B274" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C274">
-        <v>204660.31</v>
+        <v>206395.03000000003</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5809,7 +5811,7 @@
         <v>51</v>
       </c>
       <c r="C275">
-        <v>204232.2</v>
+        <v>204808.37000000005</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5820,7 +5822,7 @@
         <v>86</v>
       </c>
       <c r="C276">
-        <v>201807.72</v>
+        <v>202596.67</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5828,21 +5830,21 @@
         <v>474</v>
       </c>
       <c r="B277" t="s">
-        <v>475</v>
+        <v>241</v>
       </c>
       <c r="C277">
-        <v>201480.82</v>
+        <v>201793.30000000002</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>475</v>
+      </c>
+      <c r="B278" t="s">
         <v>476</v>
       </c>
-      <c r="B278" t="s">
-        <v>239</v>
-      </c>
       <c r="C278">
-        <v>200046.83</v>
+        <v>201722.83000000005</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5853,7 +5855,7 @@
         <v>478</v>
       </c>
       <c r="C279">
-        <v>198093.97</v>
+        <v>198419.91</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5864,7 +5866,7 @@
         <v>272</v>
       </c>
       <c r="C280">
-        <v>193111.28</v>
+        <v>193192.04</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5875,7 +5877,7 @@
         <v>481</v>
       </c>
       <c r="C281">
-        <v>191879.64</v>
+        <v>192004.1</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5886,7 +5888,7 @@
         <v>437</v>
       </c>
       <c r="C282">
-        <v>191540.72</v>
+        <v>191628.77</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5897,7 +5899,7 @@
         <v>484</v>
       </c>
       <c r="C283">
-        <v>191416.64</v>
+        <v>191498.47999999998</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5908,7 +5910,7 @@
         <v>53</v>
       </c>
       <c r="C284">
-        <v>191093.87999999998</v>
+        <v>191450.91999999995</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5919,7 +5921,7 @@
         <v>487</v>
       </c>
       <c r="C285">
-        <v>189181.37</v>
+        <v>189412.89</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5930,7 +5932,7 @@
         <v>41</v>
       </c>
       <c r="C286">
-        <v>188129.52000000002</v>
+        <v>188455.15999999995</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5941,7 +5943,7 @@
         <v>39</v>
       </c>
       <c r="C287">
-        <v>185518.07999999996</v>
+        <v>185868.42</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5952,7 +5954,7 @@
         <v>491</v>
       </c>
       <c r="C288">
-        <v>178808.17</v>
+        <v>179160.36000000002</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5963,7 +5965,7 @@
         <v>493</v>
       </c>
       <c r="C289">
-        <v>177417.37999999998</v>
+        <v>177554.37</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5974,7 +5976,7 @@
         <v>75</v>
       </c>
       <c r="C290">
-        <v>172975.71999999997</v>
+        <v>173050.37999999998</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5982,10 +5984,10 @@
         <v>495</v>
       </c>
       <c r="B291" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C291">
-        <v>172437.05999999997</v>
+        <v>172867.44</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5996,7 +5998,7 @@
         <v>497</v>
       </c>
       <c r="C292">
-        <v>171274.8</v>
+        <v>171610.52999999997</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6007,7 +6009,7 @@
         <v>499</v>
       </c>
       <c r="C293">
-        <v>171097.34999999998</v>
+        <v>171166.84999999998</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6018,7 +6020,7 @@
         <v>501</v>
       </c>
       <c r="C294">
-        <v>168518.02</v>
+        <v>168841.78000000006</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6029,7 +6031,7 @@
         <v>116</v>
       </c>
       <c r="C295">
-        <v>166253.13</v>
+        <v>166324.34</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6037,21 +6039,21 @@
         <v>503</v>
       </c>
       <c r="B296" t="s">
-        <v>126</v>
+        <v>504</v>
       </c>
       <c r="C296">
-        <v>163556.75999999995</v>
+        <v>163772.42999999996</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B297" t="s">
-        <v>505</v>
+        <v>126</v>
       </c>
       <c r="C297">
-        <v>163423.31</v>
+        <v>163718.69</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6062,7 +6064,7 @@
         <v>109</v>
       </c>
       <c r="C298">
-        <v>161790.21000000002</v>
+        <v>162106.5</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6073,7 +6075,7 @@
         <v>508</v>
       </c>
       <c r="C299">
-        <v>160440</v>
+        <v>160555.34</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6084,7 +6086,7 @@
         <v>510</v>
       </c>
       <c r="C300">
-        <v>160133.51999999999</v>
+        <v>160197.28</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6095,7 +6097,7 @@
         <v>512</v>
       </c>
       <c r="C301">
-        <v>159263.70000000001</v>
+        <v>159327.14000000001</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6106,7 +6108,7 @@
         <v>514</v>
       </c>
       <c r="C302">
-        <v>158937.85999999999</v>
+        <v>159004.74</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6117,7 +6119,7 @@
         <v>516</v>
       </c>
       <c r="C303">
-        <v>157501.04999999999</v>
+        <v>157502.35999999999</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6128,7 +6130,7 @@
         <v>75</v>
       </c>
       <c r="C304">
-        <v>156954.9</v>
+        <v>157021.43999999997</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6139,7 +6141,7 @@
         <v>330</v>
       </c>
       <c r="C305">
-        <v>156803.26999999999</v>
+        <v>156853.41</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6150,7 +6152,7 @@
         <v>64</v>
       </c>
       <c r="C306">
-        <v>156387.56999999998</v>
+        <v>156451.76999999999</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6161,7 +6163,7 @@
         <v>100</v>
       </c>
       <c r="C307">
-        <v>156120.21000000002</v>
+        <v>156190.08000000002</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6172,7 +6174,7 @@
         <v>64</v>
       </c>
       <c r="C308">
-        <v>155335.69999999998</v>
+        <v>155400.58999999997</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6183,7 +6185,7 @@
         <v>435</v>
       </c>
       <c r="C309">
-        <v>155004.92000000001</v>
+        <v>155007.16</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6194,7 +6196,7 @@
         <v>31</v>
       </c>
       <c r="C310">
-        <v>153092.56</v>
+        <v>153223.26999999999</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6205,7 +6207,7 @@
         <v>525</v>
       </c>
       <c r="C311">
-        <v>151350.64000000001</v>
+        <v>151403.76</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6213,10 +6215,10 @@
         <v>526</v>
       </c>
       <c r="B312" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C312">
-        <v>150902.38000000003</v>
+        <v>151182.62</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6227,7 +6229,7 @@
         <v>41</v>
       </c>
       <c r="C313">
-        <v>148654.59999999998</v>
+        <v>148718.18</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6235,10 +6237,10 @@
         <v>528</v>
       </c>
       <c r="B314" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C314">
-        <v>146470.24</v>
+        <v>146568.55000000002</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6249,7 +6251,7 @@
         <v>530</v>
       </c>
       <c r="C315">
-        <v>145669.03999999998</v>
+        <v>145741.24999999997</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6257,10 +6259,10 @@
         <v>531</v>
       </c>
       <c r="B316" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C316">
-        <v>144704.74</v>
+        <v>144893.59999999998</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6268,10 +6270,10 @@
         <v>532</v>
       </c>
       <c r="B317" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="C317">
-        <v>143475.68999999997</v>
+        <v>144302.88999999998</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6279,10 +6281,10 @@
         <v>533</v>
       </c>
       <c r="B318" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="C318">
-        <v>143144.94</v>
+        <v>143612.80999999997</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6293,7 +6295,7 @@
         <v>535</v>
       </c>
       <c r="C319">
-        <v>140253.14000000001</v>
+        <v>140586.21</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6304,7 +6306,7 @@
         <v>537</v>
       </c>
       <c r="C320">
-        <v>139362.17999999996</v>
+        <v>139417.77000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6315,7 +6317,7 @@
         <v>539</v>
       </c>
       <c r="C321">
-        <v>138881.79999999999</v>
+        <v>138921.34</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6326,7 +6328,7 @@
         <v>541</v>
       </c>
       <c r="C322">
-        <v>138839.50000000003</v>
+        <v>138899.32000000004</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6337,7 +6339,7 @@
         <v>543</v>
       </c>
       <c r="C323">
-        <v>136950.76999999999</v>
+        <v>137209.24999999997</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6345,32 +6347,32 @@
         <v>544</v>
       </c>
       <c r="B324" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C324">
-        <v>136853.02999999997</v>
+        <v>137011.84</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B325" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C325">
-        <v>136793.54</v>
+        <v>136949.83000000002</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B326" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C326">
-        <v>136444.58999999997</v>
+        <v>136922.28</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6378,10 +6380,10 @@
         <v>549</v>
       </c>
       <c r="B327" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C327">
-        <v>134551.12999999998</v>
+        <v>134608.77000000002</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6389,10 +6391,10 @@
         <v>550</v>
       </c>
       <c r="B328" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C328">
-        <v>130626.28000000001</v>
+        <v>131356.45000000001</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6403,7 +6405,7 @@
         <v>552</v>
       </c>
       <c r="C329">
-        <v>128393.7</v>
+        <v>128442.93999999999</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6411,10 +6413,10 @@
         <v>553</v>
       </c>
       <c r="B330" t="s">
-        <v>423</v>
+        <v>227</v>
       </c>
       <c r="C330">
-        <v>126654.71999999999</v>
+        <v>127154.31000000001</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6422,43 +6424,43 @@
         <v>554</v>
       </c>
       <c r="B331" t="s">
-        <v>555</v>
+        <v>423</v>
       </c>
       <c r="C331">
-        <v>126320.19000000002</v>
+        <v>126774.62</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
+        <v>555</v>
+      </c>
+      <c r="B332" t="s">
         <v>556</v>
       </c>
-      <c r="B332" t="s">
-        <v>557</v>
-      </c>
       <c r="C332">
-        <v>123451.99</v>
+        <v>126367.00000000003</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
+        <v>557</v>
+      </c>
+      <c r="B333" t="s">
         <v>558</v>
       </c>
-      <c r="B333" t="s">
-        <v>559</v>
-      </c>
       <c r="C333">
-        <v>122872.97999999998</v>
+        <v>123950.11</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
+        <v>559</v>
+      </c>
+      <c r="B334" t="s">
         <v>560</v>
       </c>
-      <c r="B334" t="s">
-        <v>225</v>
-      </c>
       <c r="C334">
-        <v>121999.89000000001</v>
+        <v>121951.98000000001</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6469,7 +6471,7 @@
         <v>562</v>
       </c>
       <c r="C335">
-        <v>121909.67000000001</v>
+        <v>120990.62000000001</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6477,21 +6479,21 @@
         <v>563</v>
       </c>
       <c r="B336" t="s">
-        <v>564</v>
+        <v>433</v>
       </c>
       <c r="C336">
-        <v>120934.53000000001</v>
+        <v>120948.44000000002</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
+        <v>564</v>
+      </c>
+      <c r="B337" t="s">
         <v>565</v>
       </c>
-      <c r="B337" t="s">
-        <v>431</v>
-      </c>
       <c r="C337">
-        <v>120896.5</v>
+        <v>120088.82</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6499,65 +6501,65 @@
         <v>566</v>
       </c>
       <c r="B338" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="C338">
-        <v>119848.38</v>
+        <v>119149.90999999997</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B339" t="s">
-        <v>539</v>
+        <v>467</v>
       </c>
       <c r="C339">
-        <v>118940.83000000002</v>
+        <v>117893.68</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B340" t="s">
-        <v>467</v>
+        <v>287</v>
       </c>
       <c r="C340">
-        <v>117844.88</v>
+        <v>117841.94999999998</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B341" t="s">
         <v>28</v>
       </c>
       <c r="C341">
-        <v>117732.10999999999</v>
+        <v>117784.45</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B342" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C342">
-        <v>117184.81</v>
+        <v>116395.42</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
+        <v>571</v>
+      </c>
+      <c r="B343" t="s">
         <v>572</v>
       </c>
-      <c r="B343" t="s">
-        <v>254</v>
-      </c>
       <c r="C343">
-        <v>116344.77</v>
+        <v>116059.3</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6565,32 +6567,32 @@
         <v>573</v>
       </c>
       <c r="B344" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="C344">
-        <v>116025.06</v>
+        <v>115098.62999999999</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B345" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C345">
-        <v>115072.54</v>
+        <v>112706.44999999998</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
+        <v>575</v>
+      </c>
+      <c r="B346" t="s">
         <v>576</v>
       </c>
-      <c r="B346" t="s">
-        <v>535</v>
-      </c>
       <c r="C346">
-        <v>112586.45999999999</v>
+        <v>112185.25999999998</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6601,7 +6603,7 @@
         <v>578</v>
       </c>
       <c r="C347">
-        <v>112135.96</v>
+        <v>112091.00000000001</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6612,7 +6614,7 @@
         <v>580</v>
       </c>
       <c r="C348">
-        <v>112040.87000000001</v>
+        <v>111994.94</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6620,54 +6622,54 @@
         <v>581</v>
       </c>
       <c r="B349" t="s">
-        <v>582</v>
+        <v>61</v>
       </c>
       <c r="C349">
-        <v>111948.50999999998</v>
+        <v>111978.72999999998</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B350" t="s">
-        <v>61</v>
+        <v>433</v>
       </c>
       <c r="C350">
-        <v>111929.27</v>
+        <v>111762.73999999999</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B351" t="s">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="C351">
-        <v>111718.91</v>
+        <v>111167.21</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B352" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="C352">
-        <v>110954.17</v>
+        <v>110963.47000000003</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
+        <v>585</v>
+      </c>
+      <c r="B353" t="s">
         <v>586</v>
       </c>
-      <c r="B353" t="s">
-        <v>317</v>
-      </c>
       <c r="C353">
-        <v>110748.77999999998</v>
+        <v>108881.73999999999</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6678,7 +6680,7 @@
         <v>588</v>
       </c>
       <c r="C354">
-        <v>108930.81</v>
+        <v>108687.57</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6689,7 +6691,7 @@
         <v>590</v>
       </c>
       <c r="C355">
-        <v>108640.98000000001</v>
+        <v>108181.38</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6700,7 +6702,7 @@
         <v>592</v>
       </c>
       <c r="C356">
-        <v>108064.6</v>
+        <v>107738.98000000001</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6708,87 +6710,87 @@
         <v>593</v>
       </c>
       <c r="B357" t="s">
-        <v>594</v>
+        <v>90</v>
       </c>
       <c r="C357">
-        <v>107697.45999999999</v>
+        <v>107490.39000000001</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B358" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="C358">
-        <v>107283.06999999999</v>
+        <v>107274.13</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B359" t="s">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="C359">
-        <v>107227.67</v>
+        <v>106852.25</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B360" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C360">
-        <v>106794.95000000001</v>
+        <v>102856.86000000002</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B361" t="s">
         <v>111</v>
       </c>
       <c r="C361">
-        <v>102802.79</v>
+        <v>102848.34999999999</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B362" t="s">
-        <v>454</v>
+        <v>90</v>
       </c>
       <c r="C362">
-        <v>102656.94</v>
+        <v>101611.01000000001</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B363" t="s">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="C363">
-        <v>101550.34</v>
+        <v>101435.41</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
+        <v>600</v>
+      </c>
+      <c r="B364" t="s">
         <v>601</v>
       </c>
-      <c r="B364" t="s">
-        <v>317</v>
-      </c>
       <c r="C364">
-        <v>101369.39</v>
+        <v>100404.5</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6796,32 +6798,32 @@
         <v>602</v>
       </c>
       <c r="B365" t="s">
-        <v>603</v>
+        <v>253</v>
       </c>
       <c r="C365">
-        <v>100363.21999999999</v>
+        <v>100125.89000000001</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B366" t="s">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="C366">
-        <v>100032.93</v>
+        <v>99511.91</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
+        <v>604</v>
+      </c>
+      <c r="B367" t="s">
         <v>605</v>
       </c>
-      <c r="B367" t="s">
-        <v>64</v>
-      </c>
       <c r="C367">
-        <v>99474.59</v>
+        <v>99375.779999999984</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6832,7 +6834,7 @@
         <v>607</v>
       </c>
       <c r="C368">
-        <v>99320.73</v>
+        <v>98725.489999999991</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6840,32 +6842,32 @@
         <v>608</v>
       </c>
       <c r="B369" t="s">
-        <v>609</v>
+        <v>262</v>
       </c>
       <c r="C369">
-        <v>98713.469999999987</v>
+        <v>96964.87999999999</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
+        <v>609</v>
+      </c>
+      <c r="B370" t="s">
         <v>610</v>
       </c>
-      <c r="B370" t="s">
-        <v>611</v>
-      </c>
       <c r="C370">
-        <v>96776.249999999985</v>
+        <v>96832.739999999991</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
+        <v>611</v>
+      </c>
+      <c r="B371" t="s">
         <v>612</v>
       </c>
-      <c r="B371" t="s">
-        <v>260</v>
-      </c>
       <c r="C371">
-        <v>96560.489999999991</v>
+        <v>93353.329999999987</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6873,98 +6875,98 @@
         <v>613</v>
       </c>
       <c r="B372" t="s">
-        <v>614</v>
+        <v>249</v>
       </c>
       <c r="C372">
-        <v>93230.16</v>
+        <v>92756.12000000001</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B373" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="C373">
-        <v>92274.53</v>
+        <v>91477.14</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B374" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="C374">
-        <v>90966.420000000013</v>
+        <v>89087.81</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B375" t="s">
-        <v>339</v>
+        <v>59</v>
       </c>
       <c r="C375">
-        <v>88990.03</v>
+        <v>89065.579999999987</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B376" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C376">
-        <v>88967.52</v>
+        <v>89023.76999999999</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B377" t="s">
-        <v>51</v>
+        <v>484</v>
       </c>
       <c r="C377">
-        <v>88925.34</v>
+        <v>87718.09</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B378" t="s">
-        <v>484</v>
+        <v>51</v>
       </c>
       <c r="C378">
-        <v>87682.37</v>
+        <v>87282.98000000001</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B379" t="s">
         <v>481</v>
       </c>
       <c r="C379">
-        <v>87211.15</v>
+        <v>87248.19</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
+        <v>621</v>
+      </c>
+      <c r="B380" t="s">
         <v>622</v>
       </c>
-      <c r="B380" t="s">
-        <v>51</v>
-      </c>
       <c r="C380">
-        <v>87050.49</v>
+        <v>86919.800000000017</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6972,32 +6974,32 @@
         <v>623</v>
       </c>
       <c r="B381" t="s">
-        <v>624</v>
+        <v>59</v>
       </c>
       <c r="C381">
-        <v>86702.949999999983</v>
+        <v>86595.880000000019</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B382" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C382">
-        <v>86502.34</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
+        <v>625</v>
+      </c>
+      <c r="B383" t="s">
         <v>626</v>
       </c>
-      <c r="B383" t="s">
-        <v>102</v>
-      </c>
       <c r="C383">
-        <v>85000</v>
+        <v>82336.899999999994</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7005,32 +7007,32 @@
         <v>627</v>
       </c>
       <c r="B384" t="s">
-        <v>628</v>
+        <v>201</v>
       </c>
       <c r="C384">
-        <v>81876.87000000001</v>
+        <v>81492.290000000008</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B385" t="s">
-        <v>198</v>
+        <v>558</v>
       </c>
       <c r="C385">
-        <v>81482.089999999982</v>
+        <v>81489.48000000001</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
+        <v>629</v>
+      </c>
+      <c r="B386" t="s">
         <v>630</v>
       </c>
-      <c r="B386" t="s">
-        <v>559</v>
-      </c>
       <c r="C386">
-        <v>81457.430000000008</v>
+        <v>81485.150000000009</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7038,219 +7040,219 @@
         <v>631</v>
       </c>
       <c r="B387" t="s">
-        <v>632</v>
+        <v>211</v>
       </c>
       <c r="C387">
-        <v>81437.499999999985</v>
+        <v>81182.850000000006</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B388" t="s">
-        <v>208</v>
+        <v>439</v>
       </c>
       <c r="C388">
-        <v>81158.219999999987</v>
+        <v>80057.69</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
+        <v>633</v>
+      </c>
+      <c r="B389" t="s">
         <v>634</v>
       </c>
-      <c r="B389" t="s">
-        <v>635</v>
-      </c>
       <c r="C389">
-        <v>79267.150000000009</v>
+        <v>79300.2</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
+        <v>635</v>
+      </c>
+      <c r="B390" t="s">
         <v>636</v>
       </c>
-      <c r="B390" t="s">
-        <v>637</v>
-      </c>
       <c r="C390">
-        <v>77868.180000000008</v>
+        <v>77513.38</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B391" t="s">
         <v>497</v>
       </c>
       <c r="C391">
-        <v>76537.429999999993</v>
+        <v>76685.42</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B392" t="s">
         <v>191</v>
       </c>
       <c r="C392">
-        <v>76279.37999999999</v>
+        <v>76311.42</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
+        <v>639</v>
+      </c>
+      <c r="B393" t="s">
         <v>640</v>
       </c>
-      <c r="B393" t="s">
-        <v>641</v>
-      </c>
       <c r="C393">
-        <v>73375.69</v>
+        <v>73582.280000000013</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B394" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C394">
-        <v>73237.84</v>
+        <v>73269.17</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
+        <v>642</v>
+      </c>
+      <c r="B395" t="s">
         <v>643</v>
       </c>
-      <c r="B395" t="s">
-        <v>644</v>
-      </c>
       <c r="C395">
-        <v>72817.320000000007</v>
+        <v>72847.459999999992</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B396" t="s">
         <v>33</v>
       </c>
       <c r="C396">
-        <v>72684.47</v>
+        <v>72705.549999999988</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B397" t="s">
         <v>20</v>
       </c>
       <c r="C397">
-        <v>71962.81</v>
+        <v>71992.180000000008</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B398" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C398">
-        <v>68745.08</v>
+        <v>69348.69</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B399" t="s">
-        <v>649</v>
+        <v>64</v>
       </c>
       <c r="C399">
-        <v>68380.78</v>
+        <v>68768.739999999991</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B400" t="s">
-        <v>262</v>
+        <v>649</v>
       </c>
       <c r="C400">
-        <v>67705.710000000006</v>
+        <v>68502.86</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
+        <v>650</v>
+      </c>
+      <c r="B401" t="s">
         <v>651</v>
       </c>
-      <c r="B401" t="s">
-        <v>652</v>
-      </c>
       <c r="C401">
-        <v>67162.039999999994</v>
+        <v>68343.759999999995</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B402" t="s">
-        <v>654</v>
+        <v>264</v>
       </c>
       <c r="C402">
-        <v>64575.939999999995</v>
+        <v>67775.120000000024</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B403" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C403">
-        <v>64069.67</v>
+        <v>67193.490000000005</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B404" t="s">
-        <v>330</v>
+        <v>435</v>
       </c>
       <c r="C404">
-        <v>63907.210000000006</v>
+        <v>65548.810000000012</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B405" t="s">
-        <v>28</v>
+        <v>657</v>
       </c>
       <c r="C405">
-        <v>63799.91</v>
+        <v>64604.13</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
+        <v>658</v>
+      </c>
+      <c r="B406" t="s">
         <v>659</v>
       </c>
-      <c r="B406" t="s">
-        <v>191</v>
-      </c>
       <c r="C406">
-        <v>62609.099999999991</v>
+        <v>64095.969999999994</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7258,65 +7260,65 @@
         <v>660</v>
       </c>
       <c r="B407" t="s">
-        <v>661</v>
+        <v>330</v>
       </c>
       <c r="C407">
-        <v>62073.31</v>
+        <v>63921.13</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B408" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="C408">
-        <v>61751.829999999994</v>
+        <v>63811.130000000005</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B409" t="s">
-        <v>664</v>
+        <v>191</v>
       </c>
       <c r="C409">
-        <v>61732.3</v>
+        <v>62978.779999999992</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B410" t="s">
-        <v>435</v>
+        <v>664</v>
       </c>
       <c r="C410">
-        <v>61583.77</v>
+        <v>62125.270000000004</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B411" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="C411">
-        <v>59127.579999999994</v>
+        <v>61776.4</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
+        <v>666</v>
+      </c>
+      <c r="B412" t="s">
         <v>667</v>
       </c>
-      <c r="B412" t="s">
-        <v>59</v>
-      </c>
       <c r="C412">
-        <v>57095.68</v>
+        <v>61759.79</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7324,10 +7326,10 @@
         <v>668</v>
       </c>
       <c r="B413" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C413">
-        <v>57033.86</v>
+        <v>61612.030000000006</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7335,10 +7337,10 @@
         <v>669</v>
       </c>
       <c r="B414" t="s">
-        <v>435</v>
+        <v>116</v>
       </c>
       <c r="C414">
-        <v>56550.200000000004</v>
+        <v>59458.58</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7346,10 +7348,10 @@
         <v>670</v>
       </c>
       <c r="B415" t="s">
-        <v>347</v>
+        <v>59</v>
       </c>
       <c r="C415">
-        <v>55472.09</v>
+        <v>57197.7</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7357,10 +7359,10 @@
         <v>671</v>
       </c>
       <c r="B416" t="s">
-        <v>12</v>
+        <v>423</v>
       </c>
       <c r="C416">
-        <v>54877.770000000004</v>
+        <v>57055.380000000005</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7368,10 +7370,10 @@
         <v>672</v>
       </c>
       <c r="B417" t="s">
-        <v>459</v>
+        <v>347</v>
       </c>
       <c r="C417">
-        <v>54751.86</v>
+        <v>55782.389999999992</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7382,7 +7384,7 @@
         <v>674</v>
       </c>
       <c r="C418">
-        <v>54441.420000000006</v>
+        <v>55325.780000000006</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7390,10 +7392,10 @@
         <v>675</v>
       </c>
       <c r="B419" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="C419">
-        <v>53574.089999999989</v>
+        <v>54902.42</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7401,10 +7403,10 @@
         <v>676</v>
       </c>
       <c r="B420" t="s">
-        <v>140</v>
+        <v>674</v>
       </c>
       <c r="C420">
-        <v>53123.07</v>
+        <v>54463.750000000007</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7412,10 +7414,10 @@
         <v>677</v>
       </c>
       <c r="B421" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
       <c r="C421">
-        <v>53026.739999999991</v>
+        <v>53874.83</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7423,10 +7425,10 @@
         <v>678</v>
       </c>
       <c r="B422" t="s">
-        <v>559</v>
+        <v>53</v>
       </c>
       <c r="C422">
-        <v>52944.32</v>
+        <v>53323.709999999992</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7434,10 +7436,10 @@
         <v>679</v>
       </c>
       <c r="B423" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C423">
-        <v>52597.160000000011</v>
+        <v>53241.22</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7445,43 +7447,43 @@
         <v>680</v>
       </c>
       <c r="B424" t="s">
-        <v>681</v>
+        <v>140</v>
       </c>
       <c r="C424">
-        <v>52582.01</v>
+        <v>53142.299999999996</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B425" t="s">
-        <v>683</v>
+        <v>547</v>
       </c>
       <c r="C425">
-        <v>51856.27</v>
+        <v>52891.68</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B426" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="C426">
-        <v>51504.02</v>
+        <v>52362.869999999995</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
+        <v>684</v>
+      </c>
+      <c r="B427" t="s">
         <v>685</v>
       </c>
-      <c r="B427" t="s">
-        <v>272</v>
-      </c>
       <c r="C427">
-        <v>50815.12000000001</v>
+        <v>51877.14</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7492,7 +7494,7 @@
         <v>79</v>
       </c>
       <c r="C428">
-        <v>50728.13</v>
+        <v>51164.639999999999</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7500,10 +7502,10 @@
         <v>687</v>
       </c>
       <c r="B429" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="C429">
-        <v>49796.039999999986</v>
+        <v>51006.45</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7511,10 +7513,10 @@
         <v>688</v>
       </c>
       <c r="B430" t="s">
-        <v>467</v>
+        <v>356</v>
       </c>
       <c r="C430">
-        <v>49309.399999999994</v>
+        <v>50048.37999999999</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7522,21 +7524,21 @@
         <v>689</v>
       </c>
       <c r="B431" t="s">
-        <v>690</v>
+        <v>467</v>
       </c>
       <c r="C431">
-        <v>49249.52</v>
+        <v>49609.100000000006</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
+        <v>690</v>
+      </c>
+      <c r="B432" t="s">
         <v>691</v>
       </c>
-      <c r="B432" t="s">
-        <v>539</v>
-      </c>
       <c r="C432">
-        <v>48283.770000000004</v>
+        <v>49271.200000000004</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7544,10 +7546,10 @@
         <v>692</v>
       </c>
       <c r="B433" t="s">
-        <v>237</v>
+        <v>539</v>
       </c>
       <c r="C433">
-        <v>46472.6</v>
+        <v>48371.87000000001</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7555,21 +7557,21 @@
         <v>693</v>
       </c>
       <c r="B434" t="s">
-        <v>694</v>
+        <v>239</v>
       </c>
       <c r="C434">
-        <v>45331.66</v>
+        <v>46607.869999999995</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
+        <v>694</v>
+      </c>
+      <c r="B435" t="s">
         <v>695</v>
       </c>
-      <c r="B435" t="s">
-        <v>208</v>
-      </c>
       <c r="C435">
-        <v>44692.61</v>
+        <v>45349.69</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7577,10 +7579,10 @@
         <v>696</v>
       </c>
       <c r="B436" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="C436">
-        <v>42741.11</v>
+        <v>44700.619999999995</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7588,32 +7590,32 @@
         <v>697</v>
       </c>
       <c r="B437" t="s">
-        <v>698</v>
+        <v>79</v>
       </c>
       <c r="C437">
-        <v>41910.840000000011</v>
+        <v>42822.79</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
+        <v>698</v>
+      </c>
+      <c r="B438" t="s">
         <v>699</v>
       </c>
-      <c r="B438" t="s">
-        <v>700</v>
-      </c>
       <c r="C438">
-        <v>41649.919999999998</v>
+        <v>41929.189999999995</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
+        <v>700</v>
+      </c>
+      <c r="B439" t="s">
         <v>701</v>
       </c>
-      <c r="B439" t="s">
-        <v>132</v>
-      </c>
       <c r="C439">
-        <v>40835.619999999995</v>
+        <v>41726.539999999994</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7621,10 +7623,10 @@
         <v>702</v>
       </c>
       <c r="B440" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="C440">
-        <v>40223.490000000005</v>
+        <v>40854.06</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7632,21 +7634,21 @@
         <v>703</v>
       </c>
       <c r="B441" t="s">
-        <v>704</v>
+        <v>61</v>
       </c>
       <c r="C441">
-        <v>39405.199999999997</v>
+        <v>40240.22</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
+        <v>704</v>
+      </c>
+      <c r="B442" t="s">
         <v>705</v>
       </c>
-      <c r="B442" t="s">
-        <v>51</v>
-      </c>
       <c r="C442">
-        <v>36525.290000000008</v>
+        <v>39421.919999999998</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7654,21 +7656,21 @@
         <v>706</v>
       </c>
       <c r="B443" t="s">
-        <v>707</v>
+        <v>51</v>
       </c>
       <c r="C443">
-        <v>36157.93</v>
+        <v>36731.72</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
+        <v>707</v>
+      </c>
+      <c r="B444" t="s">
         <v>708</v>
       </c>
-      <c r="B444" t="s">
-        <v>59</v>
-      </c>
       <c r="C444">
-        <v>36073.770000000004</v>
+        <v>36173.209999999992</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7679,7 +7681,7 @@
         <v>406</v>
       </c>
       <c r="C445">
-        <v>34585.019999999997</v>
+        <v>34910.61</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7687,10 +7689,10 @@
         <v>710</v>
       </c>
       <c r="B446" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C446">
-        <v>34527.170000000006</v>
+        <v>34542.49</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7701,7 +7703,7 @@
         <v>712</v>
       </c>
       <c r="C447">
-        <v>34247.599999999999</v>
+        <v>34260.769999999997</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7712,7 +7714,7 @@
         <v>714</v>
       </c>
       <c r="C448">
-        <v>33960.089999999997</v>
+        <v>33964.119999999995</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7723,7 +7725,7 @@
         <v>716</v>
       </c>
       <c r="C449">
-        <v>33153.659999999996</v>
+        <v>33182</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7731,10 +7733,10 @@
         <v>717</v>
       </c>
       <c r="B450" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C450">
-        <v>33053.07</v>
+        <v>33066.51</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7745,7 +7747,7 @@
         <v>39</v>
       </c>
       <c r="C451">
-        <v>31555.190000000002</v>
+        <v>31569.23</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7756,7 +7758,7 @@
         <v>497</v>
       </c>
       <c r="C452">
-        <v>30508.5</v>
+        <v>30521.550000000003</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7767,7 +7769,7 @@
         <v>481</v>
       </c>
       <c r="C453">
-        <v>29656.06</v>
+        <v>29831.66</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7775,10 +7777,10 @@
         <v>721</v>
       </c>
       <c r="B454" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C454">
-        <v>28803.430000000004</v>
+        <v>28815.32</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7789,7 +7791,7 @@
         <v>723</v>
       </c>
       <c r="C455">
-        <v>28381.26</v>
+        <v>28394.149999999998</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7800,7 +7802,7 @@
         <v>193</v>
       </c>
       <c r="C456">
-        <v>25902.9</v>
+        <v>25913.440000000002</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7811,7 +7813,7 @@
         <v>726</v>
       </c>
       <c r="C457">
-        <v>24614.5</v>
+        <v>24659.88</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7822,7 +7824,7 @@
         <v>728</v>
       </c>
       <c r="C458">
-        <v>23103.41</v>
+        <v>23111.97</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7833,7 +7835,7 @@
         <v>730</v>
       </c>
       <c r="C459">
-        <v>21217.660000000003</v>
+        <v>22227.51</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7844,7 +7846,7 @@
         <v>193</v>
       </c>
       <c r="C460">
-        <v>20855.89</v>
+        <v>20864.22</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7855,7 +7857,7 @@
         <v>64</v>
       </c>
       <c r="C461">
-        <v>20114.86</v>
+        <v>20122.89</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7866,7 +7868,7 @@
         <v>734</v>
       </c>
       <c r="C462">
-        <v>20035.62</v>
+        <v>20044.55</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7877,7 +7879,7 @@
         <v>339</v>
       </c>
       <c r="C463">
-        <v>17720.509999999998</v>
+        <v>17847.260000000002</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7888,7 +7890,7 @@
         <v>737</v>
       </c>
       <c r="C464">
-        <v>16720.54</v>
+        <v>16377.420000000002</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7896,10 +7898,10 @@
         <v>738</v>
       </c>
       <c r="B465" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C465">
-        <v>16099.22</v>
+        <v>16106.43</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7910,7 +7912,7 @@
         <v>420</v>
       </c>
       <c r="C466">
-        <v>14443.08</v>
+        <v>14453.66</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7921,7 +7923,7 @@
         <v>741</v>
       </c>
       <c r="C467">
-        <v>14007.630000000001</v>
+        <v>14013.85</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7932,7 +7934,7 @@
         <v>743</v>
       </c>
       <c r="C468">
-        <v>13848.14</v>
+        <v>13854.269999999999</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7943,7 +7945,7 @@
         <v>339</v>
       </c>
       <c r="C469">
-        <v>12847.51</v>
+        <v>12853.27</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7954,7 +7956,7 @@
         <v>6</v>
       </c>
       <c r="C470">
-        <v>11852.720000000001</v>
+        <v>11907</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7965,7 +7967,7 @@
         <v>747</v>
       </c>
       <c r="C471">
-        <v>11223.4</v>
+        <v>11228.3</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7973,10 +7975,10 @@
         <v>748</v>
       </c>
       <c r="B472" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="C472">
-        <v>10543.439999999999</v>
+        <v>10701.64</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7984,21 +7986,21 @@
         <v>749</v>
       </c>
       <c r="B473" t="s">
-        <v>750</v>
+        <v>12</v>
       </c>
       <c r="C473">
-        <v>10440.32</v>
+        <v>10547.220000000001</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
+        <v>750</v>
+      </c>
+      <c r="B474" t="s">
         <v>751</v>
       </c>
-      <c r="B474" t="s">
-        <v>418</v>
-      </c>
       <c r="C474">
-        <v>10050.540000000001</v>
+        <v>10444.92</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8006,10 +8008,10 @@
         <v>752</v>
       </c>
       <c r="B475" t="s">
-        <v>8</v>
+        <v>418</v>
       </c>
       <c r="C475">
-        <v>9901.99</v>
+        <v>10054.540000000001</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8017,10 +8019,10 @@
         <v>753</v>
       </c>
       <c r="B476" t="s">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="C476">
-        <v>9695.48</v>
+        <v>9906.36</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8028,21 +8030,21 @@
         <v>754</v>
       </c>
       <c r="B477" t="s">
-        <v>193</v>
+        <v>755</v>
       </c>
       <c r="C477">
-        <v>8812.75</v>
+        <v>9177.01</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B478" t="s">
-        <v>756</v>
+        <v>193</v>
       </c>
       <c r="C478">
-        <v>8703.2999999999993</v>
+        <v>8816.3399999999983</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8053,7 +8055,7 @@
         <v>758</v>
       </c>
       <c r="C479">
-        <v>6750.55</v>
+        <v>6753.33</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8064,7 +8066,7 @@
         <v>191</v>
       </c>
       <c r="C480">
-        <v>5585.3799999999992</v>
+        <v>5614.2699999999995</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8072,10 +8074,10 @@
         <v>760</v>
       </c>
       <c r="B481" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C481">
-        <v>2746.1099999999997</v>
+        <v>2747.19</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8086,7 +8088,7 @@
         <v>762</v>
       </c>
       <c r="C482">
-        <v>2284.02</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8094,21 +8096,21 @@
         <v>763</v>
       </c>
       <c r="B483" t="s">
-        <v>31</v>
+        <v>764</v>
       </c>
       <c r="C483">
-        <v>1421.55</v>
+        <v>2284.9700000000003</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B484" t="s">
-        <v>765</v>
+        <v>31</v>
       </c>
       <c r="C484">
-        <v>1200</v>
+        <v>1422.1299999999999</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8119,7 +8121,7 @@
         <v>767</v>
       </c>
       <c r="C485">
-        <v>1094.24</v>
+        <v>1094.73</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8127,10 +8129,10 @@
         <v>768</v>
       </c>
       <c r="B486" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C486">
-        <v>1079.73</v>
+        <v>1080.21</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8141,7 +8143,7 @@
         <v>770</v>
       </c>
       <c r="C487">
-        <v>1008.22</v>
+        <v>1008.66</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8149,10 +8151,10 @@
         <v>771</v>
       </c>
       <c r="B488" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C488">
-        <v>741.02</v>
+        <v>741.30000000000007</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8163,7 +8165,7 @@
         <v>20</v>
       </c>
       <c r="C489">
-        <v>483.75</v>
+        <v>485.01</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8204,7 +8206,7 @@
         <v>777</v>
       </c>
       <c r="B493" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C493">
         <v>86.38</v>
@@ -8226,7 +8228,7 @@
         <v>779</v>
       </c>
       <c r="B495" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C495">
         <v>50</v>
@@ -8314,7 +8316,7 @@
         <v>792</v>
       </c>
       <c r="B503" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C503">
         <v>5.55</v>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35526254-C476-4F8C-AA26-C9208404C764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8851625-BA46-488A-9809-2BCD5C2797DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="801">
   <si>
     <t>CONTA</t>
   </si>
@@ -97,18 +97,18 @@
     <t>BENEDITO</t>
   </si>
   <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
     <t>004279859</t>
   </si>
   <si>
     <t>ASSOCIACAO</t>
   </si>
   <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
     <t>004212476</t>
   </si>
   <si>
@@ -229,27 +229,27 @@
     <t>JULIANA</t>
   </si>
   <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
     <t>004813166</t>
   </si>
   <si>
     <t>VENIA</t>
   </si>
   <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
     <t>004334062</t>
   </si>
   <si>
@@ -301,18 +301,18 @@
     <t>SILVIO</t>
   </si>
   <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
     <t>004359408</t>
   </si>
   <si>
     <t>HEPTA</t>
   </si>
   <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
     <t>004363250</t>
   </si>
   <si>
@@ -478,18 +478,18 @@
     <t>JOAQUIM</t>
   </si>
   <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
     <t>004855073</t>
   </si>
   <si>
     <t>ELSI</t>
   </si>
   <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
     <t>004853901</t>
   </si>
   <si>
@@ -565,15 +565,15 @@
     <t>JOVINO</t>
   </si>
   <si>
+    <t>004363260</t>
+  </si>
+  <si>
     <t>004332207</t>
   </si>
   <si>
     <t>IRACY</t>
   </si>
   <si>
-    <t>004363260</t>
-  </si>
-  <si>
     <t>004453157</t>
   </si>
   <si>
@@ -586,6 +586,12 @@
     <t>HENRIQUE</t>
   </si>
   <si>
+    <t>004482102</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
     <t>004586209</t>
   </si>
   <si>
@@ -691,19 +697,19 @@
     <t>BLOCO</t>
   </si>
   <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
     <t>004515341</t>
   </si>
   <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004482102</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
   </si>
   <si>
     <t>005002457</t>
@@ -724,12 +730,6 @@
     <t>IVONE</t>
   </si>
   <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
     <t>004458624</t>
   </si>
   <si>
@@ -1189,15 +1189,15 @@
     <t>004803348</t>
   </si>
   <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
     <t>004368994</t>
   </si>
   <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
     <t>005061124</t>
   </si>
   <si>
@@ -1246,15 +1246,15 @@
     <t>004584517</t>
   </si>
   <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
     <t>004872395</t>
   </si>
   <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
     <t>001000882</t>
   </si>
   <si>
@@ -1285,9 +1285,6 @@
     <t>MARINA</t>
   </si>
   <si>
-    <t>005142592</t>
-  </si>
-  <si>
     <t>004520100</t>
   </si>
   <si>
@@ -1414,6 +1411,9 @@
     <t>004386464</t>
   </si>
   <si>
+    <t>004466221</t>
+  </si>
+  <si>
     <t>004207658</t>
   </si>
   <si>
@@ -1432,9 +1432,6 @@
     <t>VINICIUS</t>
   </si>
   <si>
-    <t>004466221</t>
-  </si>
-  <si>
     <t>004216657</t>
   </si>
   <si>
@@ -1468,18 +1465,18 @@
     <t>LUCIANA</t>
   </si>
   <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
     <t>005105970</t>
   </si>
   <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
     <t>004971783</t>
   </si>
   <si>
@@ -1504,12 +1501,12 @@
     <t>CAROLLINA</t>
   </si>
   <si>
+    <t>004273239</t>
+  </si>
+  <si>
     <t>004360431</t>
   </si>
   <si>
-    <t>004273239</t>
-  </si>
-  <si>
     <t>004472538</t>
   </si>
   <si>
@@ -1531,15 +1528,15 @@
     <t>004289402</t>
   </si>
   <si>
+    <t>005046790</t>
+  </si>
+  <si>
     <t>004481463</t>
   </si>
   <si>
     <t>MARA</t>
   </si>
   <si>
-    <t>005046790</t>
-  </si>
-  <si>
     <t>004570632</t>
   </si>
   <si>
@@ -1660,15 +1657,15 @@
     <t>LEONE</t>
   </si>
   <si>
+    <t>004936634</t>
+  </si>
+  <si>
     <t>004419782</t>
   </si>
   <si>
     <t>NADY</t>
   </si>
   <si>
-    <t>004936634</t>
-  </si>
-  <si>
     <t>004479965</t>
   </si>
   <si>
@@ -1816,6 +1813,9 @@
     <t>005000656</t>
   </si>
   <si>
+    <t>004643153</t>
+  </si>
+  <si>
     <t>005040864</t>
   </si>
   <si>
@@ -1828,7 +1828,7 @@
     <t>MURYLO</t>
   </si>
   <si>
-    <t>004643153</t>
+    <t>005173958</t>
   </si>
   <si>
     <t>004444164</t>
@@ -1903,18 +1903,18 @@
     <t>MAURO</t>
   </si>
   <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
     <t>003894173</t>
   </si>
   <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
     <t>004877741</t>
   </si>
   <si>
@@ -2203,18 +2203,18 @@
     <t>LAURA</t>
   </si>
   <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
     <t>004274441</t>
   </si>
   <si>
     <t>VICTORIA</t>
   </si>
   <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
     <t>005047946</t>
   </si>
   <si>
@@ -2269,133 +2269,139 @@
     <t>004477812</t>
   </si>
   <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>005122672</t>
+  </si>
+  <si>
+    <t>004192775</t>
+  </si>
+  <si>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>001368670</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>004371857</t>
+  </si>
+  <si>
+    <t>NAZARETH</t>
+  </si>
+  <si>
+    <t>004321092</t>
+  </si>
+  <si>
+    <t>005075382</t>
+  </si>
+  <si>
+    <t>NAYARA</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>004204255</t>
+  </si>
+  <si>
+    <t>AMADO</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
     <t>004450405</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>005122672</t>
-  </si>
-  <si>
-    <t>004192775</t>
-  </si>
-  <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>001368670</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>004371857</t>
-  </si>
-  <si>
-    <t>NAZARETH</t>
-  </si>
-  <si>
-    <t>004321092</t>
-  </si>
-  <si>
-    <t>005075382</t>
-  </si>
-  <si>
-    <t>NAYARA</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>004204255</t>
-  </si>
-  <si>
-    <t>AMADO</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
   </si>
   <si>
     <t>004448501</t>
@@ -2781,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C508"/>
+  <dimension ref="A1:C509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2808,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16341462.82</v>
+        <v>16349313.07</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2819,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8160088.8099999968</v>
+        <v>8162700.29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +2836,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7186109.8600000013</v>
+        <v>7205002.5799999982</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2841,7 +2847,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6171094.5499999998</v>
+        <v>6172615.8300000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2852,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5653061.6099999994</v>
+        <v>5669263.2800000003</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2863,7 +2869,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4648271.93</v>
+        <v>4644956.9099999992</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2874,7 +2880,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4349820.0399999991</v>
+        <v>4352073.7799999993</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2885,7 +2891,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4210109.0999999996</v>
+        <v>4210113.0999999996</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2896,7 +2902,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4181541.46</v>
+        <v>4182867.350000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2907,7 +2913,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>3931320.5199999996</v>
+        <v>3931321.05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2918,7 +2924,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3708173.600000001</v>
+        <v>3709403.6899999995</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2929,7 +2935,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3549226.5100000002</v>
+        <v>3615304.36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2940,7 +2946,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3513629.1</v>
+        <v>3551358.1399999997</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2951,7 +2957,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3405019.8799999994</v>
+        <v>3406623.3599999994</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2962,7 +2968,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>3277830.6300000004</v>
+        <v>3278790.6600000006</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2973,7 +2979,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3232648.23</v>
+        <v>3233627.25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2984,7 +2990,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3161669.6700000009</v>
+        <v>3163252.7899999996</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2995,7 +3001,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3073587.04</v>
+        <v>3074965.45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3006,7 +3012,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3006317.5299999989</v>
+        <v>3006127.24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3017,7 +3023,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2926818.100000001</v>
+        <v>2928119.88</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3028,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2785845.4700000007</v>
+        <v>2786994.18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3039,7 +3045,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2781555.1599999992</v>
+        <v>2782591.4600000004</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3050,7 +3056,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2717510.4299999997</v>
+        <v>2718674.09</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3061,7 +3067,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2523526.6599999997</v>
+        <v>2524677.4300000002</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3072,7 +3078,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2487538.7400000002</v>
+        <v>2488458.2900000005</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3083,7 +3089,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2413677.23</v>
+        <v>2411136.13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3094,7 +3100,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2192441.31</v>
+        <v>2193318.0299999998</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3105,7 +3111,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2190174.7599999998</v>
+        <v>2191128.91</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3116,7 +3122,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2105712.13</v>
+        <v>2106445.5500000003</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3127,7 +3133,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2040238.35</v>
+        <v>2040453.7599999998</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3138,7 +3144,7 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>2031570.78</v>
+        <v>2032515.3599999999</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3149,7 +3155,7 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>2012461.72</v>
+        <v>2013359.5699999998</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3160,7 +3166,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1989959.2300000004</v>
+        <v>1988455.3900000001</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3171,7 +3177,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1939309.15</v>
+        <v>1940465.9199999997</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3179,21 +3185,21 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>1897105.7400000002</v>
+        <v>1864603.8000000003</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
       <c r="C37">
-        <v>1863698.8599999999</v>
+        <v>1859168.14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3204,7 +3210,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1858432.7699999998</v>
+        <v>1806566.4700000002</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3215,7 +3221,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1812455.68</v>
+        <v>1797894.73</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3226,7 +3232,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1756212.0800000008</v>
+        <v>1757048.8400000003</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3237,7 +3243,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1596396.0499999998</v>
+        <v>1596733.26</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3248,7 +3254,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1572659.21</v>
+        <v>1572665.87</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3259,7 +3265,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1508479.7</v>
+        <v>1509298.5899999999</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3270,7 +3276,7 @@
         <v>77</v>
       </c>
       <c r="C44">
-        <v>1468051.9399999997</v>
+        <v>1468710.6199999999</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3281,7 +3287,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>1444307.4100000001</v>
+        <v>1444817.76</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3292,7 +3298,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1388066.53</v>
+        <v>1392296.63</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3303,7 +3309,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1378268.5299999998</v>
+        <v>1378862.73</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3314,7 +3320,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1374811.18</v>
+        <v>1375463.35</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3325,7 +3331,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1355002.29</v>
+        <v>1355870.9300000002</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3336,7 +3342,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1354807.4999999998</v>
+        <v>1355618.9</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3347,7 +3353,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1333878.69</v>
+        <v>1334508.97</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3358,7 +3364,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1323010.0999999996</v>
+        <v>1323810.1300000001</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3369,7 +3375,7 @@
         <v>102</v>
       </c>
       <c r="C53">
-        <v>1276971.6699999997</v>
+        <v>1277472.3400000003</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3380,7 +3386,7 @@
         <v>86</v>
       </c>
       <c r="C54">
-        <v>1276078.5199999996</v>
+        <v>1275909.8800000001</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3391,7 +3397,7 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <v>1272899.4399999997</v>
+        <v>1273511.1299999997</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3402,7 +3408,7 @@
         <v>106</v>
       </c>
       <c r="C56">
-        <v>1258827.8399999996</v>
+        <v>1259438.1400000001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3424,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="C58">
-        <v>1234698.8399999999</v>
+        <v>1235509.3099999998</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3435,7 +3441,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1224264.3700000001</v>
+        <v>1224790.3399999999</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3446,7 +3452,7 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>1192592.97</v>
+        <v>1192396.46</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3457,7 +3463,7 @@
         <v>33</v>
       </c>
       <c r="C61">
-        <v>1178117.45</v>
+        <v>1178620.4999999998</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3468,7 +3474,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1172480.46</v>
+        <v>1173024.6099999999</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3479,7 +3485,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1148930.7200000002</v>
+        <v>1149464.1800000002</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3490,7 +3496,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1121048.9600000002</v>
+        <v>1121782.0699999998</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3501,7 +3507,7 @@
         <v>59</v>
       </c>
       <c r="C65">
-        <v>1098269.79</v>
+        <v>1098806.69</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3512,7 +3518,7 @@
         <v>123</v>
       </c>
       <c r="C66">
-        <v>1096548.2700000003</v>
+        <v>1096955.2799999998</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3523,7 +3529,7 @@
         <v>41</v>
       </c>
       <c r="C67">
-        <v>1081108.6300000001</v>
+        <v>1081546.6400000001</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3534,7 +3540,7 @@
         <v>126</v>
       </c>
       <c r="C68">
-        <v>1047543.9200000002</v>
+        <v>1048274.66</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3545,7 +3551,7 @@
         <v>128</v>
       </c>
       <c r="C69">
-        <v>1045977.6099999999</v>
+        <v>1046426.43</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3556,7 +3562,7 @@
         <v>130</v>
       </c>
       <c r="C70">
-        <v>1043395.9199999999</v>
+        <v>1043869.0800000001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3567,7 +3573,7 @@
         <v>132</v>
       </c>
       <c r="C71">
-        <v>1039195.6899999998</v>
+        <v>1039645.22</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3578,7 +3584,7 @@
         <v>79</v>
       </c>
       <c r="C72">
-        <v>1031558.75</v>
+        <v>1032004.74</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3589,7 +3595,7 @@
         <v>135</v>
       </c>
       <c r="C73">
-        <v>1030984.2999999998</v>
+        <v>1031499.6900000002</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3600,7 +3606,7 @@
         <v>137</v>
       </c>
       <c r="C74">
-        <v>1026952.98</v>
+        <v>1027400.3900000001</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3611,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>1012067.6900000001</v>
+        <v>1012554.76</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3622,7 +3628,7 @@
         <v>140</v>
       </c>
       <c r="C76">
-        <v>985664.29999999993</v>
+        <v>986123.12999999989</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3633,7 +3639,7 @@
         <v>142</v>
       </c>
       <c r="C77">
-        <v>964624.00000000012</v>
+        <v>964859.96999999986</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3644,7 +3650,7 @@
         <v>144</v>
       </c>
       <c r="C78">
-        <v>964135.62999999989</v>
+        <v>964366.24</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3655,7 +3661,7 @@
         <v>146</v>
       </c>
       <c r="C79">
-        <v>957821.33000000031</v>
+        <v>958282.54000000015</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3666,7 +3672,7 @@
         <v>39</v>
       </c>
       <c r="C80">
-        <v>942622.27</v>
+        <v>943070.15</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3677,7 +3683,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>921305.9500000003</v>
+        <v>921595.95000000019</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3688,7 +3694,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>905106.51</v>
+        <v>905604.88</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3699,7 +3705,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>891383.34</v>
+        <v>891766.39</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3710,7 +3716,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>891361.84</v>
+        <v>891627.11</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3721,7 +3727,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>882130.41</v>
+        <v>882564.02</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3732,7 +3738,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>865416.10999999987</v>
+        <v>865783.47</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3743,7 +3749,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>864568.34</v>
+        <v>865552.84</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3754,7 +3760,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>853919.5499999997</v>
+        <v>854292.91999999993</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3765,7 +3771,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>837319.08000000007</v>
+        <v>837709.48</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3776,7 +3782,7 @@
         <v>6</v>
       </c>
       <c r="C90">
-        <v>831783.89000000013</v>
+        <v>832175.10999999975</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3787,7 +3793,7 @@
         <v>33</v>
       </c>
       <c r="C91">
-        <v>819637.03</v>
+        <v>819889.47</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3798,7 +3804,7 @@
         <v>169</v>
       </c>
       <c r="C92">
-        <v>816382.80999999994</v>
+        <v>816737.99</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3806,10 +3812,10 @@
         <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C93">
-        <v>809562.13</v>
+        <v>810275.25</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3820,7 +3826,7 @@
         <v>172</v>
       </c>
       <c r="C94">
-        <v>798465.6100000001</v>
+        <v>798805.36999999988</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3831,7 +3837,7 @@
         <v>174</v>
       </c>
       <c r="C95">
-        <v>798289.73</v>
+        <v>798660.77</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3842,7 +3848,7 @@
         <v>64</v>
       </c>
       <c r="C96">
-        <v>790298.2100000002</v>
+        <v>790546.61</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3853,7 +3859,7 @@
         <v>33</v>
       </c>
       <c r="C97">
-        <v>783859.95</v>
+        <v>784524.99999999988</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3864,7 +3870,7 @@
         <v>178</v>
       </c>
       <c r="C98">
-        <v>781169.31</v>
+        <v>781544.99999999988</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3875,7 +3881,7 @@
         <v>180</v>
       </c>
       <c r="C99">
-        <v>757231.47000000009</v>
+        <v>757563.9800000001</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3883,21 +3889,21 @@
         <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="C100">
-        <v>753005.65999999992</v>
+        <v>753463.28999999992</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" t="s">
         <v>183</v>
       </c>
-      <c r="B101" t="s">
-        <v>116</v>
-      </c>
       <c r="C101">
-        <v>748118.85</v>
+        <v>753337.34</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3908,7 +3914,7 @@
         <v>33</v>
       </c>
       <c r="C102">
-        <v>727199.77</v>
+        <v>727550.08000000007</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3919,7 +3925,7 @@
         <v>61</v>
       </c>
       <c r="C103">
-        <v>719829.47000000009</v>
+        <v>720153.76</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3930,7 +3936,7 @@
         <v>187</v>
       </c>
       <c r="C104">
-        <v>716657.79</v>
+        <v>716965.75</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3941,7 +3947,7 @@
         <v>189</v>
       </c>
       <c r="C105">
-        <v>705184.91999999993</v>
+        <v>707257.62000000011</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3952,7 +3958,7 @@
         <v>191</v>
       </c>
       <c r="C106">
-        <v>703178.69000000018</v>
+        <v>705427.89999999991</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3963,7 +3969,7 @@
         <v>193</v>
       </c>
       <c r="C107">
-        <v>702000</v>
+        <v>703517.35999999987</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3971,21 +3977,21 @@
         <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="C108">
-        <v>699094.29</v>
+        <v>702002.4</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="C109">
-        <v>696380.84</v>
+        <v>699417.27</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3996,7 +4002,7 @@
         <v>198</v>
       </c>
       <c r="C110">
-        <v>683802.68000000028</v>
+        <v>696661.15</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4004,21 +4010,21 @@
         <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="C111">
-        <v>681163.22000000009</v>
+        <v>684090.62000000023</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C112">
-        <v>679747.74</v>
+        <v>681665.50999999989</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4029,7 +4035,7 @@
         <v>203</v>
       </c>
       <c r="C113">
-        <v>677221.5</v>
+        <v>680579.12</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4037,21 +4043,21 @@
         <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="C114">
-        <v>672889.68</v>
+        <v>677541.64</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="C115">
-        <v>666764.77</v>
+        <v>673256.59</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4059,43 +4065,43 @@
         <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="C116">
-        <v>665244.62999999989</v>
+        <v>667269.54</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C117">
-        <v>649632.32000000007</v>
+        <v>665434.05999999994</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C118">
-        <v>648285.87999999989</v>
+        <v>649491.24000000011</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C119">
-        <v>647531.89999999991</v>
+        <v>648619.03999999992</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4103,21 +4109,21 @@
         <v>212</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="C120">
-        <v>637851.76</v>
+        <v>647798.21</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="C121">
-        <v>637796.31000000006</v>
+        <v>639202.65000000014</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4125,21 +4131,21 @@
         <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C122">
-        <v>632907.40999999992</v>
+        <v>638070.25999999989</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C123">
-        <v>626614.62</v>
+        <v>633356.19999999995</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4147,21 +4153,21 @@
         <v>218</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="C124">
-        <v>624106.35</v>
+        <v>626889.92999999993</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="C125">
-        <v>619225.39</v>
+        <v>624400.02</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4172,7 +4178,7 @@
         <v>222</v>
       </c>
       <c r="C126">
-        <v>617242.19000000006</v>
+        <v>618831.99</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4180,32 +4186,32 @@
         <v>223</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="C127">
-        <v>609525.08000000007</v>
+        <v>617549.66</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C128">
-        <v>607570.25000000012</v>
+        <v>617458.25</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="C129">
-        <v>594758.27000000025</v>
+        <v>609780.61</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4216,7 +4222,7 @@
         <v>229</v>
       </c>
       <c r="C130">
-        <v>577576.18999999994</v>
+        <v>579655.34</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4227,7 +4233,7 @@
         <v>231</v>
       </c>
       <c r="C131">
-        <v>574551.86</v>
+        <v>577829.24</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4238,7 +4244,7 @@
         <v>233</v>
       </c>
       <c r="C132">
-        <v>573545.37</v>
+        <v>574812.86</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4249,7 +4255,7 @@
         <v>235</v>
       </c>
       <c r="C133">
-        <v>567284.31999999995</v>
+        <v>573782.57999999996</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4260,7 +4266,7 @@
         <v>39</v>
       </c>
       <c r="C134">
-        <v>566996.41999999993</v>
+        <v>567251.35</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4271,7 +4277,7 @@
         <v>10</v>
       </c>
       <c r="C135">
-        <v>563930.15999999992</v>
+        <v>564176.82999999996</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4282,7 +4288,7 @@
         <v>239</v>
       </c>
       <c r="C136">
-        <v>562542.66</v>
+        <v>563336.57000000007</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4293,7 +4299,7 @@
         <v>241</v>
       </c>
       <c r="C137">
-        <v>555208.00999999978</v>
+        <v>555444.87999999989</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4304,7 +4310,7 @@
         <v>243</v>
       </c>
       <c r="C138">
-        <v>545158.24</v>
+        <v>545407.65999999992</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4315,7 +4321,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>544356.06999999983</v>
+        <v>544714.58000000007</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4326,7 +4332,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>537804.88</v>
+        <v>538036.55999999994</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4337,7 +4343,7 @@
         <v>249</v>
       </c>
       <c r="C141">
-        <v>535276.27</v>
+        <v>535567.34</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4348,7 +4354,7 @@
         <v>251</v>
       </c>
       <c r="C142">
-        <v>531959.05000000005</v>
+        <v>532343.36</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4359,7 +4365,7 @@
         <v>253</v>
       </c>
       <c r="C143">
-        <v>531714.30000000005</v>
+        <v>531724.1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4367,10 +4373,10 @@
         <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C144">
-        <v>527745.58000000007</v>
+        <v>527972.41999999993</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4381,7 +4387,7 @@
         <v>256</v>
       </c>
       <c r="C145">
-        <v>517277.67000000004</v>
+        <v>517852.33</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4392,7 +4398,7 @@
         <v>258</v>
       </c>
       <c r="C146">
-        <v>515386.6</v>
+        <v>515582.14999999991</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4403,7 +4409,7 @@
         <v>260</v>
       </c>
       <c r="C147">
-        <v>514168.85999999993</v>
+        <v>514377.08000000013</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4414,7 +4420,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>511243.45999999996</v>
+        <v>511487.81999999995</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4425,7 +4431,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>510953.28999999992</v>
+        <v>511227.76999999996</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4436,7 +4442,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>505685.2099999999</v>
+        <v>505998.03999999992</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4447,7 +4453,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>499973</v>
+        <v>500194.14999999997</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4458,7 +4464,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>492351.82</v>
+        <v>492485.75000000012</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4469,7 +4475,7 @@
         <v>272</v>
       </c>
       <c r="C153">
-        <v>484625.99000000005</v>
+        <v>484855.53</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4480,7 +4486,7 @@
         <v>274</v>
       </c>
       <c r="C154">
-        <v>483117.5</v>
+        <v>483307.49</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4491,7 +4497,7 @@
         <v>276</v>
       </c>
       <c r="C155">
-        <v>480811.60000000003</v>
+        <v>481035.07999999996</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4502,7 +4508,7 @@
         <v>14</v>
       </c>
       <c r="C156">
-        <v>480378.15000000008</v>
+        <v>480605.86</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4513,7 +4519,7 @@
         <v>41</v>
       </c>
       <c r="C157">
-        <v>477169.99</v>
+        <v>477380.85</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4524,7 +4530,7 @@
         <v>280</v>
       </c>
       <c r="C158">
-        <v>463360.66000000003</v>
+        <v>463574.89999999997</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4535,7 +4541,7 @@
         <v>20</v>
       </c>
       <c r="C159">
-        <v>459179.33</v>
+        <v>460572.93</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4546,7 +4552,7 @@
         <v>283</v>
       </c>
       <c r="C160">
-        <v>457371.26</v>
+        <v>457570.77999999997</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4557,7 +4563,7 @@
         <v>285</v>
       </c>
       <c r="C161">
-        <v>453130.76</v>
+        <v>453333.56</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4568,7 +4574,7 @@
         <v>287</v>
       </c>
       <c r="C162">
-        <v>446316.76000000007</v>
+        <v>446524.32999999996</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4579,7 +4585,7 @@
         <v>289</v>
       </c>
       <c r="C163">
-        <v>446248.36000000004</v>
+        <v>446499.69999999995</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4590,7 +4596,7 @@
         <v>126</v>
       </c>
       <c r="C164">
-        <v>444644.29000000004</v>
+        <v>444885.15</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4601,7 +4607,7 @@
         <v>126</v>
       </c>
       <c r="C165">
-        <v>442929.09999999992</v>
+        <v>443124.99</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4612,7 +4618,7 @@
         <v>61</v>
       </c>
       <c r="C166">
-        <v>426025.49000000005</v>
+        <v>426217.18999999994</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4623,7 +4629,7 @@
         <v>294</v>
       </c>
       <c r="C167">
-        <v>425685.3</v>
+        <v>425887.31000000006</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4631,10 +4637,10 @@
         <v>295</v>
       </c>
       <c r="B168" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C168">
-        <v>423050.23</v>
+        <v>423204.35</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4645,7 +4651,7 @@
         <v>297</v>
       </c>
       <c r="C169">
-        <v>421245.02</v>
+        <v>421348.42000000004</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4653,10 +4659,10 @@
         <v>298</v>
       </c>
       <c r="B170" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C170">
-        <v>420639.89</v>
+        <v>420832.73</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4664,10 +4670,10 @@
         <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C171">
-        <v>419781.40999999992</v>
+        <v>419907.42000000004</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4689,7 +4695,7 @@
         <v>303</v>
       </c>
       <c r="C173">
-        <v>410846.01</v>
+        <v>411023.2</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4700,7 +4706,7 @@
         <v>305</v>
       </c>
       <c r="C174">
-        <v>405901.38</v>
+        <v>406100.96</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4711,7 +4717,7 @@
         <v>307</v>
       </c>
       <c r="C175">
-        <v>404065.91</v>
+        <v>404239.48</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4722,7 +4728,7 @@
         <v>33</v>
       </c>
       <c r="C176">
-        <v>403444.45000000007</v>
+        <v>403614.71</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4733,7 +4739,7 @@
         <v>310</v>
       </c>
       <c r="C177">
-        <v>398128.17000000004</v>
+        <v>398296.99999999994</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4744,7 +4750,7 @@
         <v>312</v>
       </c>
       <c r="C178">
-        <v>391750.55999999994</v>
+        <v>391933.24999999988</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4755,7 +4761,7 @@
         <v>86</v>
       </c>
       <c r="C179">
-        <v>390266.31999999995</v>
+        <v>390600.96000000002</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4766,7 +4772,7 @@
         <v>315</v>
       </c>
       <c r="C180">
-        <v>389983.93000000005</v>
+        <v>390167.92999999993</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4777,7 +4783,7 @@
         <v>317</v>
       </c>
       <c r="C181">
-        <v>384755.92999999993</v>
+        <v>384927.43</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4788,7 +4794,7 @@
         <v>319</v>
       </c>
       <c r="C182">
-        <v>383990.42000000004</v>
+        <v>384426.73</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4799,7 +4805,7 @@
         <v>321</v>
       </c>
       <c r="C183">
-        <v>380819.02999999997</v>
+        <v>380990.25</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4810,7 +4816,7 @@
         <v>317</v>
       </c>
       <c r="C184">
-        <v>378048.05999999994</v>
+        <v>378215.86</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4821,7 +4827,7 @@
         <v>324</v>
       </c>
       <c r="C185">
-        <v>372779.19999999995</v>
+        <v>372960.53999999992</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4832,7 +4838,7 @@
         <v>326</v>
       </c>
       <c r="C186">
-        <v>370138.08</v>
+        <v>370301.98</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4843,7 +4849,7 @@
         <v>328</v>
       </c>
       <c r="C187">
-        <v>367757.16</v>
+        <v>367939.49000000017</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4854,7 +4860,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>367103.58999999997</v>
+        <v>367262.38999999996</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4862,10 +4868,10 @@
         <v>331</v>
       </c>
       <c r="B189" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C189">
-        <v>363224.05000000005</v>
+        <v>363383.98</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4876,7 +4882,7 @@
         <v>256</v>
       </c>
       <c r="C190">
-        <v>362547.12</v>
+        <v>363312.18</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4887,7 +4893,7 @@
         <v>334</v>
       </c>
       <c r="C191">
-        <v>362029.31</v>
+        <v>362182.57</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4898,7 +4904,7 @@
         <v>336</v>
       </c>
       <c r="C192">
-        <v>358872.66000000003</v>
+        <v>359022.63</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4909,7 +4915,7 @@
         <v>39</v>
       </c>
       <c r="C193">
-        <v>358691.68000000005</v>
+        <v>358845.8</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4920,7 +4926,7 @@
         <v>339</v>
       </c>
       <c r="C194">
-        <v>358666.13</v>
+        <v>358817.23</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4931,7 +4937,7 @@
         <v>330</v>
       </c>
       <c r="C195">
-        <v>357823.30000000005</v>
+        <v>357987.58</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4939,10 +4945,10 @@
         <v>341</v>
       </c>
       <c r="B196" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C196">
-        <v>356510.66</v>
+        <v>356676.98</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4953,7 +4959,7 @@
         <v>343</v>
       </c>
       <c r="C197">
-        <v>353527.92</v>
+        <v>354332.98</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4964,7 +4970,7 @@
         <v>345</v>
       </c>
       <c r="C198">
-        <v>351095.95</v>
+        <v>351283.25999999995</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4975,7 +4981,7 @@
         <v>347</v>
       </c>
       <c r="C199">
-        <v>348222.15</v>
+        <v>348370.89</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4986,7 +4992,7 @@
         <v>312</v>
       </c>
       <c r="C200">
-        <v>347056.88999999996</v>
+        <v>347217.13</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4997,7 +5003,7 @@
         <v>350</v>
       </c>
       <c r="C201">
-        <v>345240.32999999996</v>
+        <v>345400.95</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5008,7 +5014,7 @@
         <v>352</v>
       </c>
       <c r="C202">
-        <v>344891.27</v>
+        <v>344775.98999999993</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5019,7 +5025,7 @@
         <v>354</v>
       </c>
       <c r="C203">
-        <v>342964.95999999996</v>
+        <v>343133.34</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5030,7 +5036,7 @@
         <v>356</v>
       </c>
       <c r="C204">
-        <v>341973.51999999996</v>
+        <v>342132.2</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5041,7 +5047,7 @@
         <v>358</v>
       </c>
       <c r="C205">
-        <v>340768.68999999994</v>
+        <v>340936.63999999996</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5052,7 +5058,7 @@
         <v>360</v>
       </c>
       <c r="C206">
-        <v>340425.33999999997</v>
+        <v>340575.4</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5063,7 +5069,7 @@
         <v>239</v>
       </c>
       <c r="C207">
-        <v>340004.62</v>
+        <v>340137.29</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5074,7 +5080,7 @@
         <v>363</v>
       </c>
       <c r="C208">
-        <v>333462.95</v>
+        <v>333603.82</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5085,7 +5091,7 @@
         <v>365</v>
       </c>
       <c r="C209">
-        <v>333142.18999999994</v>
+        <v>333323.37</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5096,7 +5102,7 @@
         <v>367</v>
       </c>
       <c r="C210">
-        <v>332998.21999999991</v>
+        <v>333154.07999999996</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5107,7 +5113,7 @@
         <v>102</v>
       </c>
       <c r="C211">
-        <v>332685.87999999995</v>
+        <v>332857.97000000003</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5118,7 +5124,7 @@
         <v>370</v>
       </c>
       <c r="C212">
-        <v>331094.55</v>
+        <v>331238.02999999997</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5129,7 +5135,7 @@
         <v>372</v>
       </c>
       <c r="C213">
-        <v>328557.68</v>
+        <v>328700.3</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5140,7 +5146,7 @@
         <v>374</v>
       </c>
       <c r="C214">
-        <v>324902.36000000004</v>
+        <v>325050.36999999994</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5151,7 +5157,7 @@
         <v>376</v>
       </c>
       <c r="C215">
-        <v>322991.01</v>
+        <v>323120.07000000007</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5162,7 +5168,7 @@
         <v>378</v>
       </c>
       <c r="C216">
-        <v>322540.56999999995</v>
+        <v>322678.27</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5173,7 +5179,7 @@
         <v>33</v>
       </c>
       <c r="C217">
-        <v>316179.51999999996</v>
+        <v>316316.03000000003</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5184,7 +5190,7 @@
         <v>356</v>
       </c>
       <c r="C218">
-        <v>312192.01</v>
+        <v>312319.85000000003</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5195,7 +5201,7 @@
         <v>86</v>
       </c>
       <c r="C219">
-        <v>308282.02</v>
+        <v>308326</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5206,7 +5212,7 @@
         <v>383</v>
       </c>
       <c r="C220">
-        <v>307187.28999999998</v>
+        <v>307321.94999999995</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5217,7 +5223,7 @@
         <v>354</v>
       </c>
       <c r="C221">
-        <v>305998</v>
+        <v>306146.80999999994</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5228,7 +5234,7 @@
         <v>386</v>
       </c>
       <c r="C222">
-        <v>305808.70000000007</v>
+        <v>305933.76</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5239,7 +5245,7 @@
         <v>354</v>
       </c>
       <c r="C223">
-        <v>301046.00999999995</v>
+        <v>302423.48999999993</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5250,7 +5256,7 @@
         <v>68</v>
       </c>
       <c r="C224">
-        <v>299947.53999999998</v>
+        <v>300054.30999999994</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5258,21 +5264,21 @@
         <v>389</v>
       </c>
       <c r="B225" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
       <c r="C225">
-        <v>291875.78999999998</v>
+        <v>299529.46000000002</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B226" t="s">
-        <v>391</v>
+        <v>157</v>
       </c>
       <c r="C226">
-        <v>290407.75</v>
+        <v>292026.12</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5283,7 +5289,7 @@
         <v>53</v>
       </c>
       <c r="C227">
-        <v>288423.95</v>
+        <v>288545.48</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5294,7 +5300,7 @@
         <v>394</v>
       </c>
       <c r="C228">
-        <v>288256.07</v>
+        <v>288396.51000000007</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5305,7 +5311,7 @@
         <v>64</v>
       </c>
       <c r="C229">
-        <v>287202.64999999997</v>
+        <v>287338.76</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5316,7 +5322,7 @@
         <v>397</v>
       </c>
       <c r="C230">
-        <v>282280.89</v>
+        <v>282216.43</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5327,7 +5333,7 @@
         <v>272</v>
       </c>
       <c r="C231">
-        <v>280369.98</v>
+        <v>280700.77</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5338,7 +5344,7 @@
         <v>400</v>
       </c>
       <c r="C232">
-        <v>280325.62</v>
+        <v>280445.47000000003</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5349,7 +5355,7 @@
         <v>402</v>
       </c>
       <c r="C233">
-        <v>277648.12</v>
+        <v>277775.29000000004</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5360,7 +5366,7 @@
         <v>404</v>
       </c>
       <c r="C234">
-        <v>277364.88</v>
+        <v>277519.79000000004</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5371,7 +5377,7 @@
         <v>406</v>
       </c>
       <c r="C235">
-        <v>269229.92000000004</v>
+        <v>269336.31</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5382,7 +5388,7 @@
         <v>307</v>
       </c>
       <c r="C236">
-        <v>266657.18999999994</v>
+        <v>266776.12999999995</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5390,21 +5396,21 @@
         <v>408</v>
       </c>
       <c r="B237" t="s">
-        <v>220</v>
+        <v>409</v>
       </c>
       <c r="C237">
-        <v>266587.82</v>
+        <v>266587.98000000004</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B238" t="s">
-        <v>410</v>
+        <v>222</v>
       </c>
       <c r="C238">
-        <v>266451.95</v>
+        <v>266499.82</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5415,7 +5421,7 @@
         <v>412</v>
       </c>
       <c r="C239">
-        <v>264928.72000000003</v>
+        <v>265041.35000000003</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5426,7 +5432,7 @@
         <v>414</v>
       </c>
       <c r="C240">
-        <v>264743.96000000002</v>
+        <v>264866.96999999997</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5437,7 +5443,7 @@
         <v>416</v>
       </c>
       <c r="C241">
-        <v>261786.87</v>
+        <v>261903.03000000009</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5448,7 +5454,7 @@
         <v>418</v>
       </c>
       <c r="C242">
-        <v>259255.54000000004</v>
+        <v>259386.61</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5459,7 +5465,7 @@
         <v>420</v>
       </c>
       <c r="C243">
-        <v>255708.59</v>
+        <v>255822.14999999997</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5467,109 +5473,109 @@
         <v>421</v>
       </c>
       <c r="B244" t="s">
-        <v>225</v>
+        <v>422</v>
       </c>
       <c r="C244">
-        <v>255010</v>
+        <v>248177.07000000004</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B245" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C245">
-        <v>248063.35</v>
+        <v>247828.09999999998</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B246" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C246">
-        <v>247712.18</v>
+        <v>247741.93</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B247" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C247">
-        <v>247542.88999999998</v>
+        <v>246144.38</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B248" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C248">
-        <v>246256.19000000003</v>
+        <v>242535.64</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B249" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C249">
-        <v>242407.97000000003</v>
+        <v>242431.55</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B250" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C250">
-        <v>242337.41999999998</v>
+        <v>240807.48</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B251" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C251">
-        <v>240720.88000000003</v>
+        <v>240620.05</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B252" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C252">
-        <v>240619.41999999998</v>
+        <v>240340.22999999998</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B253" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C253">
-        <v>240254.21999999997</v>
+        <v>238714.44999999998</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5577,21 +5583,21 @@
         <v>440</v>
       </c>
       <c r="B254" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="C254">
-        <v>238613.4</v>
+        <v>235339.54</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B255" t="s">
-        <v>442</v>
+        <v>195</v>
       </c>
       <c r="C255">
-        <v>235228.97</v>
+        <v>235327.41</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5599,54 +5605,54 @@
         <v>443</v>
       </c>
       <c r="B256" t="s">
-        <v>193</v>
+        <v>444</v>
       </c>
       <c r="C256">
-        <v>235218.20000000007</v>
+        <v>233707.25999999995</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B257" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C257">
-        <v>233604.63000000003</v>
+        <v>232778.16</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B258" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C258">
-        <v>232685.9</v>
+        <v>227888.87</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B259" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C259">
-        <v>227793.19999999995</v>
+        <v>227413.43000000002</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B260" t="s">
-        <v>451</v>
+        <v>116</v>
       </c>
       <c r="C260">
-        <v>227033.83000000002</v>
+        <v>222378.07</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5654,10 +5660,10 @@
         <v>452</v>
       </c>
       <c r="B261" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C261">
-        <v>221650.56</v>
+        <v>221168.34000000003</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5665,10 +5671,10 @@
         <v>453</v>
       </c>
       <c r="B262" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C262">
-        <v>221319.12000000002</v>
+        <v>220858.50999999998</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5676,32 +5682,32 @@
         <v>454</v>
       </c>
       <c r="B263" t="s">
-        <v>90</v>
+        <v>455</v>
       </c>
       <c r="C263">
-        <v>220694.36</v>
+        <v>218962.86000000004</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B264" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C264">
-        <v>218865.06</v>
+        <v>218388.91</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B265" t="s">
-        <v>458</v>
+        <v>307</v>
       </c>
       <c r="C265">
-        <v>218143.58000000002</v>
+        <v>217397.46</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5709,10 +5715,10 @@
         <v>459</v>
       </c>
       <c r="B266" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="C266">
-        <v>217302.22</v>
+        <v>214571.30999999997</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5720,21 +5726,21 @@
         <v>460</v>
       </c>
       <c r="B267" t="s">
-        <v>285</v>
+        <v>461</v>
       </c>
       <c r="C267">
-        <v>214455.65</v>
+        <v>214124.98000000004</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B268" t="s">
-        <v>462</v>
+        <v>73</v>
       </c>
       <c r="C268">
-        <v>214032.28000000003</v>
+        <v>209532.52000000002</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5742,10 +5748,10 @@
         <v>463</v>
       </c>
       <c r="B269" t="s">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="C269">
-        <v>209572.22999999998</v>
+        <v>208677.34</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5756,7 +5762,7 @@
         <v>465</v>
       </c>
       <c r="C270">
-        <v>207981.16000000003</v>
+        <v>208069.97</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5767,7 +5773,7 @@
         <v>467</v>
       </c>
       <c r="C271">
-        <v>207838.79999999996</v>
+        <v>207933.46000000002</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5778,7 +5784,7 @@
         <v>469</v>
       </c>
       <c r="C272">
-        <v>207389.84</v>
+        <v>207826.75</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5786,10 +5792,10 @@
         <v>470</v>
       </c>
       <c r="B273" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C273">
-        <v>206745.27000000002</v>
+        <v>206493.4</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5797,10 +5803,10 @@
         <v>471</v>
       </c>
       <c r="B274" t="s">
-        <v>262</v>
+        <v>51</v>
       </c>
       <c r="C274">
-        <v>206395.03000000003</v>
+        <v>204906.65</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5808,10 +5814,10 @@
         <v>472</v>
       </c>
       <c r="B275" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C275">
-        <v>204808.37000000005</v>
+        <v>203402.01000000004</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5819,10 +5825,10 @@
         <v>473</v>
       </c>
       <c r="B276" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="C276">
-        <v>202596.67</v>
+        <v>202217.99000000002</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5830,32 +5836,32 @@
         <v>474</v>
       </c>
       <c r="B277" t="s">
-        <v>241</v>
+        <v>475</v>
       </c>
       <c r="C277">
-        <v>201793.30000000002</v>
+        <v>200108.59999999998</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B278" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C278">
-        <v>201722.83000000005</v>
+        <v>198509.22000000003</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B279" t="s">
-        <v>478</v>
+        <v>272</v>
       </c>
       <c r="C279">
-        <v>198419.91</v>
+        <v>193273.01</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5863,43 +5869,43 @@
         <v>479</v>
       </c>
       <c r="B280" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="C280">
-        <v>193192.04</v>
+        <v>192046.08000000002</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B281" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C281">
-        <v>192004.1</v>
+        <v>191586.99</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B282" t="s">
-        <v>437</v>
+        <v>53</v>
       </c>
       <c r="C282">
-        <v>191628.77</v>
+        <v>191538.09</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B283" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="C283">
-        <v>191498.47999999998</v>
+        <v>191344.28</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5907,21 +5913,21 @@
         <v>485</v>
       </c>
       <c r="B284" t="s">
-        <v>53</v>
+        <v>486</v>
       </c>
       <c r="C284">
-        <v>191450.91999999995</v>
+        <v>189476.48000000004</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B285" t="s">
-        <v>487</v>
+        <v>41</v>
       </c>
       <c r="C285">
-        <v>189412.89</v>
+        <v>188547.61999999997</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5929,10 +5935,10 @@
         <v>488</v>
       </c>
       <c r="B286" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C286">
-        <v>188455.15999999995</v>
+        <v>185956.05</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5940,32 +5946,32 @@
         <v>489</v>
       </c>
       <c r="B287" t="s">
-        <v>39</v>
+        <v>490</v>
       </c>
       <c r="C287">
-        <v>185868.42</v>
+        <v>179253.27</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B288" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C288">
-        <v>179160.36000000002</v>
+        <v>177538.7</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B289" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
       <c r="C289">
-        <v>177554.37</v>
+        <v>173163.72</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5973,10 +5979,10 @@
         <v>494</v>
       </c>
       <c r="B290" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C290">
-        <v>173050.37999999998</v>
+        <v>173127.49</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5984,43 +5990,43 @@
         <v>495</v>
       </c>
       <c r="B291" t="s">
-        <v>394</v>
+        <v>496</v>
       </c>
       <c r="C291">
-        <v>172867.44</v>
+        <v>171559.17</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B292" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C292">
-        <v>171610.52999999997</v>
+        <v>171236.46000000002</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B293" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C293">
-        <v>171166.84999999998</v>
+        <v>168943.38</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B294" t="s">
-        <v>501</v>
+        <v>116</v>
       </c>
       <c r="C294">
-        <v>168841.78000000006</v>
+        <v>166395.6</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6028,10 +6034,10 @@
         <v>502</v>
       </c>
       <c r="B295" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C295">
-        <v>166324.34</v>
+        <v>163795.15</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6042,7 +6048,7 @@
         <v>504</v>
       </c>
       <c r="C296">
-        <v>163772.42999999996</v>
+        <v>163597.47</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6050,10 +6056,10 @@
         <v>505</v>
       </c>
       <c r="B297" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C297">
-        <v>163718.69</v>
+        <v>162180.94999999998</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6061,65 +6067,65 @@
         <v>506</v>
       </c>
       <c r="B298" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="C298">
-        <v>162106.5</v>
+        <v>160579.03000000003</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B299" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C299">
-        <v>160555.34</v>
+        <v>160262.06</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B300" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C300">
-        <v>160197.28</v>
+        <v>159391.57</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B301" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C301">
-        <v>159327.14000000001</v>
+        <v>159071.80000000002</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B302" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C302">
-        <v>159004.74</v>
+        <v>157503.12</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B303" t="s">
-        <v>516</v>
+        <v>73</v>
       </c>
       <c r="C303">
-        <v>157502.35999999999</v>
+        <v>157088.02000000002</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6127,10 +6133,10 @@
         <v>517</v>
       </c>
       <c r="B304" t="s">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="C304">
-        <v>157021.43999999997</v>
+        <v>156917.69999999998</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6138,10 +6144,10 @@
         <v>518</v>
       </c>
       <c r="B305" t="s">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="C305">
-        <v>156853.41</v>
+        <v>156516.05000000002</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6149,10 +6155,10 @@
         <v>519</v>
       </c>
       <c r="B306" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C306">
-        <v>156451.76999999999</v>
+        <v>156260.11000000002</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6160,10 +6166,10 @@
         <v>520</v>
       </c>
       <c r="B307" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C307">
-        <v>156190.08000000002</v>
+        <v>155465.54</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6171,10 +6177,10 @@
         <v>521</v>
       </c>
       <c r="B308" t="s">
-        <v>64</v>
+        <v>434</v>
       </c>
       <c r="C308">
-        <v>155400.58999999997</v>
+        <v>155008.35</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6182,10 +6188,10 @@
         <v>522</v>
       </c>
       <c r="B309" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="C309">
-        <v>155007.16</v>
+        <v>153223.44</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6193,21 +6199,21 @@
         <v>523</v>
       </c>
       <c r="B310" t="s">
-        <v>31</v>
+        <v>524</v>
       </c>
       <c r="C310">
-        <v>153223.26999999999</v>
+        <v>151468.97</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B311" t="s">
-        <v>525</v>
+        <v>249</v>
       </c>
       <c r="C311">
-        <v>151403.76</v>
+        <v>151262.74</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6215,10 +6221,10 @@
         <v>526</v>
       </c>
       <c r="B312" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="C312">
-        <v>151182.62</v>
+        <v>148781.85</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6226,10 +6232,10 @@
         <v>527</v>
       </c>
       <c r="B313" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="C313">
-        <v>148718.18</v>
+        <v>146647.46000000002</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6237,21 +6243,21 @@
         <v>528</v>
       </c>
       <c r="B314" t="s">
-        <v>352</v>
+        <v>529</v>
       </c>
       <c r="C314">
-        <v>146568.55000000002</v>
+        <v>145800.01999999999</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B315" t="s">
-        <v>530</v>
+        <v>432</v>
       </c>
       <c r="C315">
-        <v>145741.24999999997</v>
+        <v>144955.04</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6259,10 +6265,10 @@
         <v>531</v>
       </c>
       <c r="B316" t="s">
-        <v>433</v>
+        <v>239</v>
       </c>
       <c r="C316">
-        <v>144893.59999999998</v>
+        <v>144364.19999999998</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6270,10 +6276,10 @@
         <v>532</v>
       </c>
       <c r="B317" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="C317">
-        <v>144302.88999999998</v>
+        <v>143774.94</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6281,76 +6287,76 @@
         <v>533</v>
       </c>
       <c r="B318" t="s">
-        <v>61</v>
+        <v>534</v>
       </c>
       <c r="C318">
-        <v>143612.80999999997</v>
+        <v>140586.25999999998</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B319" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C319">
-        <v>140586.21</v>
+        <v>139473.40999999997</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B320" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C320">
-        <v>139417.77000000002</v>
+        <v>138985.71000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B321" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C321">
-        <v>138921.34</v>
+        <v>138959.22</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B322" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C322">
-        <v>138899.32000000004</v>
+        <v>137283.12</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B323" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C323">
-        <v>137209.24999999997</v>
+        <v>137072.93</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B324" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C324">
-        <v>137011.84</v>
+        <v>137023.58000000002</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6361,7 +6367,7 @@
         <v>547</v>
       </c>
       <c r="C325">
-        <v>136949.83000000002</v>
+        <v>137013.25999999998</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6369,10 +6375,10 @@
         <v>548</v>
       </c>
       <c r="B326" t="s">
-        <v>539</v>
+        <v>310</v>
       </c>
       <c r="C326">
-        <v>136922.28</v>
+        <v>134666.44</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6380,10 +6386,10 @@
         <v>549</v>
       </c>
       <c r="B327" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="C327">
-        <v>134608.77000000002</v>
+        <v>131427.44999999998</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6391,21 +6397,21 @@
         <v>550</v>
       </c>
       <c r="B328" t="s">
-        <v>352</v>
+        <v>551</v>
       </c>
       <c r="C328">
-        <v>131356.45000000001</v>
+        <v>128514.31000000003</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B329" t="s">
-        <v>552</v>
+        <v>189</v>
       </c>
       <c r="C329">
-        <v>128442.93999999999</v>
+        <v>127207.27</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6413,10 +6419,10 @@
         <v>553</v>
       </c>
       <c r="B330" t="s">
-        <v>227</v>
+        <v>422</v>
       </c>
       <c r="C330">
-        <v>127154.31000000001</v>
+        <v>126828.14999999998</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6424,54 +6430,54 @@
         <v>554</v>
       </c>
       <c r="B331" t="s">
-        <v>423</v>
+        <v>555</v>
       </c>
       <c r="C331">
-        <v>126774.62</v>
+        <v>126427.74</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B332" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C332">
-        <v>126367.00000000003</v>
+        <v>124216.03</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B333" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C333">
-        <v>123950.11</v>
+        <v>122015.10999999999</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B334" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C334">
-        <v>121951.98000000001</v>
+        <v>121046.85000000003</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B335" t="s">
-        <v>562</v>
+        <v>432</v>
       </c>
       <c r="C335">
-        <v>120990.62000000001</v>
+        <v>121001.39</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6479,21 +6485,21 @@
         <v>563</v>
       </c>
       <c r="B336" t="s">
-        <v>433</v>
+        <v>564</v>
       </c>
       <c r="C336">
-        <v>120948.44000000002</v>
+        <v>120144.31</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="C337">
-        <v>120088.82</v>
+        <v>119204.03</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6501,10 +6507,10 @@
         <v>566</v>
       </c>
       <c r="B338" t="s">
-        <v>539</v>
+        <v>467</v>
       </c>
       <c r="C338">
-        <v>119149.90999999997</v>
+        <v>117942.54000000001</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6512,10 +6518,10 @@
         <v>567</v>
       </c>
       <c r="B339" t="s">
-        <v>467</v>
+        <v>287</v>
       </c>
       <c r="C339">
-        <v>117893.68</v>
+        <v>117904.95000000001</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6523,10 +6529,10 @@
         <v>568</v>
       </c>
       <c r="B340" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="C340">
-        <v>117841.94999999998</v>
+        <v>117836.86000000003</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6534,10 +6540,10 @@
         <v>569</v>
       </c>
       <c r="B341" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="C341">
-        <v>117784.45</v>
+        <v>116448.90000000001</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6545,21 +6551,21 @@
         <v>570</v>
       </c>
       <c r="B342" t="s">
-        <v>256</v>
+        <v>571</v>
       </c>
       <c r="C342">
-        <v>116395.42</v>
+        <v>116109.55</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B343" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="C343">
-        <v>116059.3</v>
+        <v>115128.75</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6567,10 +6573,10 @@
         <v>573</v>
       </c>
       <c r="B344" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C344">
-        <v>115098.62999999999</v>
+        <v>112750.38</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6578,43 +6584,43 @@
         <v>574</v>
       </c>
       <c r="B345" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="C345">
-        <v>112706.44999999998</v>
+        <v>112237.27</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B346" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C346">
-        <v>112185.25999999998</v>
+        <v>112143.86</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B347" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C347">
-        <v>112091.00000000001</v>
+        <v>112041.49999999999</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B348" t="s">
-        <v>580</v>
+        <v>61</v>
       </c>
       <c r="C348">
-        <v>111994.94</v>
+        <v>112030.90000000002</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6622,10 +6628,10 @@
         <v>581</v>
       </c>
       <c r="B349" t="s">
-        <v>61</v>
+        <v>432</v>
       </c>
       <c r="C349">
-        <v>111978.72999999998</v>
+        <v>111806.63</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6633,10 +6639,10 @@
         <v>582</v>
       </c>
       <c r="B350" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="C350">
-        <v>111762.73999999999</v>
+        <v>111217.35</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6644,10 +6650,10 @@
         <v>583</v>
       </c>
       <c r="B351" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="C351">
-        <v>111167.21</v>
+        <v>111015.09</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6655,54 +6661,54 @@
         <v>584</v>
       </c>
       <c r="B352" t="s">
-        <v>317</v>
+        <v>585</v>
       </c>
       <c r="C352">
-        <v>110963.47000000003</v>
+        <v>108973.04999999999</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B353" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C353">
-        <v>108881.73999999999</v>
+        <v>108734.20999999999</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B354" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C354">
-        <v>108687.57</v>
+        <v>108239.50000000001</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B355" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C355">
-        <v>108181.38</v>
+        <v>107780.62</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B356" t="s">
-        <v>592</v>
+        <v>90</v>
       </c>
       <c r="C356">
-        <v>107738.98000000001</v>
+        <v>107541.67</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6710,10 +6716,10 @@
         <v>593</v>
       </c>
       <c r="B357" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="C357">
-        <v>107490.39000000001</v>
+        <v>107320.71</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6721,10 +6727,10 @@
         <v>594</v>
       </c>
       <c r="B358" t="s">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="C358">
-        <v>107274.13</v>
+        <v>106901.32</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6732,10 +6738,10 @@
         <v>595</v>
       </c>
       <c r="B359" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C359">
-        <v>106852.25</v>
+        <v>102903.31000000001</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6743,10 +6749,10 @@
         <v>596</v>
       </c>
       <c r="B360" t="s">
-        <v>456</v>
+        <v>111</v>
       </c>
       <c r="C360">
-        <v>102856.86000000002</v>
+        <v>102893.49</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6754,10 +6760,10 @@
         <v>597</v>
       </c>
       <c r="B361" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="C361">
-        <v>102848.34999999999</v>
+        <v>102208.65999999999</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6768,7 +6774,7 @@
         <v>90</v>
       </c>
       <c r="C362">
-        <v>101611.01000000001</v>
+        <v>101659.55999999998</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6779,7 +6785,7 @@
         <v>317</v>
       </c>
       <c r="C363">
-        <v>101435.41</v>
+        <v>101458.84999999999</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6790,7 +6796,7 @@
         <v>601</v>
       </c>
       <c r="C364">
-        <v>100404.5</v>
+        <v>100446</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6798,10 +6804,10 @@
         <v>602</v>
       </c>
       <c r="B365" t="s">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="C365">
-        <v>100125.89000000001</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6812,7 +6818,7 @@
         <v>64</v>
       </c>
       <c r="C366">
-        <v>99511.91</v>
+        <v>99549.26999999999</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6823,7 +6829,7 @@
         <v>605</v>
       </c>
       <c r="C367">
-        <v>99375.779999999984</v>
+        <v>99423.84</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6834,7 +6840,7 @@
         <v>607</v>
       </c>
       <c r="C368">
-        <v>98725.489999999991</v>
+        <v>98791.979999999981</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6845,7 +6851,7 @@
         <v>262</v>
       </c>
       <c r="C369">
-        <v>96964.87999999999</v>
+        <v>97385.44</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6856,7 +6862,7 @@
         <v>610</v>
       </c>
       <c r="C370">
-        <v>96832.739999999991</v>
+        <v>96879.260000000009</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6867,7 +6873,7 @@
         <v>612</v>
       </c>
       <c r="C371">
-        <v>93353.329999999987</v>
+        <v>93392.36</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6878,7 +6884,7 @@
         <v>249</v>
       </c>
       <c r="C372">
-        <v>92756.12000000001</v>
+        <v>92804.890000000014</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6889,7 +6895,7 @@
         <v>287</v>
       </c>
       <c r="C373">
-        <v>91477.14</v>
+        <v>91524.3</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6900,7 +6906,7 @@
         <v>339</v>
       </c>
       <c r="C374">
-        <v>89087.81</v>
+        <v>89125.72</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6911,7 +6917,7 @@
         <v>59</v>
       </c>
       <c r="C375">
-        <v>89065.579999999987</v>
+        <v>89103.779999999984</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6922,7 +6928,7 @@
         <v>51</v>
       </c>
       <c r="C376">
-        <v>89023.76999999999</v>
+        <v>89062.37</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6930,10 +6936,10 @@
         <v>618</v>
       </c>
       <c r="B377" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C377">
-        <v>87718.09</v>
+        <v>87753.85</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6944,7 +6950,7 @@
         <v>51</v>
       </c>
       <c r="C378">
-        <v>87282.98000000001</v>
+        <v>87316.76</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6952,10 +6958,10 @@
         <v>620</v>
       </c>
       <c r="B379" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C379">
-        <v>87248.19</v>
+        <v>87285.83</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6966,7 +6972,7 @@
         <v>622</v>
       </c>
       <c r="C380">
-        <v>86919.800000000017</v>
+        <v>86960.25</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6977,7 +6983,7 @@
         <v>59</v>
       </c>
       <c r="C381">
-        <v>86595.880000000019</v>
+        <v>86634.64</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6999,7 +7005,7 @@
         <v>626</v>
       </c>
       <c r="C383">
-        <v>82336.899999999994</v>
+        <v>82380.45</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7007,32 +7013,32 @@
         <v>627</v>
       </c>
       <c r="B384" t="s">
-        <v>201</v>
+        <v>628</v>
       </c>
       <c r="C384">
-        <v>81492.290000000008</v>
+        <v>81529.73000000001</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B385" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C385">
-        <v>81489.48000000001</v>
+        <v>81526.920000000013</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B386" t="s">
-        <v>630</v>
+        <v>203</v>
       </c>
       <c r="C386">
-        <v>81485.150000000009</v>
+        <v>81474.789999999994</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7040,10 +7046,10 @@
         <v>631</v>
       </c>
       <c r="B387" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C387">
-        <v>81182.850000000006</v>
+        <v>81207.5</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7051,10 +7057,10 @@
         <v>632</v>
       </c>
       <c r="B388" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C388">
-        <v>80057.69</v>
+        <v>80001.670000000013</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7065,7 +7071,7 @@
         <v>634</v>
       </c>
       <c r="C389">
-        <v>79300.2</v>
+        <v>79333.299999999988</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7076,7 +7082,7 @@
         <v>636</v>
       </c>
       <c r="C390">
-        <v>77513.38</v>
+        <v>77545.45</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7084,10 +7090,10 @@
         <v>637</v>
       </c>
       <c r="B391" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C391">
-        <v>76685.42</v>
+        <v>76719.260000000009</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7095,10 +7101,10 @@
         <v>638</v>
       </c>
       <c r="B392" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C392">
-        <v>76311.42</v>
+        <v>76343.610000000015</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7109,7 +7115,7 @@
         <v>640</v>
       </c>
       <c r="C393">
-        <v>73582.280000000013</v>
+        <v>73620.359999999986</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7117,10 +7123,10 @@
         <v>641</v>
       </c>
       <c r="B394" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C394">
-        <v>73269.17</v>
+        <v>73300.579999999987</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7131,7 +7137,7 @@
         <v>643</v>
       </c>
       <c r="C395">
-        <v>72847.459999999992</v>
+        <v>72877.679999999993</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7142,7 +7148,7 @@
         <v>33</v>
       </c>
       <c r="C396">
-        <v>72705.549999999988</v>
+        <v>72742.45</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7153,7 +7159,7 @@
         <v>20</v>
       </c>
       <c r="C397">
-        <v>71992.180000000008</v>
+        <v>72021.570000000007</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7164,7 +7170,7 @@
         <v>59</v>
       </c>
       <c r="C398">
-        <v>69348.69</v>
+        <v>69373.45</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7175,7 +7181,7 @@
         <v>64</v>
       </c>
       <c r="C399">
-        <v>68768.739999999991</v>
+        <v>68799.459999999992</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7186,7 +7192,7 @@
         <v>649</v>
       </c>
       <c r="C400">
-        <v>68502.86</v>
+        <v>68532.210000000006</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7197,7 +7203,7 @@
         <v>651</v>
       </c>
       <c r="C401">
-        <v>68343.759999999995</v>
+        <v>68373.98</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7208,7 +7214,7 @@
         <v>264</v>
       </c>
       <c r="C402">
-        <v>67775.120000000024</v>
+        <v>67804.659999999989</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7219,7 +7225,7 @@
         <v>654</v>
       </c>
       <c r="C403">
-        <v>67193.490000000005</v>
+        <v>67224.939999999988</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7227,10 +7233,10 @@
         <v>655</v>
       </c>
       <c r="B404" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C404">
-        <v>65548.810000000012</v>
+        <v>65572.759999999995</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7241,7 +7247,7 @@
         <v>657</v>
       </c>
       <c r="C405">
-        <v>64604.13</v>
+        <v>64632.360000000008</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7252,7 +7258,7 @@
         <v>659</v>
       </c>
       <c r="C406">
-        <v>64095.969999999994</v>
+        <v>64122.47</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7263,7 +7269,7 @@
         <v>330</v>
       </c>
       <c r="C407">
-        <v>63921.13</v>
+        <v>63955.810000000005</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7271,10 +7277,10 @@
         <v>661</v>
       </c>
       <c r="B408" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C408">
-        <v>63811.130000000005</v>
+        <v>63839.89</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7282,10 +7288,10 @@
         <v>662</v>
       </c>
       <c r="B409" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C409">
-        <v>62978.779999999992</v>
+        <v>63013.380000000012</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7296,7 +7302,7 @@
         <v>664</v>
       </c>
       <c r="C410">
-        <v>62125.270000000004</v>
+        <v>62171.68</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7304,10 +7310,10 @@
         <v>665</v>
       </c>
       <c r="B411" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C411">
-        <v>61776.4</v>
+        <v>61801.02</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7318,7 +7324,7 @@
         <v>667</v>
       </c>
       <c r="C412">
-        <v>61759.79</v>
+        <v>61787.340000000011</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7326,10 +7332,10 @@
         <v>668</v>
       </c>
       <c r="B413" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C413">
-        <v>61612.030000000006</v>
+        <v>61640.299999999996</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7340,7 +7346,7 @@
         <v>116</v>
       </c>
       <c r="C414">
-        <v>59458.58</v>
+        <v>59490.080000000002</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7351,7 +7357,7 @@
         <v>59</v>
       </c>
       <c r="C415">
-        <v>57197.7</v>
+        <v>57223.359999999993</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7359,10 +7365,10 @@
         <v>671</v>
       </c>
       <c r="B416" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C416">
-        <v>57055.380000000005</v>
+        <v>57076.89</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7373,7 +7379,7 @@
         <v>347</v>
       </c>
       <c r="C417">
-        <v>55782.389999999992</v>
+        <v>55811.689999999995</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7384,7 +7390,7 @@
         <v>674</v>
       </c>
       <c r="C418">
-        <v>55325.780000000006</v>
+        <v>55347.11</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7395,7 +7401,7 @@
         <v>12</v>
       </c>
       <c r="C419">
-        <v>54902.42</v>
+        <v>54927.100000000006</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7406,7 +7412,7 @@
         <v>674</v>
       </c>
       <c r="C420">
-        <v>54463.750000000007</v>
+        <v>54486.11</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7417,7 +7423,7 @@
         <v>310</v>
       </c>
       <c r="C421">
-        <v>53874.83</v>
+        <v>53903.3</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7428,7 +7434,7 @@
         <v>53</v>
       </c>
       <c r="C422">
-        <v>53323.709999999992</v>
+        <v>53352.200000000012</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7436,10 +7442,10 @@
         <v>679</v>
       </c>
       <c r="B423" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C423">
-        <v>53241.22</v>
+        <v>53269.660000000011</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7450,7 +7456,7 @@
         <v>140</v>
       </c>
       <c r="C424">
-        <v>53142.299999999996</v>
+        <v>53165.219999999994</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7461,7 +7467,7 @@
         <v>547</v>
       </c>
       <c r="C425">
-        <v>52891.68</v>
+        <v>52919.9</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7472,7 +7478,7 @@
         <v>683</v>
       </c>
       <c r="C426">
-        <v>52362.869999999995</v>
+        <v>52384.180000000008</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7483,7 +7489,7 @@
         <v>685</v>
       </c>
       <c r="C427">
-        <v>51877.14</v>
+        <v>51898.06</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7494,7 +7500,7 @@
         <v>79</v>
       </c>
       <c r="C428">
-        <v>51164.639999999999</v>
+        <v>51272.5</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7505,7 +7511,7 @@
         <v>272</v>
       </c>
       <c r="C429">
-        <v>51006.45</v>
+        <v>51180.439999999988</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7516,7 +7522,7 @@
         <v>356</v>
       </c>
       <c r="C430">
-        <v>50048.37999999999</v>
+        <v>50084.800000000003</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7527,7 +7533,7 @@
         <v>467</v>
       </c>
       <c r="C431">
-        <v>49609.100000000006</v>
+        <v>49635.890000000007</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7538,7 +7544,7 @@
         <v>691</v>
       </c>
       <c r="C432">
-        <v>49271.200000000004</v>
+        <v>49295.33</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7546,10 +7552,10 @@
         <v>692</v>
       </c>
       <c r="B433" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C433">
-        <v>48371.87000000001</v>
+        <v>48395.73000000001</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7560,7 +7566,7 @@
         <v>239</v>
       </c>
       <c r="C434">
-        <v>46607.869999999995</v>
+        <v>46636.280000000006</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7571,7 +7577,7 @@
         <v>695</v>
       </c>
       <c r="C435">
-        <v>45349.69</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7579,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="B436" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C436">
-        <v>44700.619999999995</v>
+        <v>44722.52</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7593,7 +7599,7 @@
         <v>79</v>
       </c>
       <c r="C437">
-        <v>42822.79</v>
+        <v>42841.76999999999</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7604,7 +7610,7 @@
         <v>699</v>
       </c>
       <c r="C438">
-        <v>41929.189999999995</v>
+        <v>41947.61</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7615,7 +7621,7 @@
         <v>701</v>
       </c>
       <c r="C439">
-        <v>41726.539999999994</v>
+        <v>41745.199999999997</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7626,7 +7632,7 @@
         <v>132</v>
       </c>
       <c r="C440">
-        <v>40854.06</v>
+        <v>40872.54</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7637,7 +7643,7 @@
         <v>61</v>
       </c>
       <c r="C441">
-        <v>40240.22</v>
+        <v>40258.14</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7648,7 +7654,7 @@
         <v>705</v>
       </c>
       <c r="C442">
-        <v>39421.919999999998</v>
+        <v>39438.67</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7659,7 +7665,7 @@
         <v>51</v>
       </c>
       <c r="C443">
-        <v>36731.72</v>
+        <v>36747.93</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7670,7 +7676,7 @@
         <v>708</v>
       </c>
       <c r="C444">
-        <v>36173.209999999992</v>
+        <v>36188.5</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7681,7 +7687,7 @@
         <v>406</v>
       </c>
       <c r="C445">
-        <v>34910.61</v>
+        <v>35022.570000000007</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7692,7 +7698,7 @@
         <v>251</v>
       </c>
       <c r="C446">
-        <v>34542.49</v>
+        <v>34557.780000000006</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7703,7 +7709,7 @@
         <v>712</v>
       </c>
       <c r="C447">
-        <v>34260.769999999997</v>
+        <v>34273.67</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7714,7 +7720,7 @@
         <v>714</v>
       </c>
       <c r="C448">
-        <v>33964.119999999995</v>
+        <v>33969.19</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7736,7 +7742,7 @@
         <v>664</v>
       </c>
       <c r="C450">
-        <v>33066.51</v>
+        <v>33079.979999999996</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7747,7 +7753,7 @@
         <v>39</v>
       </c>
       <c r="C451">
-        <v>31569.23</v>
+        <v>31583.299999999996</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7755,10 +7761,10 @@
         <v>719</v>
       </c>
       <c r="B452" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C452">
-        <v>30521.550000000003</v>
+        <v>30534.639999999999</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7766,10 +7772,10 @@
         <v>720</v>
       </c>
       <c r="B453" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C453">
-        <v>29831.66</v>
+        <v>29853.67</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7777,10 +7783,10 @@
         <v>721</v>
       </c>
       <c r="B454" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C454">
-        <v>28815.32</v>
+        <v>28827.22</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7791,7 +7797,7 @@
         <v>723</v>
       </c>
       <c r="C455">
-        <v>28394.149999999998</v>
+        <v>28412.82</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7799,10 +7805,10 @@
         <v>724</v>
       </c>
       <c r="B456" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C456">
-        <v>25913.440000000002</v>
+        <v>25924.079999999998</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7813,7 +7819,7 @@
         <v>726</v>
       </c>
       <c r="C457">
-        <v>24659.88</v>
+        <v>24670.19</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7824,7 +7830,7 @@
         <v>728</v>
       </c>
       <c r="C458">
-        <v>23111.97</v>
+        <v>23237.179999999997</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7835,7 +7841,7 @@
         <v>730</v>
       </c>
       <c r="C459">
-        <v>22227.51</v>
+        <v>23124.97</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7843,10 +7849,10 @@
         <v>731</v>
       </c>
       <c r="B460" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C460">
-        <v>20864.22</v>
+        <v>20872.670000000002</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7857,7 +7863,7 @@
         <v>64</v>
       </c>
       <c r="C461">
-        <v>20122.89</v>
+        <v>20130.929999999997</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7868,7 +7874,7 @@
         <v>734</v>
       </c>
       <c r="C462">
-        <v>20044.55</v>
+        <v>20053.5</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7879,7 +7885,7 @@
         <v>339</v>
       </c>
       <c r="C463">
-        <v>17847.260000000002</v>
+        <v>17893.39</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7890,7 +7896,7 @@
         <v>737</v>
       </c>
       <c r="C464">
-        <v>16377.420000000002</v>
+        <v>16384.3</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7898,10 +7904,10 @@
         <v>738</v>
       </c>
       <c r="B465" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C465">
-        <v>16106.43</v>
+        <v>16113.64</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7912,7 +7918,7 @@
         <v>420</v>
       </c>
       <c r="C466">
-        <v>14453.66</v>
+        <v>14465.2</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7923,7 +7929,7 @@
         <v>741</v>
       </c>
       <c r="C467">
-        <v>14013.85</v>
+        <v>14020.07</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7934,7 +7940,7 @@
         <v>743</v>
       </c>
       <c r="C468">
-        <v>13854.269999999999</v>
+        <v>13860.41</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7945,7 +7951,7 @@
         <v>339</v>
       </c>
       <c r="C469">
-        <v>12853.27</v>
+        <v>12859.03</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7956,7 +7962,7 @@
         <v>6</v>
       </c>
       <c r="C470">
-        <v>11907</v>
+        <v>11972.32</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7967,7 +7973,7 @@
         <v>747</v>
       </c>
       <c r="C471">
-        <v>11228.3</v>
+        <v>11233.23</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7978,7 +7984,7 @@
         <v>310</v>
       </c>
       <c r="C472">
-        <v>10701.64</v>
+        <v>10703.409999999998</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7986,21 +7992,21 @@
         <v>749</v>
       </c>
       <c r="B473" t="s">
-        <v>12</v>
+        <v>750</v>
       </c>
       <c r="C473">
-        <v>10547.220000000001</v>
+        <v>10449.550000000001</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B474" t="s">
-        <v>751</v>
+        <v>418</v>
       </c>
       <c r="C474">
-        <v>10444.92</v>
+        <v>10058.61</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8008,10 +8014,10 @@
         <v>752</v>
       </c>
       <c r="B475" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="C475">
-        <v>10054.540000000001</v>
+        <v>9910.74</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8019,21 +8025,21 @@
         <v>753</v>
       </c>
       <c r="B476" t="s">
-        <v>8</v>
+        <v>754</v>
       </c>
       <c r="C476">
-        <v>9906.36</v>
+        <v>9180.7200000000012</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B477" t="s">
-        <v>755</v>
+        <v>195</v>
       </c>
       <c r="C477">
-        <v>9177.01</v>
+        <v>8819.9499999999971</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8041,21 +8047,21 @@
         <v>756</v>
       </c>
       <c r="B478" t="s">
-        <v>193</v>
+        <v>757</v>
       </c>
       <c r="C478">
-        <v>8816.3399999999983</v>
+        <v>6756.12</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B479" t="s">
-        <v>758</v>
+        <v>193</v>
       </c>
       <c r="C479">
-        <v>6753.33</v>
+        <v>5614.58</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8063,29 +8069,29 @@
         <v>759</v>
       </c>
       <c r="B480" t="s">
-        <v>191</v>
+        <v>760</v>
       </c>
       <c r="C480">
-        <v>5614.2699999999995</v>
+        <v>4617.6900000000005</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B481" t="s">
         <v>264</v>
       </c>
       <c r="C481">
-        <v>2747.19</v>
+        <v>2748.2799999999997</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B482" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C482">
         <v>2300</v>
@@ -8093,13 +8099,13 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B483" t="s">
-        <v>764</v>
+        <v>31</v>
       </c>
       <c r="C483">
-        <v>2284.9700000000003</v>
+        <v>1422.72</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8107,21 +8113,21 @@
         <v>765</v>
       </c>
       <c r="B484" t="s">
-        <v>31</v>
+        <v>766</v>
       </c>
       <c r="C484">
-        <v>1422.1299999999999</v>
+        <v>1095.22</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B485" t="s">
-        <v>767</v>
+        <v>394</v>
       </c>
       <c r="C485">
-        <v>1094.73</v>
+        <v>1080.7</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8129,21 +8135,21 @@
         <v>768</v>
       </c>
       <c r="B486" t="s">
-        <v>394</v>
+        <v>769</v>
       </c>
       <c r="C486">
-        <v>1080.21</v>
+        <v>1009.11</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B487" t="s">
-        <v>770</v>
+        <v>542</v>
       </c>
       <c r="C487">
-        <v>1008.66</v>
+        <v>741.57</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8151,10 +8157,10 @@
         <v>771</v>
       </c>
       <c r="B488" t="s">
-        <v>543</v>
+        <v>20</v>
       </c>
       <c r="C488">
-        <v>741.30000000000007</v>
+        <v>486.27</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8162,21 +8168,21 @@
         <v>772</v>
       </c>
       <c r="B489" t="s">
-        <v>20</v>
+        <v>773</v>
       </c>
       <c r="C489">
-        <v>485.01</v>
+        <v>433.82</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B490" t="s">
-        <v>774</v>
+        <v>100</v>
       </c>
       <c r="C490">
-        <v>433.82</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8184,10 +8190,10 @@
         <v>775</v>
       </c>
       <c r="B491" t="s">
-        <v>100</v>
+        <v>317</v>
       </c>
       <c r="C491">
-        <v>277.3</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8195,15 +8201,15 @@
         <v>776</v>
       </c>
       <c r="B492" t="s">
-        <v>317</v>
+        <v>777</v>
       </c>
       <c r="C492">
-        <v>188.83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B493" t="s">
         <v>262</v>
@@ -8214,10 +8220,10 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B494" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C494">
         <v>50.26</v>
@@ -8225,10 +8231,10 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B495" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C495">
         <v>50</v>
@@ -8236,10 +8242,10 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B496" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C496">
         <v>33.049999999999997</v>
@@ -8247,18 +8253,18 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B497" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C497">
-        <v>29.770000000000003</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B498" t="s">
         <v>20</v>
@@ -8269,10 +8275,10 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B499" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C499">
         <v>21.27</v>
@@ -8280,10 +8286,10 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B500" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C500">
         <v>17.86</v>
@@ -8291,10 +8297,10 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B501" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C501">
         <v>14.67</v>
@@ -8302,10 +8308,10 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B502" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C502">
         <v>9.7200000000000006</v>
@@ -8313,24 +8319,24 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B503" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="C503">
-        <v>5.55</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B504" t="s">
-        <v>794</v>
+        <v>262</v>
       </c>
       <c r="C504">
-        <v>0.05</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8338,26 +8344,37 @@
         <v>795</v>
       </c>
       <c r="B505" t="s">
-        <v>41</v>
+        <v>796</v>
       </c>
       <c r="C505">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B506" t="s">
-        <v>797</v>
+        <v>41</v>
       </c>
       <c r="C506">
         <v>0.01</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
-      <c r="A508" t="s">
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
         <v>798</v>
+      </c>
+      <c r="B507" t="s">
+        <v>799</v>
+      </c>
+      <c r="C507">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8851625-BA46-488A-9809-2BCD5C2797DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{959A1F05-4965-44F5-8B99-9F21DADCE4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="802">
   <si>
     <t>CONTA</t>
   </si>
@@ -166,18 +166,18 @@
     <t>HELENA</t>
   </si>
   <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
     <t>004589191</t>
   </si>
   <si>
     <t>CONTEL</t>
   </si>
   <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
     <t>004452912</t>
   </si>
   <si>
@@ -211,33 +211,33 @@
     <t>005081833</t>
   </si>
   <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
     <t>004432579</t>
   </si>
   <si>
     <t>ANA</t>
   </si>
   <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
     <t>004488571</t>
   </si>
   <si>
@@ -289,18 +289,18 @@
     <t>SUELY</t>
   </si>
   <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
     <t>005003629</t>
   </si>
   <si>
     <t>ANDRE</t>
   </si>
   <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
     <t>004474776</t>
   </si>
   <si>
@@ -325,15 +325,15 @@
     <t>RENATO</t>
   </si>
   <si>
+    <t>004254210</t>
+  </si>
+  <si>
     <t>004387250</t>
   </si>
   <si>
     <t>MONICA</t>
   </si>
   <si>
-    <t>004254210</t>
-  </si>
-  <si>
     <t>004395314</t>
   </si>
   <si>
@@ -343,15 +343,15 @@
     <t>FILIPE</t>
   </si>
   <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
     <t>004552021</t>
   </si>
   <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
     <t>004490955</t>
   </si>
   <si>
@@ -421,15 +421,15 @@
     <t>ELAINE</t>
   </si>
   <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
     <t>002697806</t>
   </si>
   <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
     <t>005009026</t>
   </si>
   <si>
@@ -445,18 +445,18 @@
     <t>PRISCILLA</t>
   </si>
   <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
     <t>004915243</t>
   </si>
   <si>
     <t>POLO</t>
   </si>
   <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
     <t>004526450</t>
   </si>
   <si>
@@ -514,15 +514,15 @@
     <t>REINALDO</t>
   </si>
   <si>
+    <t>004890544</t>
+  </si>
+  <si>
     <t>004556974</t>
   </si>
   <si>
     <t>KELLY</t>
   </si>
   <si>
-    <t>004890544</t>
-  </si>
-  <si>
     <t>002687737</t>
   </si>
   <si>
@@ -619,15 +619,15 @@
     <t>INTERLAGOS</t>
   </si>
   <si>
+    <t>005092207</t>
+  </si>
+  <si>
     <t>004204500</t>
   </si>
   <si>
     <t>EDWARD</t>
   </si>
   <si>
-    <t>005092207</t>
-  </si>
-  <si>
     <t>004181486</t>
   </si>
   <si>
@@ -652,12 +652,12 @@
     <t>004212933</t>
   </si>
   <si>
+    <t>004335144</t>
+  </si>
+  <si>
     <t>004752534</t>
   </si>
   <si>
-    <t>004335144</t>
-  </si>
-  <si>
     <t>004554411</t>
   </si>
   <si>
@@ -697,15 +697,15 @@
     <t>BLOCO</t>
   </si>
   <si>
+    <t>004515341</t>
+  </si>
+  <si>
     <t>004376853</t>
   </si>
   <si>
     <t>ALBERTO</t>
   </si>
   <si>
-    <t>004515341</t>
-  </si>
-  <si>
     <t>004556853</t>
   </si>
   <si>
@@ -748,18 +748,18 @@
     <t>EULER</t>
   </si>
   <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
     <t>004380749</t>
   </si>
   <si>
     <t>ELEUSE</t>
   </si>
   <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
     <t>004459875</t>
   </si>
   <si>
@@ -805,18 +805,18 @@
     <t>CINTIA</t>
   </si>
   <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
     <t>004381328</t>
   </si>
   <si>
     <t>JOAO</t>
   </si>
   <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
     <t>005101676</t>
   </si>
   <si>
@@ -841,6 +841,9 @@
     <t>BENTO</t>
   </si>
   <si>
+    <t>004751770</t>
+  </si>
+  <si>
     <t>005105172</t>
   </si>
   <si>
@@ -853,9 +856,6 @@
     <t>ANGELICA</t>
   </si>
   <si>
-    <t>004751770</t>
-  </si>
-  <si>
     <t>001731007</t>
   </si>
   <si>
@@ -880,45 +880,45 @@
     <t>WALTER</t>
   </si>
   <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
     <t>004472431</t>
   </si>
   <si>
     <t>LUIS</t>
   </si>
   <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
     <t>004956636</t>
   </si>
   <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
     <t>004404248</t>
   </si>
   <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
     <t>004530494</t>
   </si>
   <si>
+    <t>004950193</t>
+  </si>
+  <si>
     <t>004587525</t>
   </si>
   <si>
     <t>JADER</t>
   </si>
   <si>
-    <t>004950193</t>
-  </si>
-  <si>
     <t>004748761</t>
   </si>
   <si>
@@ -955,33 +955,33 @@
     <t>DIEGO</t>
   </si>
   <si>
+    <t>004435987</t>
+  </si>
+  <si>
     <t>004484207</t>
   </si>
   <si>
     <t>FLAVIA</t>
   </si>
   <si>
-    <t>004435987</t>
-  </si>
-  <si>
     <t>005009992</t>
   </si>
   <si>
     <t>ALINE</t>
   </si>
   <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
     <t>004565146</t>
   </si>
   <si>
     <t>GUSTAVO</t>
   </si>
   <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
     <t>004468717</t>
   </si>
   <si>
@@ -1015,12 +1015,12 @@
     <t>PATRICIA</t>
   </si>
   <si>
+    <t>004346716</t>
+  </si>
+  <si>
     <t>004211922</t>
   </si>
   <si>
-    <t>004346716</t>
-  </si>
-  <si>
     <t>004223226</t>
   </si>
   <si>
@@ -1045,15 +1045,15 @@
     <t>004268684</t>
   </si>
   <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
     <t>004431591</t>
   </si>
   <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
     <t>004276856</t>
   </si>
   <si>
@@ -1108,6 +1108,15 @@
     <t>005135532</t>
   </si>
   <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
     <t>004213943</t>
   </si>
   <si>
@@ -1120,15 +1129,6 @@
     <t>ASPA</t>
   </si>
   <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
     <t>003435941</t>
   </si>
   <si>
@@ -1243,16 +1243,22 @@
     <t>CLISIA</t>
   </si>
   <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
     <t>004584517</t>
   </si>
   <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004872395</t>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
   </si>
   <si>
     <t>001000882</t>
@@ -1261,12 +1267,6 @@
     <t>AYRTON</t>
   </si>
   <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
     <t>004221638</t>
   </si>
   <si>
@@ -1285,6 +1285,12 @@
     <t>MARINA</t>
   </si>
   <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
     <t>004520100</t>
   </si>
   <si>
@@ -1342,15 +1348,15 @@
     <t>004914070</t>
   </si>
   <si>
+    <t>004472386</t>
+  </si>
+  <si>
     <t>004552944</t>
   </si>
   <si>
     <t>YURI</t>
   </si>
   <si>
-    <t>004472386</t>
-  </si>
-  <si>
     <t>004332783</t>
   </si>
   <si>
@@ -1378,12 +1384,12 @@
     <t>004580355</t>
   </si>
   <si>
+    <t>004384131</t>
+  </si>
+  <si>
     <t>002823185</t>
   </si>
   <si>
-    <t>004384131</t>
-  </si>
-  <si>
     <t>004924222</t>
   </si>
   <si>
@@ -1408,10 +1414,22 @@
     <t>EDINARDO</t>
   </si>
   <si>
+    <t>004466221</t>
+  </si>
+  <si>
     <t>004386464</t>
   </si>
   <si>
-    <t>004466221</t>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
   </si>
   <si>
     <t>004207658</t>
@@ -1420,27 +1438,15 @@
     <t>ROBERTO</t>
   </si>
   <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
     <t>004216657</t>
   </si>
   <si>
+    <t>004436055</t>
+  </si>
+  <si>
     <t>004212409</t>
   </si>
   <si>
-    <t>004436055</t>
-  </si>
-  <si>
     <t>004398253</t>
   </si>
   <si>
@@ -1465,15 +1471,15 @@
     <t>LUCIANA</t>
   </si>
   <si>
+    <t>004584982</t>
+  </si>
+  <si>
     <t>004202332</t>
   </si>
   <si>
     <t>TATIANA</t>
   </si>
   <si>
-    <t>004584982</t>
-  </si>
-  <si>
     <t>005105970</t>
   </si>
   <si>
@@ -1591,15 +1597,15 @@
     <t>004335031</t>
   </si>
   <si>
+    <t>004505474</t>
+  </si>
+  <si>
     <t>004511696</t>
   </si>
   <si>
     <t>KRYSCIA</t>
   </si>
   <si>
-    <t>004505474</t>
-  </si>
-  <si>
     <t>004224815</t>
   </si>
   <si>
@@ -1651,6 +1657,12 @@
     <t>RENAN</t>
   </si>
   <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
     <t>004334158</t>
   </si>
   <si>
@@ -1660,27 +1672,21 @@
     <t>004936634</t>
   </si>
   <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
     <t>004479965</t>
   </si>
   <si>
     <t>004405234</t>
   </si>
   <si>
+    <t>005063749</t>
+  </si>
+  <si>
     <t>004467016</t>
   </si>
   <si>
     <t>ISABEL</t>
   </si>
   <si>
-    <t>005063749</t>
-  </si>
-  <si>
     <t>005024046</t>
   </si>
   <si>
@@ -1720,12 +1726,12 @@
     <t>004278212</t>
   </si>
   <si>
+    <t>004754920</t>
+  </si>
+  <si>
     <t>000834301</t>
   </si>
   <si>
-    <t>004754920</t>
-  </si>
-  <si>
     <t>004238164</t>
   </si>
   <si>
@@ -1867,6 +1873,9 @@
     <t>001719494</t>
   </si>
   <si>
+    <t>005169333</t>
+  </si>
+  <si>
     <t>004508504</t>
   </si>
   <si>
@@ -1879,30 +1888,30 @@
     <t>004517080</t>
   </si>
   <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
     <t>004454365</t>
   </si>
   <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
     <t>004242237</t>
   </si>
   <si>
@@ -1960,9 +1969,6 @@
     <t>004972070</t>
   </si>
   <si>
-    <t>005169333</t>
-  </si>
-  <si>
     <t>005009922</t>
   </si>
   <si>
@@ -2062,12 +2068,12 @@
     <t>004752494</t>
   </si>
   <si>
+    <t>004749928</t>
+  </si>
+  <si>
     <t>004497825</t>
   </si>
   <si>
-    <t>004749928</t>
-  </si>
-  <si>
     <t>004398174</t>
   </si>
   <si>
@@ -2080,12 +2086,12 @@
     <t>STELLA</t>
   </si>
   <si>
+    <t>004259659</t>
+  </si>
+  <si>
     <t>005044389</t>
   </si>
   <si>
-    <t>004259659</t>
-  </si>
-  <si>
     <t>005140667</t>
   </si>
   <si>
@@ -2335,6 +2341,9 @@
     <t>004318604</t>
   </si>
   <si>
+    <t>005171652</t>
+  </si>
+  <si>
     <t>004214460</t>
   </si>
   <si>
@@ -2348,12 +2357,6 @@
   </si>
   <si>
     <t>004444605</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
   </si>
   <si>
     <t>004212132</t>
@@ -2787,11 +2790,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C509"/>
+  <dimension ref="A1:C510"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2814,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16349313.07</v>
+        <v>16361285.500000009</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2825,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8162700.29</v>
+        <v>8166521.5300000021</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2836,7 +2837,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7205002.5799999982</v>
+        <v>7204768.8999999994</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2847,7 +2848,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6172615.8300000001</v>
+        <v>6177990.2300000004</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2858,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5669263.2800000003</v>
+        <v>5669636.5499999998</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2869,7 +2870,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4644956.9099999992</v>
+        <v>4647110.790000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2880,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4352073.7799999993</v>
+        <v>4360568.41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2891,7 +2892,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4210113.0999999996</v>
+        <v>4211287.92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2902,7 +2903,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4182867.350000001</v>
+        <v>4184930.7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2913,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>3931321.05</v>
+        <v>3933036.43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2924,7 +2925,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3709403.6899999995</v>
+        <v>3711159.7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2935,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3615304.36</v>
+        <v>3619156.4300000011</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2946,7 +2947,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3551358.1399999997</v>
+        <v>3552987.2199999997</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2957,7 +2958,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3406623.3599999994</v>
+        <v>3411183.8800000004</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2968,7 +2969,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>3278790.6600000006</v>
+        <v>3280143.51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2979,7 +2980,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3233627.25</v>
+        <v>3235044.5799999991</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2990,7 +2991,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3163252.7899999996</v>
+        <v>3164707.689999999</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3001,7 +3002,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3074965.45</v>
+        <v>3076343.98</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3012,7 +3013,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3006127.24</v>
+        <v>3007454.4100000011</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3023,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2928119.88</v>
+        <v>2930680.51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3034,7 +3035,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2786994.18</v>
+        <v>2788195.4800000004</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3045,7 +3046,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2782591.4600000004</v>
+        <v>2783742.3900000006</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3056,7 +3057,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2718674.09</v>
+        <v>2719881.81</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3067,7 +3068,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2524677.4300000002</v>
+        <v>2490655.64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3078,7 +3079,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2488458.2900000005</v>
+        <v>2425408.0700000003</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3089,7 +3090,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2411136.13</v>
+        <v>2416364.2799999998</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3100,7 +3101,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2193318.0299999998</v>
+        <v>2194086.2800000007</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3111,7 +3112,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2191128.91</v>
+        <v>2192036.6399999992</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3122,7 +3123,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2106445.5500000003</v>
+        <v>2108941.1800000002</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3133,7 +3134,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2040453.7599999998</v>
+        <v>2041428.0299999998</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3144,7 +3145,7 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>2032515.3599999999</v>
+        <v>2033432.02</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3155,7 +3156,7 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>2013359.5699999998</v>
+        <v>1992845.3299999998</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3166,7 +3167,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1988455.3900000001</v>
+        <v>1941714.8899999997</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3174,21 +3175,21 @@
         <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>1940465.9199999997</v>
+        <v>1867111.2000000002</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
       <c r="C36">
-        <v>1864603.8000000003</v>
+        <v>1861191.74</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3199,7 +3200,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>1859168.14</v>
+        <v>1810894.2699999998</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3210,7 +3211,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1806566.4700000002</v>
+        <v>1807401.4100000001</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3221,7 +3222,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1797894.73</v>
+        <v>1798690.7300000002</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3232,7 +3233,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1757048.8400000003</v>
+        <v>1757858.8899999997</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3243,7 +3244,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1596733.26</v>
+        <v>1597210.4700000002</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3254,7 +3255,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1572665.87</v>
+        <v>1573352.1400000001</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3265,7 +3266,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1509298.5899999999</v>
+        <v>1511134.69</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3276,7 +3277,7 @@
         <v>77</v>
       </c>
       <c r="C44">
-        <v>1468710.6199999999</v>
+        <v>1469349.0999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3287,7 +3288,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>1444817.76</v>
+        <v>1441118.3800000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3298,7 +3299,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1392296.63</v>
+        <v>1392947.04</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3309,7 +3310,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1378862.73</v>
+        <v>1378927.12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3320,7 +3321,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1375463.35</v>
+        <v>1376002.8000000003</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3331,7 +3332,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1355870.9300000002</v>
+        <v>1357360.2799999998</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3342,7 +3343,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1355618.9</v>
+        <v>1356205.0499999998</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3353,7 +3354,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1334508.97</v>
+        <v>1333788.46</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3364,7 +3365,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1323810.1300000001</v>
+        <v>1324448.7700000003</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3372,21 +3373,21 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C53">
-        <v>1277472.3400000003</v>
+        <v>1278205.21</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
-        <v>86</v>
-      </c>
       <c r="C54">
-        <v>1275909.8800000001</v>
+        <v>1277981.3400000001</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3397,7 +3398,7 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <v>1273511.1299999997</v>
+        <v>1269182.45</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3408,7 +3409,7 @@
         <v>106</v>
       </c>
       <c r="C56">
-        <v>1259438.1400000001</v>
+        <v>1260321.9499999997</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3416,21 +3417,21 @@
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C57">
-        <v>1241682.79</v>
+        <v>1243842.19</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>1235509.3099999998</v>
+        <v>1242259.43</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3441,7 +3442,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1224790.3399999999</v>
+        <v>1225314.3799999999</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3452,7 +3453,7 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>1192396.46</v>
+        <v>1193609.2800000003</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3463,7 +3464,7 @@
         <v>33</v>
       </c>
       <c r="C61">
-        <v>1178620.4999999998</v>
+        <v>1179123.5999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3474,7 +3475,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1173024.6099999999</v>
+        <v>1173482.6200000001</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3485,7 +3486,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1149464.1800000002</v>
+        <v>1149999.71</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3496,7 +3497,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1121782.0699999998</v>
+        <v>1122336.0599999998</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3507,7 +3508,7 @@
         <v>59</v>
       </c>
       <c r="C65">
-        <v>1098806.69</v>
+        <v>1102724.6200000001</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3518,7 +3519,7 @@
         <v>123</v>
       </c>
       <c r="C66">
-        <v>1096955.2799999998</v>
+        <v>1097958.67</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3529,7 +3530,7 @@
         <v>41</v>
       </c>
       <c r="C67">
-        <v>1081546.6400000001</v>
+        <v>1081985.1299999999</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3540,7 +3541,7 @@
         <v>126</v>
       </c>
       <c r="C68">
-        <v>1048274.66</v>
+        <v>1049602.46</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3551,7 +3552,7 @@
         <v>128</v>
       </c>
       <c r="C69">
-        <v>1046426.43</v>
+        <v>1046875.29</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3562,7 +3563,7 @@
         <v>130</v>
       </c>
       <c r="C70">
-        <v>1043869.0800000001</v>
+        <v>1044351.9900000001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3573,7 +3574,7 @@
         <v>132</v>
       </c>
       <c r="C71">
-        <v>1039645.22</v>
+        <v>1040096.8200000001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3581,21 +3582,21 @@
         <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C72">
-        <v>1032004.74</v>
+        <v>1034046.24</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C73">
-        <v>1031499.6900000002</v>
+        <v>1032446.0800000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3606,7 +3607,7 @@
         <v>137</v>
       </c>
       <c r="C74">
-        <v>1027400.3900000001</v>
+        <v>1027843.3300000001</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3617,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>1012554.76</v>
+        <v>1013009.8500000001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3628,7 +3629,7 @@
         <v>140</v>
       </c>
       <c r="C76">
-        <v>986123.12999999989</v>
+        <v>986552.52999999991</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3639,7 +3640,7 @@
         <v>142</v>
       </c>
       <c r="C77">
-        <v>964859.96999999986</v>
+        <v>965446.6399999999</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3650,7 +3651,7 @@
         <v>144</v>
       </c>
       <c r="C78">
-        <v>964366.24</v>
+        <v>965281.16999999981</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3661,7 +3662,7 @@
         <v>146</v>
       </c>
       <c r="C79">
-        <v>958282.54000000015</v>
+        <v>958435.22999999986</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3672,7 +3673,7 @@
         <v>39</v>
       </c>
       <c r="C80">
-        <v>943070.15</v>
+        <v>945844.21000000008</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3683,7 +3684,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>921595.95000000019</v>
+        <v>921987.2699999999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3694,7 +3695,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>905604.88</v>
+        <v>908648.30000000016</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3705,7 +3706,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>891766.39</v>
+        <v>892128.74</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3716,7 +3717,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>891627.11</v>
+        <v>891959.57</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3727,7 +3728,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>882564.02</v>
+        <v>882258.25</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3738,7 +3739,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>865783.47</v>
+        <v>866151.36000000022</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3749,7 +3750,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>865552.84</v>
+        <v>866115.78999999992</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3760,7 +3761,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>854292.91999999993</v>
+        <v>854665.42000000016</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3768,21 +3769,21 @@
         <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>837709.48</v>
+        <v>837625.49999999988</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" t="s">
         <v>166</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
       <c r="C90">
-        <v>832175.10999999975</v>
+        <v>837242.33</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3793,7 +3794,7 @@
         <v>33</v>
       </c>
       <c r="C91">
-        <v>819889.47</v>
+        <v>820627.60000000009</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3804,7 +3805,7 @@
         <v>169</v>
       </c>
       <c r="C92">
-        <v>816737.99</v>
+        <v>817043.69000000018</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3815,7 +3816,7 @@
         <v>26</v>
       </c>
       <c r="C93">
-        <v>810275.25</v>
+        <v>809808.79</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3826,7 +3827,7 @@
         <v>172</v>
       </c>
       <c r="C94">
-        <v>798805.36999999988</v>
+        <v>799144.87</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3837,7 +3838,7 @@
         <v>174</v>
       </c>
       <c r="C95">
-        <v>798660.77</v>
+        <v>799012.94</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3845,10 +3846,10 @@
         <v>175</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C96">
-        <v>790546.61</v>
+        <v>790791.95000000007</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3859,7 +3860,7 @@
         <v>33</v>
       </c>
       <c r="C97">
-        <v>784524.99999999988</v>
+        <v>785494.48</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3870,7 +3871,7 @@
         <v>178</v>
       </c>
       <c r="C98">
-        <v>781544.99999999988</v>
+        <v>778992.46</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3881,7 +3882,7 @@
         <v>180</v>
       </c>
       <c r="C99">
-        <v>757563.9800000001</v>
+        <v>757821.99000000034</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3892,7 +3893,7 @@
         <v>116</v>
       </c>
       <c r="C100">
-        <v>753463.28999999992</v>
+        <v>754342.90999999992</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3903,7 +3904,7 @@
         <v>183</v>
       </c>
       <c r="C101">
-        <v>753337.34</v>
+        <v>753689.9</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3914,7 +3915,7 @@
         <v>33</v>
       </c>
       <c r="C102">
-        <v>727550.08000000007</v>
+        <v>729123.1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3925,7 +3926,7 @@
         <v>61</v>
       </c>
       <c r="C103">
-        <v>720153.76</v>
+        <v>722404.62000000011</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3936,7 +3937,7 @@
         <v>187</v>
       </c>
       <c r="C104">
-        <v>716965.75</v>
+        <v>717273.97</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3947,7 +3948,7 @@
         <v>189</v>
       </c>
       <c r="C105">
-        <v>707257.62000000011</v>
+        <v>708614.00000000012</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3958,7 +3959,7 @@
         <v>191</v>
       </c>
       <c r="C106">
-        <v>705427.89999999991</v>
+        <v>706268.49</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3969,7 +3970,7 @@
         <v>193</v>
       </c>
       <c r="C107">
-        <v>703517.35999999987</v>
+        <v>703803.85000000009</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3980,7 +3981,7 @@
         <v>195</v>
       </c>
       <c r="C108">
-        <v>702002.4</v>
+        <v>702004.24</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3991,7 +3992,7 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>699417.27</v>
+        <v>699743.03000000014</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4002,7 +4003,7 @@
         <v>198</v>
       </c>
       <c r="C110">
-        <v>696661.15</v>
+        <v>696977.08</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4010,21 +4011,21 @@
         <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="C111">
-        <v>684090.62000000023</v>
+        <v>686248.58999999973</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" t="s">
         <v>201</v>
       </c>
-      <c r="B112" t="s">
-        <v>53</v>
-      </c>
       <c r="C112">
-        <v>681665.50999999989</v>
+        <v>684381.31</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4035,7 +4036,7 @@
         <v>203</v>
       </c>
       <c r="C113">
-        <v>680579.12</v>
+        <v>680551.6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4046,7 +4047,7 @@
         <v>205</v>
       </c>
       <c r="C114">
-        <v>677541.64</v>
+        <v>679771.73</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4054,10 +4055,10 @@
         <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C115">
-        <v>673256.59</v>
+        <v>675434.96</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4068,7 +4069,7 @@
         <v>208</v>
       </c>
       <c r="C116">
-        <v>667269.54</v>
+        <v>667992.75000000012</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4079,7 +4080,7 @@
         <v>33</v>
       </c>
       <c r="C117">
-        <v>665434.05999999994</v>
+        <v>666124.61</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4087,10 +4088,10 @@
         <v>210</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C118">
-        <v>649491.24000000011</v>
+        <v>652851.22000000009</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4098,10 +4099,10 @@
         <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C119">
-        <v>648619.03999999992</v>
+        <v>650350.79</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4112,7 +4113,7 @@
         <v>213</v>
       </c>
       <c r="C120">
-        <v>647798.21</v>
+        <v>648601.15</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4123,7 +4124,7 @@
         <v>39</v>
       </c>
       <c r="C121">
-        <v>639202.65000000014</v>
+        <v>643939.52</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4134,7 +4135,7 @@
         <v>216</v>
       </c>
       <c r="C122">
-        <v>638070.25999999989</v>
+        <v>638895.15999999992</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4145,7 +4146,7 @@
         <v>187</v>
       </c>
       <c r="C123">
-        <v>633356.19999999995</v>
+        <v>636264.62000000011</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4156,7 +4157,7 @@
         <v>219</v>
       </c>
       <c r="C124">
-        <v>626889.92999999993</v>
+        <v>627168.69000000006</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4167,7 +4168,7 @@
         <v>53</v>
       </c>
       <c r="C125">
-        <v>624400.02</v>
+        <v>625816.04</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4178,7 +4179,7 @@
         <v>222</v>
       </c>
       <c r="C126">
-        <v>618831.99</v>
+        <v>619096.13000000012</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4189,7 +4190,7 @@
         <v>224</v>
       </c>
       <c r="C127">
-        <v>617549.66</v>
+        <v>618664.27</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4197,21 +4198,21 @@
         <v>225</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="C128">
-        <v>617458.25</v>
+        <v>610072.48</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" t="s">
         <v>227</v>
       </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
       <c r="C129">
-        <v>609780.61</v>
+        <v>608964.36999999988</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4222,7 +4223,7 @@
         <v>229</v>
       </c>
       <c r="C130">
-        <v>579655.34</v>
+        <v>581994.44000000018</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4233,7 +4234,7 @@
         <v>231</v>
       </c>
       <c r="C131">
-        <v>577829.24</v>
+        <v>578624.81000000006</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4244,7 +4245,7 @@
         <v>233</v>
       </c>
       <c r="C132">
-        <v>574812.86</v>
+        <v>575074.06000000006</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4255,7 +4256,7 @@
         <v>235</v>
       </c>
       <c r="C133">
-        <v>573782.57999999996</v>
+        <v>574050.23</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4266,7 +4267,7 @@
         <v>39</v>
       </c>
       <c r="C134">
-        <v>567251.35</v>
+        <v>567507.87000000011</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4277,7 +4278,7 @@
         <v>10</v>
       </c>
       <c r="C135">
-        <v>564176.82999999996</v>
+        <v>564425.84000000008</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4288,7 +4289,7 @@
         <v>239</v>
       </c>
       <c r="C136">
-        <v>563336.57000000007</v>
+        <v>563602.87000000011</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4299,7 +4300,7 @@
         <v>241</v>
       </c>
       <c r="C137">
-        <v>555444.87999999989</v>
+        <v>555707.74999999988</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4310,7 +4311,7 @@
         <v>243</v>
       </c>
       <c r="C138">
-        <v>545407.65999999992</v>
+        <v>548149.67999999993</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4321,7 +4322,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>544714.58000000007</v>
+        <v>545678.26</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4332,7 +4333,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>538036.55999999994</v>
+        <v>538272.62999999989</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4343,7 +4344,7 @@
         <v>249</v>
       </c>
       <c r="C141">
-        <v>535567.34</v>
+        <v>535924.66</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4354,7 +4355,7 @@
         <v>251</v>
       </c>
       <c r="C142">
-        <v>532343.36</v>
+        <v>532767.80000000005</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4365,7 +4366,7 @@
         <v>253</v>
       </c>
       <c r="C143">
-        <v>531724.1</v>
+        <v>531956.93000000005</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4376,7 +4377,7 @@
         <v>213</v>
       </c>
       <c r="C144">
-        <v>527972.41999999993</v>
+        <v>528202.02</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4387,7 +4388,7 @@
         <v>256</v>
       </c>
       <c r="C145">
-        <v>517852.33</v>
+        <v>517766.75999999995</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4398,7 +4399,7 @@
         <v>258</v>
       </c>
       <c r="C146">
-        <v>515582.14999999991</v>
+        <v>517005.84</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4409,7 +4410,7 @@
         <v>260</v>
       </c>
       <c r="C147">
-        <v>514377.08000000013</v>
+        <v>514822.74</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4420,7 +4421,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>511487.81999999995</v>
+        <v>514536.71999999991</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4431,7 +4432,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>511227.76999999996</v>
+        <v>512624.98</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4442,7 +4443,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>505998.03999999992</v>
+        <v>506248.35</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4453,7 +4454,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>500194.14999999997</v>
+        <v>500416.49000000005</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4464,7 +4465,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>492485.75000000012</v>
+        <v>493071.19999999995</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4475,7 +4476,7 @@
         <v>272</v>
       </c>
       <c r="C153">
-        <v>484855.53</v>
+        <v>488040.61</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4483,32 +4484,32 @@
         <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="C154">
-        <v>483307.49</v>
+        <v>483762.05999999994</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" t="s">
         <v>275</v>
       </c>
-      <c r="B155" t="s">
-        <v>276</v>
-      </c>
       <c r="C155">
-        <v>481035.07999999996</v>
+        <v>483497.66000000003</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" t="s">
         <v>277</v>
       </c>
-      <c r="B156" t="s">
-        <v>14</v>
-      </c>
       <c r="C156">
-        <v>480605.86</v>
+        <v>481236.39</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4519,7 +4520,7 @@
         <v>41</v>
       </c>
       <c r="C157">
-        <v>477380.85</v>
+        <v>477593.45</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4530,7 +4531,7 @@
         <v>280</v>
       </c>
       <c r="C158">
-        <v>463574.89999999997</v>
+        <v>463842.44000000006</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4541,7 +4542,7 @@
         <v>20</v>
       </c>
       <c r="C159">
-        <v>460572.93</v>
+        <v>463041.94999999995</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4552,7 +4553,7 @@
         <v>283</v>
       </c>
       <c r="C160">
-        <v>457570.77999999997</v>
+        <v>455766.76000000007</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4563,7 +4564,7 @@
         <v>285</v>
       </c>
       <c r="C161">
-        <v>453333.56</v>
+        <v>453545.49999999994</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4574,7 +4575,7 @@
         <v>287</v>
       </c>
       <c r="C162">
-        <v>446524.32999999996</v>
+        <v>447943.28999999992</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4582,21 +4583,21 @@
         <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>289</v>
+        <v>126</v>
       </c>
       <c r="C163">
-        <v>446499.69999999995</v>
+        <v>447914.48000000004</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" t="s">
         <v>290</v>
       </c>
-      <c r="B164" t="s">
-        <v>126</v>
-      </c>
       <c r="C164">
-        <v>444885.15</v>
+        <v>446743.55999999994</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4607,7 +4608,7 @@
         <v>126</v>
       </c>
       <c r="C165">
-        <v>443124.99</v>
+        <v>443321.8</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4615,21 +4616,21 @@
         <v>292</v>
       </c>
       <c r="B166" t="s">
-        <v>61</v>
+        <v>293</v>
       </c>
       <c r="C166">
-        <v>426217.18999999994</v>
+        <v>426850.98999999987</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B167" t="s">
-        <v>294</v>
+        <v>61</v>
       </c>
       <c r="C167">
-        <v>425887.31000000006</v>
+        <v>426411.3</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4640,7 +4641,7 @@
         <v>231</v>
       </c>
       <c r="C168">
-        <v>423204.35</v>
+        <v>423358.52999999997</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4648,21 +4649,21 @@
         <v>296</v>
       </c>
       <c r="B169" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="C169">
-        <v>421348.42000000004</v>
+        <v>421576.03999999992</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>297</v>
+      </c>
+      <c r="B170" t="s">
         <v>298</v>
       </c>
-      <c r="B170" t="s">
-        <v>195</v>
-      </c>
       <c r="C170">
-        <v>420832.73</v>
+        <v>421524.15</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4673,7 +4674,7 @@
         <v>193</v>
       </c>
       <c r="C171">
-        <v>419907.42000000004</v>
+        <v>420331.41</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4684,7 +4685,7 @@
         <v>301</v>
       </c>
       <c r="C172">
-        <v>417792.95999999996</v>
+        <v>417975.25</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4695,7 +4696,7 @@
         <v>303</v>
       </c>
       <c r="C173">
-        <v>411023.2</v>
+        <v>411201.80999999994</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4706,7 +4707,7 @@
         <v>305</v>
       </c>
       <c r="C174">
-        <v>406100.96</v>
+        <v>406893.17</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4717,7 +4718,7 @@
         <v>307</v>
       </c>
       <c r="C175">
-        <v>404239.48</v>
+        <v>404735.26</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4728,7 +4729,7 @@
         <v>33</v>
       </c>
       <c r="C176">
-        <v>403614.71</v>
+        <v>403785.02999999997</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4739,7 +4740,7 @@
         <v>310</v>
       </c>
       <c r="C177">
-        <v>398296.99999999994</v>
+        <v>398467.48</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4747,21 +4748,21 @@
         <v>311</v>
       </c>
       <c r="B178" t="s">
-        <v>312</v>
+        <v>86</v>
       </c>
       <c r="C178">
-        <v>391933.24999999988</v>
+        <v>393003.07999999996</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>312</v>
+      </c>
+      <c r="B179" t="s">
         <v>313</v>
       </c>
-      <c r="B179" t="s">
-        <v>86</v>
-      </c>
       <c r="C179">
-        <v>390600.96000000002</v>
+        <v>392804.27999999991</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4772,7 +4773,7 @@
         <v>315</v>
       </c>
       <c r="C180">
-        <v>390167.92999999993</v>
+        <v>392521.23</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4783,7 +4784,7 @@
         <v>317</v>
       </c>
       <c r="C181">
-        <v>384927.43</v>
+        <v>385683.89000000007</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4794,7 +4795,7 @@
         <v>319</v>
       </c>
       <c r="C182">
-        <v>384426.73</v>
+        <v>385447.12</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4805,7 +4806,7 @@
         <v>321</v>
       </c>
       <c r="C183">
-        <v>380990.25</v>
+        <v>381845.88999999996</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4813,10 +4814,10 @@
         <v>322</v>
       </c>
       <c r="B184" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C184">
-        <v>378215.86</v>
+        <v>379065.83999999997</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4827,7 +4828,7 @@
         <v>324</v>
       </c>
       <c r="C185">
-        <v>372960.53999999992</v>
+        <v>373788.84</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4838,7 +4839,7 @@
         <v>326</v>
       </c>
       <c r="C186">
-        <v>370301.98</v>
+        <v>370507.87000000005</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4849,7 +4850,7 @@
         <v>328</v>
       </c>
       <c r="C187">
-        <v>367939.49000000017</v>
+        <v>368107.14</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4860,7 +4861,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>367262.38999999996</v>
+        <v>367421.27999999997</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4868,10 +4869,10 @@
         <v>331</v>
       </c>
       <c r="B189" t="s">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="C189">
-        <v>363383.98</v>
+        <v>365996.48</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4879,10 +4880,10 @@
         <v>332</v>
       </c>
       <c r="B190" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="C190">
-        <v>363312.18</v>
+        <v>363862.19000000006</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4893,7 +4894,7 @@
         <v>334</v>
       </c>
       <c r="C191">
-        <v>362182.57</v>
+        <v>362336.06</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4904,7 +4905,7 @@
         <v>336</v>
       </c>
       <c r="C192">
-        <v>359022.63</v>
+        <v>359172.79000000004</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4915,7 +4916,7 @@
         <v>39</v>
       </c>
       <c r="C193">
-        <v>358845.8</v>
+        <v>358999.87</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4926,7 +4927,7 @@
         <v>339</v>
       </c>
       <c r="C194">
-        <v>358817.23</v>
+        <v>358991.07</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4937,7 +4938,7 @@
         <v>330</v>
       </c>
       <c r="C195">
-        <v>357987.58</v>
+        <v>358136.91000000003</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4945,21 +4946,21 @@
         <v>341</v>
       </c>
       <c r="B196" t="s">
-        <v>71</v>
+        <v>342</v>
       </c>
       <c r="C196">
-        <v>356676.98</v>
+        <v>357038.64</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B197" t="s">
-        <v>343</v>
+        <v>69</v>
       </c>
       <c r="C197">
-        <v>354332.98</v>
+        <v>356828.36000000004</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4970,7 +4971,7 @@
         <v>345</v>
       </c>
       <c r="C198">
-        <v>351283.25999999995</v>
+        <v>351438.07</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4981,7 +4982,7 @@
         <v>347</v>
       </c>
       <c r="C199">
-        <v>348370.89</v>
+        <v>348519.94000000006</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4989,10 +4990,10 @@
         <v>348</v>
       </c>
       <c r="B200" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C200">
-        <v>347217.13</v>
+        <v>347985.02999999997</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5003,7 +5004,7 @@
         <v>350</v>
       </c>
       <c r="C201">
-        <v>345400.95</v>
+        <v>346164.48999999993</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5014,7 +5015,7 @@
         <v>352</v>
       </c>
       <c r="C202">
-        <v>344775.98999999993</v>
+        <v>344934.23</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5025,7 +5026,7 @@
         <v>354</v>
       </c>
       <c r="C203">
-        <v>343133.34</v>
+        <v>344794.49</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5036,7 +5037,7 @@
         <v>356</v>
       </c>
       <c r="C204">
-        <v>342132.2</v>
+        <v>342419.9</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5047,7 +5048,7 @@
         <v>358</v>
       </c>
       <c r="C205">
-        <v>340936.63999999996</v>
+        <v>341315.75</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5058,7 +5059,7 @@
         <v>360</v>
       </c>
       <c r="C206">
-        <v>340575.4</v>
+        <v>341025.46</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5069,7 +5070,7 @@
         <v>239</v>
       </c>
       <c r="C207">
-        <v>340137.29</v>
+        <v>340270.08000000002</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5077,43 +5078,43 @@
         <v>362</v>
       </c>
       <c r="B208" t="s">
-        <v>363</v>
+        <v>103</v>
       </c>
       <c r="C208">
-        <v>333603.82</v>
+        <v>335024.87</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>363</v>
+      </c>
+      <c r="B209" t="s">
         <v>364</v>
       </c>
-      <c r="B209" t="s">
-        <v>365</v>
-      </c>
       <c r="C209">
-        <v>333323.37</v>
+        <v>333906.36</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
+        <v>365</v>
+      </c>
+      <c r="B210" t="s">
         <v>366</v>
       </c>
-      <c r="B210" t="s">
-        <v>367</v>
-      </c>
       <c r="C210">
-        <v>333154.07999999996</v>
+        <v>333744.88000000006</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
+        <v>367</v>
+      </c>
+      <c r="B211" t="s">
         <v>368</v>
       </c>
-      <c r="B211" t="s">
-        <v>102</v>
-      </c>
       <c r="C211">
-        <v>332857.97000000003</v>
+        <v>333457.19000000006</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5124,7 +5125,7 @@
         <v>370</v>
       </c>
       <c r="C212">
-        <v>331238.02999999997</v>
+        <v>331382.06</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5135,7 +5136,7 @@
         <v>372</v>
       </c>
       <c r="C213">
-        <v>328700.3</v>
+        <v>328842.99</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5146,7 +5147,7 @@
         <v>374</v>
       </c>
       <c r="C214">
-        <v>325050.36999999994</v>
+        <v>325772.42000000004</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5157,7 +5158,7 @@
         <v>376</v>
       </c>
       <c r="C215">
-        <v>323120.07000000007</v>
+        <v>323249.71000000002</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5168,7 +5169,7 @@
         <v>378</v>
       </c>
       <c r="C216">
-        <v>322678.27</v>
+        <v>322813.67</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5179,7 +5180,7 @@
         <v>33</v>
       </c>
       <c r="C217">
-        <v>316316.03000000003</v>
+        <v>316452.51999999996</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5190,7 +5191,7 @@
         <v>356</v>
       </c>
       <c r="C218">
-        <v>312319.85000000003</v>
+        <v>312448.14</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5201,7 +5202,7 @@
         <v>86</v>
       </c>
       <c r="C219">
-        <v>308326</v>
+        <v>308619.41000000003</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5212,7 +5213,7 @@
         <v>383</v>
       </c>
       <c r="C220">
-        <v>307321.94999999995</v>
+        <v>307454.83999999997</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5223,7 +5224,7 @@
         <v>354</v>
       </c>
       <c r="C221">
-        <v>306146.80999999994</v>
+        <v>306297.26999999996</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5234,7 +5235,7 @@
         <v>386</v>
       </c>
       <c r="C222">
-        <v>305933.76</v>
+        <v>306080.78999999998</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5245,7 +5246,7 @@
         <v>354</v>
       </c>
       <c r="C223">
-        <v>302423.48999999993</v>
+        <v>302439.76</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5253,10 +5254,10 @@
         <v>388</v>
       </c>
       <c r="B224" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C224">
-        <v>300054.30999999994</v>
+        <v>300314.33999999997</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5267,7 +5268,7 @@
         <v>390</v>
       </c>
       <c r="C225">
-        <v>299529.46000000002</v>
+        <v>299563.67</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5278,7 +5279,7 @@
         <v>157</v>
       </c>
       <c r="C226">
-        <v>292026.12</v>
+        <v>292152.05999999994</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5289,7 +5290,7 @@
         <v>53</v>
       </c>
       <c r="C227">
-        <v>288545.48</v>
+        <v>288626.93</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5300,7 +5301,7 @@
         <v>394</v>
       </c>
       <c r="C228">
-        <v>288396.51000000007</v>
+        <v>288525.24000000005</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5308,10 +5309,10 @@
         <v>395</v>
       </c>
       <c r="B229" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C229">
-        <v>287338.76</v>
+        <v>287972.10999999993</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5322,7 +5323,7 @@
         <v>397</v>
       </c>
       <c r="C230">
-        <v>282216.43</v>
+        <v>282347.5</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5333,7 +5334,7 @@
         <v>272</v>
       </c>
       <c r="C231">
-        <v>280700.77</v>
+        <v>281072.08</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5344,7 +5345,7 @@
         <v>400</v>
       </c>
       <c r="C232">
-        <v>280445.47000000003</v>
+        <v>280565.43999999994</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5355,7 +5356,7 @@
         <v>402</v>
       </c>
       <c r="C233">
-        <v>277775.29000000004</v>
+        <v>278396.61999999994</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5366,7 +5367,7 @@
         <v>404</v>
       </c>
       <c r="C234">
-        <v>277519.79000000004</v>
+        <v>277646.03999999998</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5377,7 +5378,7 @@
         <v>406</v>
       </c>
       <c r="C235">
-        <v>269336.31</v>
+        <v>269467.92999999993</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5385,10 +5386,10 @@
         <v>407</v>
       </c>
       <c r="B236" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C236">
-        <v>266776.12999999995</v>
+        <v>267358.66000000003</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5399,7 +5400,7 @@
         <v>409</v>
       </c>
       <c r="C237">
-        <v>266587.98000000004</v>
+        <v>267180.94000000012</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5407,10 +5408,10 @@
         <v>410</v>
       </c>
       <c r="B238" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="C238">
-        <v>266499.82</v>
+        <v>267139.65000000008</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5421,7 +5422,7 @@
         <v>412</v>
       </c>
       <c r="C239">
-        <v>265041.35000000003</v>
+        <v>265456.13999999996</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5432,7 +5433,7 @@
         <v>414</v>
       </c>
       <c r="C240">
-        <v>264866.96999999997</v>
+        <v>265155.12999999995</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5443,7 +5444,7 @@
         <v>416</v>
       </c>
       <c r="C241">
-        <v>261903.03000000009</v>
+        <v>262251.74</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5454,7 +5455,7 @@
         <v>418</v>
       </c>
       <c r="C242">
-        <v>259386.61</v>
+        <v>259498.02000000008</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5465,7 +5466,7 @@
         <v>420</v>
       </c>
       <c r="C243">
-        <v>255822.14999999997</v>
+        <v>255935.74999999997</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5476,7 +5477,7 @@
         <v>422</v>
       </c>
       <c r="C244">
-        <v>248177.07000000004</v>
+        <v>250100.04</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5487,7 +5488,7 @@
         <v>424</v>
       </c>
       <c r="C245">
-        <v>247828.09999999998</v>
+        <v>248735.08000000002</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5498,7 +5499,7 @@
         <v>426</v>
       </c>
       <c r="C246">
-        <v>247741.93</v>
+        <v>248380.64</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5509,7 +5510,7 @@
         <v>428</v>
       </c>
       <c r="C247">
-        <v>246144.38</v>
+        <v>248101.51999999996</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5520,7 +5521,7 @@
         <v>430</v>
       </c>
       <c r="C248">
-        <v>242535.64</v>
+        <v>246311.71000000002</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5531,7 +5532,7 @@
         <v>432</v>
       </c>
       <c r="C249">
-        <v>242431.55</v>
+        <v>243075.38999999998</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5542,7 +5543,7 @@
         <v>434</v>
       </c>
       <c r="C250">
-        <v>240807.48</v>
+        <v>242547.23</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5553,7 +5554,7 @@
         <v>436</v>
       </c>
       <c r="C251">
-        <v>240620.05</v>
+        <v>241078.31</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5564,7 +5565,7 @@
         <v>438</v>
       </c>
       <c r="C252">
-        <v>240340.22999999998</v>
+        <v>240725.05000000002</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5572,21 +5573,21 @@
         <v>439</v>
       </c>
       <c r="B253" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="C253">
-        <v>238714.44999999998</v>
+        <v>240436.47</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B254" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="C254">
-        <v>235339.54</v>
+        <v>239058.27000000002</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5597,7 +5598,7 @@
         <v>195</v>
       </c>
       <c r="C255">
-        <v>235327.41</v>
+        <v>235836.51</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5608,7 +5609,7 @@
         <v>444</v>
       </c>
       <c r="C256">
-        <v>233707.25999999995</v>
+        <v>235458.19</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5619,7 +5620,7 @@
         <v>446</v>
       </c>
       <c r="C257">
-        <v>232778.16</v>
+        <v>234018.51</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5630,7 +5631,7 @@
         <v>448</v>
       </c>
       <c r="C258">
-        <v>227888.87</v>
+        <v>232870.49</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5641,7 +5642,7 @@
         <v>450</v>
       </c>
       <c r="C259">
-        <v>227413.43000000002</v>
+        <v>227984.92</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5649,43 +5650,43 @@
         <v>451</v>
       </c>
       <c r="B260" t="s">
-        <v>116</v>
+        <v>452</v>
       </c>
       <c r="C260">
-        <v>222378.07</v>
+        <v>227508.12</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B261" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C261">
-        <v>221168.34000000003</v>
+        <v>222645.19</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B262" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C262">
-        <v>220858.50999999998</v>
+        <v>222242.47000000003</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B263" t="s">
-        <v>455</v>
+        <v>149</v>
       </c>
       <c r="C263">
-        <v>218962.86000000004</v>
+        <v>221613.01999999996</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5696,7 +5697,7 @@
         <v>457</v>
       </c>
       <c r="C264">
-        <v>218388.91</v>
+        <v>219068.38000000003</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5704,32 +5705,32 @@
         <v>458</v>
       </c>
       <c r="B265" t="s">
-        <v>307</v>
+        <v>459</v>
       </c>
       <c r="C265">
-        <v>217397.46</v>
+        <v>218645.36000000002</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B266" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C266">
-        <v>214571.30999999997</v>
+        <v>217684.54</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B267" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
       <c r="C267">
-        <v>214124.98000000004</v>
+        <v>215961.31</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5737,32 +5738,32 @@
         <v>462</v>
       </c>
       <c r="B268" t="s">
-        <v>73</v>
+        <v>463</v>
       </c>
       <c r="C268">
-        <v>209532.52000000002</v>
+        <v>214217.71</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B269" t="s">
         <v>285</v>
       </c>
       <c r="C269">
-        <v>208677.34</v>
+        <v>212801.92000000001</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B270" t="s">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="C270">
-        <v>208069.97</v>
+        <v>209993.12000000002</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5773,7 +5774,7 @@
         <v>467</v>
       </c>
       <c r="C271">
-        <v>207933.46000000002</v>
+        <v>209392.04</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5784,7 +5785,7 @@
         <v>469</v>
       </c>
       <c r="C272">
-        <v>207826.75</v>
+        <v>208405.63000000003</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5792,54 +5793,54 @@
         <v>470</v>
       </c>
       <c r="B273" t="s">
-        <v>262</v>
+        <v>471</v>
       </c>
       <c r="C273">
-        <v>206493.4</v>
+        <v>208158.83000000002</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B274" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="C274">
-        <v>204906.65</v>
+        <v>206890.63</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B275" t="s">
         <v>86</v>
       </c>
       <c r="C275">
-        <v>203402.01000000004</v>
+        <v>205960.74</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B276" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="C276">
-        <v>202217.99000000002</v>
+        <v>205575.71000000005</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B277" t="s">
-        <v>475</v>
+        <v>241</v>
       </c>
       <c r="C277">
-        <v>200108.59999999998</v>
+        <v>203774.79</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5850,7 +5851,7 @@
         <v>477</v>
       </c>
       <c r="C278">
-        <v>198509.22000000003</v>
+        <v>200377.68000000002</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5858,21 +5859,21 @@
         <v>478</v>
       </c>
       <c r="B279" t="s">
-        <v>272</v>
+        <v>479</v>
       </c>
       <c r="C279">
-        <v>193273.01</v>
+        <v>198877.08000000002</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B280" t="s">
-        <v>480</v>
+        <v>272</v>
       </c>
       <c r="C280">
-        <v>192046.08000000002</v>
+        <v>193353.94000000003</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5883,7 +5884,7 @@
         <v>482</v>
       </c>
       <c r="C281">
-        <v>191586.99</v>
+        <v>192133.24</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5894,7 +5895,7 @@
         <v>53</v>
       </c>
       <c r="C282">
-        <v>191538.09</v>
+        <v>191949.54</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5902,21 +5903,21 @@
         <v>484</v>
       </c>
       <c r="B283" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="C283">
-        <v>191344.28</v>
+        <v>191669.00000000003</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B284" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="C284">
-        <v>189476.48000000004</v>
+        <v>191431.18</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5924,32 +5925,32 @@
         <v>487</v>
       </c>
       <c r="B285" t="s">
-        <v>41</v>
+        <v>488</v>
       </c>
       <c r="C285">
-        <v>188547.61999999997</v>
+        <v>189634.23</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B286" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C286">
-        <v>185956.05</v>
+        <v>188919.57</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B287" t="s">
-        <v>490</v>
+        <v>39</v>
       </c>
       <c r="C287">
-        <v>179253.27</v>
+        <v>186374.42</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5960,7 +5961,7 @@
         <v>492</v>
       </c>
       <c r="C288">
-        <v>177538.7</v>
+        <v>179634.06</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5968,32 +5969,32 @@
         <v>493</v>
       </c>
       <c r="B289" t="s">
-        <v>394</v>
+        <v>494</v>
       </c>
       <c r="C289">
-        <v>173163.72</v>
+        <v>177625.03</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B290" t="s">
-        <v>73</v>
+        <v>394</v>
       </c>
       <c r="C290">
-        <v>173127.49</v>
+        <v>173497.87</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B291" t="s">
-        <v>496</v>
+        <v>73</v>
       </c>
       <c r="C291">
-        <v>171559.17</v>
+        <v>173205.41</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6004,7 +6005,7 @@
         <v>498</v>
       </c>
       <c r="C292">
-        <v>171236.46000000002</v>
+        <v>171940.28</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6015,7 +6016,7 @@
         <v>500</v>
       </c>
       <c r="C293">
-        <v>168943.38</v>
+        <v>171306.11000000002</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6023,32 +6024,32 @@
         <v>501</v>
       </c>
       <c r="B294" t="s">
-        <v>116</v>
+        <v>502</v>
       </c>
       <c r="C294">
-        <v>166395.6</v>
+        <v>169311.98999999996</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B295" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C295">
-        <v>163795.15</v>
+        <v>166466.97999999998</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B296" t="s">
-        <v>504</v>
+        <v>126</v>
       </c>
       <c r="C296">
-        <v>163597.47</v>
+        <v>163960.59</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6056,21 +6057,21 @@
         <v>505</v>
       </c>
       <c r="B297" t="s">
-        <v>109</v>
+        <v>506</v>
       </c>
       <c r="C297">
-        <v>162180.94999999998</v>
+        <v>163631.72999999998</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B298" t="s">
-        <v>507</v>
+        <v>108</v>
       </c>
       <c r="C298">
-        <v>160579.03000000003</v>
+        <v>162537.37</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6081,7 +6082,7 @@
         <v>509</v>
       </c>
       <c r="C299">
-        <v>160262.06</v>
+        <v>160649.96</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6092,7 +6093,7 @@
         <v>511</v>
       </c>
       <c r="C300">
-        <v>159391.57</v>
+        <v>160326.84</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6103,7 +6104,7 @@
         <v>513</v>
       </c>
       <c r="C301">
-        <v>159071.80000000002</v>
+        <v>159456.06</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6114,7 +6115,7 @@
         <v>515</v>
       </c>
       <c r="C302">
-        <v>157503.12</v>
+        <v>159138.88</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6122,87 +6123,87 @@
         <v>516</v>
       </c>
       <c r="B303" t="s">
-        <v>73</v>
+        <v>517</v>
       </c>
       <c r="C303">
-        <v>157088.02000000002</v>
+        <v>157503.99</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B304" t="s">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="C304">
-        <v>156917.69999999998</v>
+        <v>157154.59999999998</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B305" t="s">
-        <v>64</v>
+        <v>330</v>
       </c>
       <c r="C305">
-        <v>156516.05000000002</v>
+        <v>156995.44</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B306" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C306">
-        <v>156260.11000000002</v>
+        <v>156582.17000000001</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B307" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C307">
-        <v>155465.54</v>
+        <v>156330.99</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B308" t="s">
-        <v>434</v>
+        <v>71</v>
       </c>
       <c r="C308">
-        <v>155008.35</v>
+        <v>155530.55000000002</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B309" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
       <c r="C309">
-        <v>153223.44</v>
+        <v>155009.79</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B310" t="s">
-        <v>524</v>
+        <v>31</v>
       </c>
       <c r="C310">
-        <v>151468.97</v>
+        <v>153290.29999999999</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6213,7 +6214,7 @@
         <v>249</v>
       </c>
       <c r="C311">
-        <v>151262.74</v>
+        <v>151593.66999999998</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6221,32 +6222,32 @@
         <v>526</v>
       </c>
       <c r="B312" t="s">
-        <v>41</v>
+        <v>527</v>
       </c>
       <c r="C312">
-        <v>148781.85</v>
+        <v>151545.42999999996</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B313" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="C313">
-        <v>146647.46000000002</v>
+        <v>148846.79</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B314" t="s">
-        <v>529</v>
+        <v>352</v>
       </c>
       <c r="C314">
-        <v>145800.01999999999</v>
+        <v>146745.59999999998</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6254,43 +6255,43 @@
         <v>530</v>
       </c>
       <c r="B315" t="s">
-        <v>432</v>
+        <v>531</v>
       </c>
       <c r="C315">
-        <v>144955.04</v>
+        <v>145866.53000000003</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B316" t="s">
-        <v>239</v>
+        <v>434</v>
       </c>
       <c r="C316">
-        <v>144364.19999999998</v>
+        <v>145152.25999999998</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B317" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="C317">
-        <v>143774.94</v>
+        <v>144425.59</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B318" t="s">
-        <v>534</v>
+        <v>61</v>
       </c>
       <c r="C318">
-        <v>140586.25999999998</v>
+        <v>143888.91</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6301,7 +6302,7 @@
         <v>536</v>
       </c>
       <c r="C319">
-        <v>139473.40999999997</v>
+        <v>140885.12</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6312,7 +6313,7 @@
         <v>538</v>
       </c>
       <c r="C320">
-        <v>138985.71000000002</v>
+        <v>139529.68000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6323,7 +6324,7 @@
         <v>540</v>
       </c>
       <c r="C321">
-        <v>138959.22</v>
+        <v>139075.59</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6334,7 +6335,7 @@
         <v>542</v>
       </c>
       <c r="C322">
-        <v>137283.12</v>
+        <v>139019.15000000002</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6345,7 +6346,7 @@
         <v>544</v>
       </c>
       <c r="C323">
-        <v>137072.93</v>
+        <v>138173.69999999998</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6353,54 +6354,54 @@
         <v>545</v>
       </c>
       <c r="B324" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C324">
-        <v>137023.58000000002</v>
+        <v>137201.59000000003</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B325" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C325">
-        <v>137013.25999999998</v>
+        <v>137134.16999999998</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B326" t="s">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="C326">
-        <v>134666.44</v>
+        <v>137093.19</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B327" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="C327">
-        <v>131427.44999999998</v>
+        <v>134724.13999999998</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B328" t="s">
-        <v>551</v>
+        <v>352</v>
       </c>
       <c r="C328">
-        <v>128514.31000000003</v>
+        <v>132278.50999999998</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6411,7 +6412,7 @@
         <v>189</v>
       </c>
       <c r="C329">
-        <v>127207.27</v>
+        <v>129809.67999999998</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6419,21 +6420,21 @@
         <v>553</v>
       </c>
       <c r="B330" t="s">
-        <v>422</v>
+        <v>554</v>
       </c>
       <c r="C330">
-        <v>126828.14999999998</v>
+        <v>128097.82999999999</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B331" t="s">
-        <v>555</v>
+        <v>424</v>
       </c>
       <c r="C331">
-        <v>126427.74</v>
+        <v>126999.28999999998</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6444,7 +6445,7 @@
         <v>557</v>
       </c>
       <c r="C332">
-        <v>124216.03</v>
+        <v>126481.64000000001</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6455,7 +6456,7 @@
         <v>559</v>
       </c>
       <c r="C333">
-        <v>122015.10999999999</v>
+        <v>125144.18</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6466,7 +6467,7 @@
         <v>561</v>
       </c>
       <c r="C334">
-        <v>121046.85000000003</v>
+        <v>122068.08999999998</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6474,21 +6475,21 @@
         <v>562</v>
       </c>
       <c r="B335" t="s">
-        <v>432</v>
+        <v>563</v>
       </c>
       <c r="C335">
-        <v>121001.39</v>
+        <v>121103.22</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B336" t="s">
-        <v>564</v>
+        <v>434</v>
       </c>
       <c r="C336">
-        <v>120144.31</v>
+        <v>121054.45999999999</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6496,65 +6497,65 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="C337">
-        <v>119204.03</v>
+        <v>120416.44</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B338" t="s">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="C338">
-        <v>117942.54000000001</v>
+        <v>119440.59000000001</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B339" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C339">
-        <v>117904.95000000001</v>
+        <v>118669.12000000002</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B340" t="s">
-        <v>26</v>
+        <v>469</v>
       </c>
       <c r="C340">
-        <v>117836.86000000003</v>
+        <v>117991.47</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B341" t="s">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="C341">
-        <v>116448.90000000001</v>
+        <v>117889.94</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B342" t="s">
-        <v>571</v>
+        <v>256</v>
       </c>
       <c r="C342">
-        <v>116109.55</v>
+        <v>116508.1</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6562,32 +6563,32 @@
         <v>572</v>
       </c>
       <c r="B343" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C343">
-        <v>115128.75</v>
+        <v>116159.84</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B344" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C344">
-        <v>112750.38</v>
+        <v>115170.51</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B345" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="C345">
-        <v>112237.27</v>
+        <v>112876.07999999999</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6598,7 +6599,7 @@
         <v>577</v>
       </c>
       <c r="C346">
-        <v>112143.86</v>
+        <v>112289.14</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6609,7 +6610,7 @@
         <v>579</v>
       </c>
       <c r="C347">
-        <v>112041.49999999999</v>
+        <v>112196.56000000003</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6617,54 +6618,54 @@
         <v>580</v>
       </c>
       <c r="B348" t="s">
-        <v>61</v>
+        <v>581</v>
       </c>
       <c r="C348">
-        <v>112030.90000000002</v>
+        <v>112088.07</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B349" t="s">
-        <v>432</v>
+        <v>61</v>
       </c>
       <c r="C349">
-        <v>111806.63</v>
+        <v>112082.92</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B350" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="C350">
-        <v>111217.35</v>
+        <v>111850.56999999998</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B351" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="C351">
-        <v>111015.09</v>
+        <v>111459.75999999997</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B352" t="s">
-        <v>585</v>
+        <v>319</v>
       </c>
       <c r="C352">
-        <v>108973.04999999999</v>
+        <v>111258.69999999998</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6675,7 +6676,7 @@
         <v>587</v>
       </c>
       <c r="C353">
-        <v>108734.20999999999</v>
+        <v>109016.13</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6686,7 +6687,7 @@
         <v>589</v>
       </c>
       <c r="C354">
-        <v>108239.50000000001</v>
+        <v>108780.87</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6697,7 +6698,7 @@
         <v>591</v>
       </c>
       <c r="C355">
-        <v>107780.62</v>
+        <v>108379.11</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6705,98 +6706,98 @@
         <v>592</v>
       </c>
       <c r="B356" t="s">
-        <v>90</v>
+        <v>593</v>
       </c>
       <c r="C356">
-        <v>107541.67</v>
+        <v>107822.24</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B357" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="C357">
-        <v>107320.71</v>
+        <v>107782.32</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B358" t="s">
-        <v>450</v>
+        <v>227</v>
       </c>
       <c r="C358">
-        <v>106901.32</v>
+        <v>107367.31</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B359" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C359">
-        <v>102903.31000000001</v>
+        <v>106949.32999999999</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B360" t="s">
-        <v>111</v>
+        <v>457</v>
       </c>
       <c r="C360">
-        <v>102893.49</v>
+        <v>103130.09999999999</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B361" t="s">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="C361">
-        <v>102208.65999999999</v>
+        <v>102939.07</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B362" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="C362">
-        <v>101659.55999999998</v>
+        <v>102221.22999999998</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B363" t="s">
-        <v>317</v>
+        <v>92</v>
       </c>
       <c r="C363">
-        <v>101458.84999999999</v>
+        <v>101706.56999999999</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B364" t="s">
-        <v>601</v>
+        <v>319</v>
       </c>
       <c r="C364">
-        <v>100446</v>
+        <v>101554.24000000001</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6804,32 +6805,32 @@
         <v>602</v>
       </c>
       <c r="B365" t="s">
-        <v>75</v>
+        <v>603</v>
       </c>
       <c r="C365">
-        <v>100000</v>
+        <v>100487.53</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B366" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C366">
-        <v>99549.26999999999</v>
+        <v>100002.21</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B367" t="s">
-        <v>605</v>
+        <v>71</v>
       </c>
       <c r="C367">
-        <v>99423.84</v>
+        <v>99586.680000000008</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6840,7 +6841,7 @@
         <v>607</v>
       </c>
       <c r="C368">
-        <v>98791.979999999981</v>
+        <v>99471.03</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6848,21 +6849,21 @@
         <v>608</v>
       </c>
       <c r="B369" t="s">
-        <v>262</v>
+        <v>609</v>
       </c>
       <c r="C369">
-        <v>97385.44</v>
+        <v>98829.04</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B370" t="s">
-        <v>610</v>
+        <v>264</v>
       </c>
       <c r="C370">
-        <v>96879.260000000009</v>
+        <v>97510.68</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6873,7 +6874,7 @@
         <v>612</v>
       </c>
       <c r="C371">
-        <v>93392.36</v>
+        <v>96925.1</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6881,98 +6882,98 @@
         <v>613</v>
       </c>
       <c r="B372" t="s">
-        <v>249</v>
+        <v>614</v>
       </c>
       <c r="C372">
-        <v>92804.890000000014</v>
+        <v>93532.73</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B373" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="C373">
-        <v>91524.3</v>
+        <v>93401.94</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B374" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="C374">
-        <v>89125.72</v>
+        <v>92117.87</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B375" t="s">
         <v>59</v>
       </c>
       <c r="C375">
-        <v>89103.779999999984</v>
+        <v>91486.09</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B376" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="C376">
-        <v>89062.37</v>
+        <v>89234.189999999988</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B377" t="s">
-        <v>482</v>
+        <v>59</v>
       </c>
       <c r="C377">
-        <v>87753.85</v>
+        <v>89212.530000000013</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B378" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C378">
-        <v>87316.76</v>
+        <v>89171.74000000002</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B379" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C379">
-        <v>87285.83</v>
+        <v>87789.61</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B380" t="s">
-        <v>622</v>
+        <v>482</v>
       </c>
       <c r="C380">
-        <v>86960.25</v>
+        <v>87323.34</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6980,32 +6981,32 @@
         <v>623</v>
       </c>
       <c r="B381" t="s">
-        <v>59</v>
+        <v>624</v>
       </c>
       <c r="C381">
-        <v>86634.64</v>
+        <v>87203.920000000013</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B382" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C382">
-        <v>85000</v>
+        <v>86740.479999999996</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B383" t="s">
-        <v>626</v>
+        <v>103</v>
       </c>
       <c r="C383">
-        <v>82380.45</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7016,7 +7017,7 @@
         <v>628</v>
       </c>
       <c r="C384">
-        <v>81529.73000000001</v>
+        <v>82912.340000000011</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7024,10 +7025,10 @@
         <v>629</v>
       </c>
       <c r="B385" t="s">
-        <v>557</v>
+        <v>49</v>
       </c>
       <c r="C385">
-        <v>81526.920000000013</v>
+        <v>82549.33</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7035,43 +7036,43 @@
         <v>630</v>
       </c>
       <c r="B386" t="s">
-        <v>203</v>
+        <v>631</v>
       </c>
       <c r="C386">
-        <v>81474.789999999994</v>
+        <v>81581.960000000021</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B387" t="s">
-        <v>213</v>
+        <v>559</v>
       </c>
       <c r="C387">
-        <v>81207.5</v>
+        <v>81564.639999999999</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B388" t="s">
-        <v>438</v>
+        <v>203</v>
       </c>
       <c r="C388">
-        <v>80001.670000000013</v>
+        <v>81520.38</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B389" t="s">
-        <v>634</v>
+        <v>213</v>
       </c>
       <c r="C389">
-        <v>79333.299999999988</v>
+        <v>81232.23</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7079,21 +7080,21 @@
         <v>635</v>
       </c>
       <c r="B390" t="s">
-        <v>636</v>
+        <v>440</v>
       </c>
       <c r="C390">
-        <v>77545.45</v>
+        <v>80510.39</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
+        <v>636</v>
+      </c>
+      <c r="B391" t="s">
         <v>637</v>
       </c>
-      <c r="B391" t="s">
-        <v>496</v>
-      </c>
       <c r="C391">
-        <v>76719.260000000009</v>
+        <v>79366.38</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7101,21 +7102,21 @@
         <v>638</v>
       </c>
       <c r="B392" t="s">
-        <v>193</v>
+        <v>639</v>
       </c>
       <c r="C392">
-        <v>76343.610000000015</v>
+        <v>77577.540000000008</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B393" t="s">
-        <v>640</v>
+        <v>498</v>
       </c>
       <c r="C393">
-        <v>73620.359999999986</v>
+        <v>76887.549999999988</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7123,10 +7124,10 @@
         <v>641</v>
       </c>
       <c r="B394" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C394">
-        <v>73300.579999999987</v>
+        <v>76375.87999999999</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7137,7 +7138,7 @@
         <v>643</v>
       </c>
       <c r="C395">
-        <v>72877.679999999993</v>
+        <v>73862.820000000007</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7145,10 +7146,10 @@
         <v>644</v>
       </c>
       <c r="B396" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="C396">
-        <v>72742.45</v>
+        <v>73331.960000000006</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7156,43 +7157,43 @@
         <v>645</v>
       </c>
       <c r="B397" t="s">
-        <v>20</v>
+        <v>646</v>
       </c>
       <c r="C397">
-        <v>72021.570000000007</v>
+        <v>72907.97</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B398" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C398">
-        <v>69373.45</v>
+        <v>72761.279999999999</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B399" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C399">
-        <v>68799.459999999992</v>
+        <v>72050.990000000005</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B400" t="s">
-        <v>649</v>
+        <v>71</v>
       </c>
       <c r="C400">
-        <v>68532.210000000006</v>
+        <v>68837.5</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7203,7 +7204,7 @@
         <v>651</v>
       </c>
       <c r="C401">
-        <v>68373.98</v>
+        <v>68670.320000000007</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7211,21 +7212,21 @@
         <v>652</v>
       </c>
       <c r="B402" t="s">
-        <v>264</v>
+        <v>653</v>
       </c>
       <c r="C402">
-        <v>67804.659999999989</v>
+        <v>68404.209999999992</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B403" t="s">
-        <v>654</v>
+        <v>262</v>
       </c>
       <c r="C403">
-        <v>67224.939999999988</v>
+        <v>67884.28</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7233,21 +7234,21 @@
         <v>655</v>
       </c>
       <c r="B404" t="s">
-        <v>434</v>
+        <v>656</v>
       </c>
       <c r="C404">
-        <v>65572.759999999995</v>
+        <v>67256.44</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B405" t="s">
-        <v>657</v>
+        <v>436</v>
       </c>
       <c r="C405">
-        <v>64632.360000000008</v>
+        <v>65675.570000000007</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7258,7 +7259,7 @@
         <v>659</v>
       </c>
       <c r="C406">
-        <v>64122.47</v>
+        <v>64660.599999999991</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7266,43 +7267,43 @@
         <v>660</v>
       </c>
       <c r="B407" t="s">
-        <v>330</v>
+        <v>661</v>
       </c>
       <c r="C407">
-        <v>63955.810000000005</v>
+        <v>64149.439999999995</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B408" t="s">
-        <v>26</v>
+        <v>330</v>
       </c>
       <c r="C408">
-        <v>63839.89</v>
+        <v>64002.55</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B409" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="C409">
-        <v>63013.380000000012</v>
+        <v>63886.18</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B410" t="s">
-        <v>664</v>
+        <v>193</v>
       </c>
       <c r="C410">
-        <v>62171.68</v>
+        <v>63446.720000000001</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7310,21 +7311,21 @@
         <v>665</v>
       </c>
       <c r="B411" t="s">
-        <v>195</v>
+        <v>666</v>
       </c>
       <c r="C411">
-        <v>61801.02</v>
+        <v>62202.86</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B412" t="s">
-        <v>667</v>
+        <v>195</v>
       </c>
       <c r="C412">
-        <v>61787.340000000011</v>
+        <v>61825.69</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7332,65 +7333,65 @@
         <v>668</v>
       </c>
       <c r="B413" t="s">
-        <v>434</v>
+        <v>669</v>
       </c>
       <c r="C413">
-        <v>61640.299999999996</v>
+        <v>61814.94000000001</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B414" t="s">
-        <v>116</v>
+        <v>436</v>
       </c>
       <c r="C414">
-        <v>59490.080000000002</v>
+        <v>61668.590000000004</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B415" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C415">
-        <v>57223.359999999993</v>
+        <v>59874.1</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B416" t="s">
-        <v>422</v>
+        <v>59</v>
       </c>
       <c r="C416">
-        <v>57076.89</v>
+        <v>57338.93</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B417" t="s">
-        <v>347</v>
+        <v>424</v>
       </c>
       <c r="C417">
-        <v>55811.689999999995</v>
+        <v>57098.429999999993</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B418" t="s">
-        <v>674</v>
+        <v>347</v>
       </c>
       <c r="C418">
-        <v>55347.11</v>
+        <v>56172.38</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7398,87 +7399,87 @@
         <v>675</v>
       </c>
       <c r="B419" t="s">
-        <v>12</v>
+        <v>676</v>
       </c>
       <c r="C419">
-        <v>54927.100000000006</v>
+        <v>55370.679999999993</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B420" t="s">
-        <v>674</v>
+        <v>12</v>
       </c>
       <c r="C420">
-        <v>54486.11</v>
+        <v>54949.490000000005</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B421" t="s">
-        <v>310</v>
+        <v>676</v>
       </c>
       <c r="C421">
-        <v>53903.3</v>
+        <v>54508.499999999993</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B422" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
       <c r="C422">
-        <v>53352.200000000012</v>
+        <v>54252.009999999995</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B423" t="s">
-        <v>557</v>
+        <v>53</v>
       </c>
       <c r="C423">
-        <v>53269.660000000011</v>
+        <v>53697.27</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B424" t="s">
-        <v>140</v>
+        <v>559</v>
       </c>
       <c r="C424">
-        <v>53165.219999999994</v>
+        <v>53614.720000000001</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B425" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C425">
-        <v>52919.9</v>
+        <v>53262.070000000007</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B426" t="s">
-        <v>683</v>
+        <v>140</v>
       </c>
       <c r="C426">
-        <v>52384.180000000008</v>
+        <v>53187.94</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7489,7 +7490,7 @@
         <v>685</v>
       </c>
       <c r="C427">
-        <v>51898.06</v>
+        <v>52406.510000000009</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7497,54 +7498,54 @@
         <v>686</v>
       </c>
       <c r="B428" t="s">
-        <v>79</v>
+        <v>687</v>
       </c>
       <c r="C428">
-        <v>51272.5</v>
+        <v>51919.079999999994</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B429" t="s">
         <v>272</v>
       </c>
       <c r="C429">
-        <v>51180.439999999988</v>
+        <v>51889.599999999999</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B430" t="s">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="C430">
-        <v>50084.800000000003</v>
+        <v>51650.159999999996</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B431" t="s">
-        <v>467</v>
+        <v>356</v>
       </c>
       <c r="C431">
-        <v>49635.890000000007</v>
+        <v>50400.790000000015</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B432" t="s">
-        <v>691</v>
+        <v>469</v>
       </c>
       <c r="C432">
-        <v>49295.33</v>
+        <v>49984.639999999992</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7552,32 +7553,32 @@
         <v>692</v>
       </c>
       <c r="B433" t="s">
-        <v>538</v>
+        <v>693</v>
       </c>
       <c r="C433">
-        <v>48395.73000000001</v>
+        <v>49317.98</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B434" t="s">
-        <v>239</v>
+        <v>540</v>
       </c>
       <c r="C434">
-        <v>46636.280000000006</v>
+        <v>48495.21</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B435" t="s">
-        <v>695</v>
+        <v>239</v>
       </c>
       <c r="C435">
-        <v>45368</v>
+        <v>46789.560000000005</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7585,32 +7586,32 @@
         <v>696</v>
       </c>
       <c r="B436" t="s">
-        <v>213</v>
+        <v>697</v>
       </c>
       <c r="C436">
-        <v>44722.52</v>
+        <v>45386.320000000007</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B437" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C437">
-        <v>42841.76999999999</v>
+        <v>44751.94</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B438" t="s">
-        <v>699</v>
+        <v>79</v>
       </c>
       <c r="C438">
-        <v>41947.61</v>
+        <v>42934.789999999994</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7621,7 +7622,7 @@
         <v>701</v>
       </c>
       <c r="C439">
-        <v>41745.199999999997</v>
+        <v>41966.030000000006</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7629,32 +7630,32 @@
         <v>702</v>
       </c>
       <c r="B440" t="s">
-        <v>132</v>
+        <v>703</v>
       </c>
       <c r="C440">
-        <v>40872.54</v>
+        <v>41832.660000000003</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B441" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="C441">
-        <v>40258.14</v>
+        <v>40891.039999999994</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B442" t="s">
-        <v>705</v>
+        <v>61</v>
       </c>
       <c r="C442">
-        <v>39438.67</v>
+        <v>40274.909999999996</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7662,21 +7663,21 @@
         <v>706</v>
       </c>
       <c r="B443" t="s">
-        <v>51</v>
+        <v>707</v>
       </c>
       <c r="C443">
-        <v>36747.93</v>
+        <v>39455.43</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B444" t="s">
-        <v>708</v>
+        <v>49</v>
       </c>
       <c r="C444">
-        <v>36188.5</v>
+        <v>36952.920000000006</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7684,32 +7685,32 @@
         <v>709</v>
       </c>
       <c r="B445" t="s">
-        <v>406</v>
+        <v>710</v>
       </c>
       <c r="C445">
-        <v>35022.570000000007</v>
+        <v>36203.770000000004</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B446" t="s">
-        <v>251</v>
+        <v>406</v>
       </c>
       <c r="C446">
-        <v>34557.780000000006</v>
+        <v>35317.440000000002</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B447" t="s">
-        <v>712</v>
+        <v>251</v>
       </c>
       <c r="C447">
-        <v>34273.67</v>
+        <v>34573.1</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7720,7 +7721,7 @@
         <v>714</v>
       </c>
       <c r="C448">
-        <v>33969.19</v>
+        <v>34286.899999999994</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7731,7 +7732,7 @@
         <v>716</v>
       </c>
       <c r="C449">
-        <v>33182</v>
+        <v>33979.149999999994</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7739,65 +7740,65 @@
         <v>717</v>
       </c>
       <c r="B450" t="s">
-        <v>664</v>
+        <v>718</v>
       </c>
       <c r="C450">
-        <v>33079.979999999996</v>
+        <v>33196.479999999996</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B451" t="s">
-        <v>39</v>
+        <v>666</v>
       </c>
       <c r="C451">
-        <v>31583.299999999996</v>
+        <v>33093.94</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B452" t="s">
-        <v>496</v>
+        <v>39</v>
       </c>
       <c r="C452">
-        <v>30534.639999999999</v>
+        <v>31597.57</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B453" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="C453">
-        <v>29853.67</v>
+        <v>30547.72</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B454" t="s">
-        <v>409</v>
+        <v>482</v>
       </c>
       <c r="C454">
-        <v>28827.22</v>
+        <v>30065.000000000004</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B455" t="s">
-        <v>723</v>
+        <v>409</v>
       </c>
       <c r="C455">
-        <v>28412.82</v>
+        <v>28839.199999999997</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7805,21 +7806,21 @@
         <v>724</v>
       </c>
       <c r="B456" t="s">
-        <v>195</v>
+        <v>725</v>
       </c>
       <c r="C456">
-        <v>25924.079999999998</v>
+        <v>28427.03</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B457" t="s">
-        <v>726</v>
+        <v>195</v>
       </c>
       <c r="C457">
-        <v>24670.19</v>
+        <v>25934.720000000001</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7830,7 +7831,7 @@
         <v>728</v>
       </c>
       <c r="C458">
-        <v>23237.179999999997</v>
+        <v>24720.249999999996</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7841,7 +7842,7 @@
         <v>730</v>
       </c>
       <c r="C459">
-        <v>23124.97</v>
+        <v>24246.489999999998</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7849,32 +7850,32 @@
         <v>731</v>
       </c>
       <c r="B460" t="s">
-        <v>195</v>
+        <v>732</v>
       </c>
       <c r="C460">
-        <v>20872.670000000002</v>
+        <v>23132.77</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B461" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="C461">
-        <v>20130.929999999997</v>
+        <v>20881.13</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B462" t="s">
-        <v>734</v>
+        <v>71</v>
       </c>
       <c r="C462">
-        <v>20053.5</v>
+        <v>20138.989999999998</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7882,21 +7883,21 @@
         <v>735</v>
       </c>
       <c r="B463" t="s">
-        <v>339</v>
+        <v>736</v>
       </c>
       <c r="C463">
-        <v>17893.39</v>
+        <v>20062.439999999999</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B464" t="s">
-        <v>737</v>
+        <v>339</v>
       </c>
       <c r="C464">
-        <v>16384.3</v>
+        <v>17936.95</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7904,32 +7905,32 @@
         <v>738</v>
       </c>
       <c r="B465" t="s">
-        <v>213</v>
+        <v>739</v>
       </c>
       <c r="C465">
-        <v>16113.64</v>
+        <v>16391.18</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B466" t="s">
-        <v>420</v>
+        <v>213</v>
       </c>
       <c r="C466">
-        <v>14465.2</v>
+        <v>16120.84</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B467" t="s">
-        <v>741</v>
+        <v>420</v>
       </c>
       <c r="C467">
-        <v>14020.07</v>
+        <v>14464.960000000001</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7940,7 +7941,7 @@
         <v>743</v>
       </c>
       <c r="C468">
-        <v>13860.41</v>
+        <v>14026.32</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7948,32 +7949,32 @@
         <v>744</v>
       </c>
       <c r="B469" t="s">
-        <v>339</v>
+        <v>745</v>
       </c>
       <c r="C469">
-        <v>12859.03</v>
+        <v>13866.539999999999</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B470" t="s">
-        <v>6</v>
+        <v>339</v>
       </c>
       <c r="C470">
-        <v>11972.32</v>
+        <v>12864.8</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B471" t="s">
-        <v>747</v>
+        <v>6</v>
       </c>
       <c r="C471">
-        <v>11233.23</v>
+        <v>12046.84</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7981,21 +7982,21 @@
         <v>748</v>
       </c>
       <c r="B472" t="s">
-        <v>310</v>
+        <v>749</v>
       </c>
       <c r="C472">
-        <v>10703.409999999998</v>
+        <v>11238.19</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B473" t="s">
-        <v>750</v>
+        <v>310</v>
       </c>
       <c r="C473">
-        <v>10449.550000000001</v>
+        <v>10707.42</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8003,32 +8004,32 @@
         <v>751</v>
       </c>
       <c r="B474" t="s">
-        <v>418</v>
+        <v>752</v>
       </c>
       <c r="C474">
-        <v>10058.61</v>
+        <v>10453.209999999999</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B475" t="s">
-        <v>8</v>
+        <v>418</v>
       </c>
       <c r="C475">
-        <v>9910.74</v>
+        <v>10062.67</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B476" t="s">
-        <v>754</v>
+        <v>8</v>
       </c>
       <c r="C476">
-        <v>9180.7200000000012</v>
+        <v>9915.1200000000008</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8036,21 +8037,21 @@
         <v>755</v>
       </c>
       <c r="B477" t="s">
-        <v>195</v>
+        <v>756</v>
       </c>
       <c r="C477">
-        <v>8819.9499999999971</v>
+        <v>9184.66</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B478" t="s">
-        <v>757</v>
+        <v>195</v>
       </c>
       <c r="C478">
-        <v>6756.12</v>
+        <v>8823.5499999999993</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8058,21 +8059,21 @@
         <v>758</v>
       </c>
       <c r="B479" t="s">
-        <v>193</v>
+        <v>759</v>
       </c>
       <c r="C479">
-        <v>5614.58</v>
+        <v>6758.9099999999989</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B480" t="s">
-        <v>760</v>
+        <v>193</v>
       </c>
       <c r="C480">
-        <v>4617.6900000000005</v>
+        <v>5653.97</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8080,21 +8081,21 @@
         <v>761</v>
       </c>
       <c r="B481" t="s">
-        <v>264</v>
+        <v>762</v>
       </c>
       <c r="C481">
-        <v>2748.2799999999997</v>
+        <v>4618.6499999999996</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B482" t="s">
-        <v>763</v>
+        <v>262</v>
       </c>
       <c r="C482">
-        <v>2300</v>
+        <v>2749.38</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8102,21 +8103,21 @@
         <v>764</v>
       </c>
       <c r="B483" t="s">
-        <v>31</v>
+        <v>765</v>
       </c>
       <c r="C483">
-        <v>1422.72</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B484" t="s">
-        <v>766</v>
+        <v>31</v>
       </c>
       <c r="C484">
-        <v>1095.22</v>
+        <v>1423.32</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8124,21 +8125,21 @@
         <v>767</v>
       </c>
       <c r="B485" t="s">
-        <v>394</v>
+        <v>768</v>
       </c>
       <c r="C485">
-        <v>1080.7</v>
+        <v>1095.71</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B486" t="s">
-        <v>769</v>
+        <v>394</v>
       </c>
       <c r="C486">
-        <v>1009.11</v>
+        <v>1081.18</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8146,32 +8147,32 @@
         <v>770</v>
       </c>
       <c r="B487" t="s">
-        <v>542</v>
+        <v>771</v>
       </c>
       <c r="C487">
-        <v>741.57</v>
+        <v>1009.56</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B488" t="s">
-        <v>20</v>
+        <v>544</v>
       </c>
       <c r="C488">
-        <v>486.27</v>
+        <v>741.85</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B489" t="s">
-        <v>773</v>
+        <v>53</v>
       </c>
       <c r="C489">
-        <v>433.82</v>
+        <v>500</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8179,10 +8180,10 @@
         <v>774</v>
       </c>
       <c r="B490" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C490">
-        <v>277.3</v>
+        <v>493.14</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8190,21 +8191,21 @@
         <v>775</v>
       </c>
       <c r="B491" t="s">
-        <v>317</v>
+        <v>776</v>
       </c>
       <c r="C491">
-        <v>188.83</v>
+        <v>435.68</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B492" t="s">
-        <v>777</v>
+        <v>100</v>
       </c>
       <c r="C492">
-        <v>100</v>
+        <v>277.42</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8212,10 +8213,10 @@
         <v>778</v>
       </c>
       <c r="B493" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="C493">
-        <v>86.38</v>
+        <v>188.91</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8223,10 +8224,10 @@
         <v>779</v>
       </c>
       <c r="B494" t="s">
-        <v>434</v>
+        <v>264</v>
       </c>
       <c r="C494">
-        <v>50.26</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8234,10 +8235,10 @@
         <v>780</v>
       </c>
       <c r="B495" t="s">
-        <v>587</v>
+        <v>436</v>
       </c>
       <c r="C495">
-        <v>50</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8245,10 +8246,10 @@
         <v>781</v>
       </c>
       <c r="B496" t="s">
-        <v>422</v>
+        <v>589</v>
       </c>
       <c r="C496">
-        <v>33.049999999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8256,21 +8257,21 @@
         <v>782</v>
       </c>
       <c r="B497" t="s">
-        <v>783</v>
+        <v>424</v>
       </c>
       <c r="C497">
-        <v>29.77</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
+        <v>783</v>
+      </c>
+      <c r="B498" t="s">
         <v>784</v>
       </c>
-      <c r="B498" t="s">
-        <v>20</v>
-      </c>
       <c r="C498">
-        <v>26.17</v>
+        <v>29.770000000000003</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8278,54 +8279,54 @@
         <v>785</v>
       </c>
       <c r="B499" t="s">
-        <v>786</v>
+        <v>20</v>
       </c>
       <c r="C499">
-        <v>21.27</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
+        <v>786</v>
+      </c>
+      <c r="B500" t="s">
         <v>787</v>
       </c>
-      <c r="B500" t="s">
-        <v>788</v>
-      </c>
       <c r="C500">
-        <v>17.86</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
+        <v>788</v>
+      </c>
+      <c r="B501" t="s">
         <v>789</v>
       </c>
-      <c r="B501" t="s">
-        <v>790</v>
-      </c>
       <c r="C501">
-        <v>14.67</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
+        <v>790</v>
+      </c>
+      <c r="B502" t="s">
         <v>791</v>
       </c>
-      <c r="B502" t="s">
-        <v>792</v>
-      </c>
       <c r="C502">
-        <v>9.7200000000000006</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
+        <v>792</v>
+      </c>
+      <c r="B503" t="s">
         <v>793</v>
       </c>
-      <c r="B503" t="s">
-        <v>12</v>
-      </c>
       <c r="C503">
-        <v>7.82</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8333,10 +8334,10 @@
         <v>794</v>
       </c>
       <c r="B504" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="C504">
-        <v>5.55</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8344,21 +8345,21 @@
         <v>795</v>
       </c>
       <c r="B505" t="s">
-        <v>796</v>
+        <v>264</v>
       </c>
       <c r="C505">
-        <v>0.05</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
+        <v>796</v>
+      </c>
+      <c r="B506" t="s">
         <v>797</v>
       </c>
-      <c r="B506" t="s">
-        <v>41</v>
-      </c>
       <c r="C506">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8366,15 +8367,26 @@
         <v>798</v>
       </c>
       <c r="B507" t="s">
-        <v>799</v>
+        <v>41</v>
       </c>
       <c r="C507">
         <v>0.01</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
-      <c r="A509" t="s">
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>799</v>
+      </c>
+      <c r="B508" t="s">
         <v>800</v>
+      </c>
+      <c r="C508">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
